--- a/Separator Model/Input/data_main.xlsx
+++ b/Separator Model/Input/data_main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd1a17303fcb2a19/Documentos/RWTH/Semester 4 (SS25)/MA/W14_Modelle_Auswerten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\public\03 Studenten\00 Ausgeschieden\Ivan Guzman\05_Simulations\Abscheidermodell\MA\MA-Model_4\Separator Model\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="11_AD4DB114E441178AC67DF4C99614D368683EDF28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CC74E8F-EF7D-4E8E-B38A-2ADEE4F20AFA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4124941D-3006-43A3-A71F-311403A7681D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -114,7 +112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -398,11 +396,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1349,7 +1347,7 @@
         <v>8</v>
       </c>
       <c r="B48">
-        <v>6.3029999999999996E-3</v>
+        <v>6.3029999999999998E-4</v>
       </c>
       <c r="C48">
         <v>1500</v>

--- a/Separator Model/Input/data_main.xlsx
+++ b/Separator Model/Input/data_main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\public\03 Studenten\00 Ausgeschieden\Ivan Guzman\05_Simulations\Abscheidermodell\MA\MA-Model_4\Separator Model\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd1a17303fcb2a19/Documentos/RWTH/Semester 4 (SS25)/MA/W14_Modelle_Auswerten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4124941D-3006-43A3-A71F-311403A7681D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="11_AD4DB114E441178AC67DF4C99614D368683EDF28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{069B8A25-7133-496C-9455-6B0B2823A8F0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -88,12 +90,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,11 +116,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -396,11 +405,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -423,162 +432,162 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
         <v>2.5999999999999998E-4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>160</v>
       </c>
-      <c r="D2">
-        <v>0.2</v>
-      </c>
-      <c r="E2">
-        <v>8.7068118117179262E-4</v>
-      </c>
-      <c r="F2">
+      <c r="D2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>9.6295716614565059E-4</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.1823660146057291</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
         <v>2.81E-4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>160</v>
       </c>
-      <c r="D3">
-        <v>0.2</v>
-      </c>
-      <c r="E3">
-        <v>4.8871695469652121E-4</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5.4068508635758987E-4</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.21301483549235181</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>3.0699999999999998E-4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>160</v>
       </c>
-      <c r="D4">
-        <v>0.2</v>
-      </c>
-      <c r="E4">
-        <v>5.1845977542828547E-4</v>
-      </c>
-      <c r="F4">
+      <c r="D4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5.7356177557115905E-4</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.25425761110318579</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
         <v>3.6999999999999999E-4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>160</v>
       </c>
-      <c r="D5">
-        <v>0.2</v>
-      </c>
-      <c r="E5">
-        <v>1.458300691465655E-3</v>
-      </c>
-      <c r="F5">
+      <c r="D5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.6091137159752529E-3</v>
+      </c>
+      <c r="F5" s="1">
         <v>0.36931815679769697</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
         <v>4.3100000000000001E-4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>160</v>
       </c>
-      <c r="D6">
-        <v>0.2</v>
-      </c>
-      <c r="E6">
-        <v>1.835825293300633E-3</v>
-      </c>
-      <c r="F6">
+      <c r="D6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.022104184845368E-3</v>
+      </c>
+      <c r="F6" s="1">
         <v>0.50113155679252741</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
         <v>5.3200000000000003E-4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>160</v>
       </c>
-      <c r="D7">
-        <v>0.2</v>
-      </c>
-      <c r="E7">
-        <v>1.1514912809325629E-3</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.8583168791360669E-3</v>
+      </c>
+      <c r="F7" s="1">
         <v>0.76352010233390366</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
         <v>6.8899999999999994E-4</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>160</v>
       </c>
-      <c r="D8">
-        <v>0.2</v>
-      </c>
-      <c r="E8">
-        <v>9.5293032223387007E-4</v>
-      </c>
-      <c r="F8">
+      <c r="D8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.5414611966421831E-3</v>
+      </c>
+      <c r="F8" s="1">
         <v>1.2806653375687329</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
         <v>1.281E-3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>160</v>
       </c>
-      <c r="D9">
-        <v>0.2</v>
-      </c>
-      <c r="E9">
-        <v>7.433338148866344E-4</v>
-      </c>
-      <c r="F9">
+      <c r="D9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.203053031576804E-3</v>
+      </c>
+      <c r="F9" s="1">
         <v>4.4268567706128978</v>
       </c>
     </row>
@@ -596,7 +605,7 @@
         <v>0.2</v>
       </c>
       <c r="E10">
-        <v>2.0578457107418729E-4</v>
+        <v>2.2772938978669619E-4</v>
       </c>
       <c r="F10">
         <v>0.1370529158760026</v>
@@ -616,7 +625,7 @@
         <v>0.2</v>
       </c>
       <c r="E11">
-        <v>1.218968850821466E-3</v>
+        <v>1.3477410867637691E-3</v>
       </c>
       <c r="F11">
         <v>0.17284629282554129</v>
@@ -636,7 +645,7 @@
         <v>0.2</v>
       </c>
       <c r="E12">
-        <v>1.3407609059908621E-3</v>
+        <v>1.48167952704679E-3</v>
       </c>
       <c r="F12">
         <v>0.2279575182571614</v>
@@ -656,7 +665,7 @@
         <v>0.2</v>
       </c>
       <c r="E13">
-        <v>1.4324225232782979E-3</v>
+        <v>1.5823525896206921E-3</v>
       </c>
       <c r="F13">
         <v>0.31658092682248279</v>
@@ -676,7 +685,7 @@
         <v>0.2</v>
       </c>
       <c r="E14">
-        <v>1.1444992140372311E-3</v>
+        <v>1.2640770242587729E-3</v>
       </c>
       <c r="F14">
         <v>0.46464702343852138</v>
@@ -696,7 +705,7 @@
         <v>0.2</v>
       </c>
       <c r="E15">
-        <v>1.0761946647764461E-3</v>
+        <v>1.750109021017441E-3</v>
       </c>
       <c r="F15">
         <v>0.73605944943634971</v>
@@ -716,7 +725,7 @@
         <v>0.2</v>
       </c>
       <c r="E16">
-        <v>7.5932554150854605E-4</v>
+        <v>1.238571092807607E-3</v>
       </c>
       <c r="F16">
         <v>1.3401074860750279</v>
@@ -736,7 +745,7 @@
         <v>0.2</v>
       </c>
       <c r="E17">
-        <v>5.5592191746296098E-4</v>
+        <v>9.1166767204117576E-4</v>
       </c>
       <c r="F17">
         <v>2.5877090019246669</v>
@@ -756,189 +765,189 @@
         <v>0.2</v>
       </c>
       <c r="E18">
-        <v>2.7662656006531691E-4</v>
+        <v>4.5693419373077951E-4</v>
       </c>
       <c r="F18">
         <v>4.8558997971939712</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
         <v>2.7099999999999997E-4</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>240</v>
       </c>
-      <c r="D19">
-        <v>0.2</v>
-      </c>
-      <c r="E19">
-        <v>5.1461472366169756E-4</v>
-      </c>
-      <c r="F19">
+      <c r="D19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5.6943586866757242E-4</v>
+      </c>
+      <c r="F19" s="1">
         <v>0.1320822729650824</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
         <v>2.9799999999999998E-4</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>240</v>
       </c>
-      <c r="D20">
-        <v>0.2</v>
-      </c>
-      <c r="E20">
-        <v>1.596125120680681E-3</v>
-      </c>
-      <c r="F20">
+      <c r="D20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.7641118244044319E-3</v>
+      </c>
+      <c r="F20" s="1">
         <v>0.1597123428111161</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
         <v>3.4299999999999999E-4</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>240</v>
       </c>
-      <c r="D21">
-        <v>0.2</v>
-      </c>
-      <c r="E21">
-        <v>2.5227032600661169E-3</v>
-      </c>
-      <c r="F21">
+      <c r="D21" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2.7815827299968472E-3</v>
+      </c>
+      <c r="F21" s="1">
         <v>0.211589538977805</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
         <v>4.0400000000000001E-4</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>240</v>
       </c>
-      <c r="D22">
-        <v>0.2</v>
-      </c>
-      <c r="E22">
-        <v>2.8373172099416628E-3</v>
-      </c>
-      <c r="F22">
+      <c r="D22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3.1243836337864731E-3</v>
+      </c>
+      <c r="F22" s="1">
         <v>0.29354094122178198</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
         <v>5.0299999999999997E-4</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>240</v>
       </c>
-      <c r="D23">
-        <v>0.2</v>
-      </c>
-      <c r="E23">
-        <v>3.1891748761890149E-3</v>
-      </c>
-      <c r="F23">
+      <c r="D23" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3.5047858321507158E-3</v>
+      </c>
+      <c r="F23" s="1">
         <v>0.45503198214379609</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
         <v>6.0999999999999997E-4</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>240</v>
       </c>
-      <c r="D24">
-        <v>0.2</v>
-      </c>
-      <c r="E24">
-        <v>1.909077013077547E-3</v>
-      </c>
-      <c r="F24">
+      <c r="D24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3.0154706835275259E-3</v>
+      </c>
+      <c r="F24" s="1">
         <v>0.66921493130958387</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
         <v>8.0399999999999992E-4</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>240</v>
       </c>
-      <c r="D25">
-        <v>0.2</v>
-      </c>
-      <c r="E25">
-        <v>1.451728194097883E-3</v>
-      </c>
-      <c r="F25">
+      <c r="D25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.3056367382307788E-3</v>
+      </c>
+      <c r="F25" s="1">
         <v>1.162567156778866</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
         <v>1.0920000000000001E-3</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>240</v>
       </c>
-      <c r="D26">
-        <v>0.2</v>
-      </c>
-      <c r="E26">
-        <v>1.158787461713055E-3</v>
-      </c>
-      <c r="F26">
+      <c r="D26" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.8617433763087039E-3</v>
+      </c>
+      <c r="F26" s="1">
         <v>2.1446243317633749</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
         <v>1.4159999999999999E-3</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>240</v>
       </c>
-      <c r="D27">
-        <v>0.2</v>
-      </c>
-      <c r="E27">
-        <v>5.9200537170987116E-4</v>
-      </c>
-      <c r="F27">
+      <c r="D27" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>9.7170389896743172E-4</v>
+      </c>
+      <c r="F27" s="1">
         <v>3.606055934726871</v>
       </c>
     </row>
@@ -976,7 +985,7 @@
         <v>0.2</v>
       </c>
       <c r="E29">
-        <v>2.248917137399704E-3</v>
+        <v>2.481912581033939E-3</v>
       </c>
       <c r="F29">
         <v>0.13324589043500251</v>
@@ -996,7 +1005,7 @@
         <v>0.2</v>
       </c>
       <c r="E30">
-        <v>3.1891748761890149E-3</v>
+        <v>3.5047858321507158E-3</v>
       </c>
       <c r="F30">
         <v>0.17507291557699109</v>
@@ -1016,7 +1025,7 @@
         <v>0.2</v>
       </c>
       <c r="E31">
-        <v>3.2126682172198069E-3</v>
+        <v>3.5300274842651859E-3</v>
       </c>
       <c r="F31">
         <v>0.24912153359547129</v>
@@ -1036,7 +1045,7 @@
         <v>0.2</v>
       </c>
       <c r="E32">
-        <v>3.4195819994518669E-3</v>
+        <v>3.7511155850126609E-3</v>
       </c>
       <c r="F32">
         <v>0.38077808031907501</v>
@@ -1056,7 +1065,7 @@
         <v>0.2</v>
       </c>
       <c r="E33">
-        <v>3.4579550590871861E-3</v>
+        <v>3.7918205784826329E-3</v>
       </c>
       <c r="F33">
         <v>0.58685321837904003</v>
@@ -1076,7 +1085,7 @@
         <v>0.2</v>
       </c>
       <c r="E34">
-        <v>1.877190834877261E-3</v>
+        <v>2.9280961559260119E-3</v>
       </c>
       <c r="F34">
         <v>0.98659551435052129</v>
@@ -1096,7 +1105,7 @@
         <v>0.2</v>
       </c>
       <c r="E35">
-        <v>1.5326450942369911E-3</v>
+        <v>2.4002025628507462E-3</v>
       </c>
       <c r="F35">
         <v>1.8618922637938651</v>
@@ -1116,289 +1125,289 @@
         <v>0.2</v>
       </c>
       <c r="E36">
-        <v>9.4351313076291188E-4</v>
+        <v>1.53434215541255E-3</v>
       </c>
       <c r="F36">
         <v>2.5177979188444941</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>2050</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>0.3</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>5.9087441444048081E-3</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>9.0499999999999999E-4</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>2350</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>0.5</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>5.9087441444048081E-3</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>6.3250000000000003E-4</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>1600</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>0.3</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>5.9087441444048081E-3</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>6.0749999999999997E-4</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>1500</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>0.3</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>5.9087441444048081E-3</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>7.3800000000000005E-4</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>1450</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>0.5</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>5.9087441444048081E-3</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>8.6499999999999999E-4</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>1850</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>0.5</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>5.9087441444048081E-3</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>6.2750000000000002E-4</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>1600</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>0.3</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>5.9087441444048081E-3</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>5.8500000000000002E-4</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>1450</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>0.3</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>5.9087441444048081E-3</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>7.0750000000000001E-4</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>1400</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>0.5</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>5.9087441444048081E-3</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>6.3500000000000004E-4</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>1150</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>0.5</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>5.9087441444048081E-3</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>6.6750000000000002E-4</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>1600</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>0.3</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>5.9087441444048081E-3</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>6.3029999999999998E-4</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>1500</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>0.3</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
         <v>5.9087441444048081E-3</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>7.2250000000000005E-4</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>1350</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>0.5</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <v>5.9087441444048081E-3</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>6.7250000000000003E-4</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>1200</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>0.5</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <v>5.9087441444048081E-3</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Separator Model/Input/data_main.xlsx
+++ b/Separator Model/Input/data_main.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iagr9\Projekte\MA\MA-Model_4\Separator Model\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10055468-AFF3-4FA5-9D37-04ACA1E8EE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001C5818-F282-40CA-8DA0-39B43ED1A302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4620" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="sozh" sheetId="2" r:id="rId2"/>
+    <sheet name="detail_V_dis" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="21">
   <si>
     <t>exp</t>
   </si>
@@ -106,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +129,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -143,7 +152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -151,15 +160,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2405,7 +2430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2B3A06-4DE5-48EC-A9CD-6616EFAB12EB}">
   <dimension ref="A1:H363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
+    <sheetView topLeftCell="A327" workbookViewId="0">
       <selection activeCell="G363" sqref="G363"/>
     </sheetView>
   </sheetViews>
@@ -11855,4 +11880,2749 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D26A40-5EC0-4FC2-A7B8-9E1205DD29FB}">
+  <dimension ref="A1:H105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>2.0462099999999999E-4</v>
+      </c>
+      <c r="C2">
+        <v>743.10170100000005</v>
+      </c>
+      <c r="D2">
+        <v>0.29701893400000001</v>
+      </c>
+      <c r="E2">
+        <v>3.6502927999999997E-2</v>
+      </c>
+      <c r="F2">
+        <v>9.6633421999999997E-2</v>
+      </c>
+      <c r="G2">
+        <v>4.4652340000000002E-3</v>
+      </c>
+      <c r="H2">
+        <v>0.98750888400000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>6.5725699999999996E-4</v>
+      </c>
+      <c r="C3">
+        <v>748.36788460000002</v>
+      </c>
+      <c r="D3">
+        <v>0.50333939500000002</v>
+      </c>
+      <c r="E3">
+        <v>2.8484735000000001E-2</v>
+      </c>
+      <c r="F3">
+        <v>9.2660582000000005E-2</v>
+      </c>
+      <c r="G3">
+        <v>1.528742E-3</v>
+      </c>
+      <c r="H3">
+        <v>0.99108918400000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>3.1127999999999999E-4</v>
+      </c>
+      <c r="C4">
+        <v>749.92972780000002</v>
+      </c>
+      <c r="D4">
+        <v>0.49988101000000001</v>
+      </c>
+      <c r="E4">
+        <v>3.8919571E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.10772396300000001</v>
+      </c>
+      <c r="G4">
+        <v>4.7552549999999999E-3</v>
+      </c>
+      <c r="H4">
+        <v>0.99268671900000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>4.4927699999999999E-4</v>
+      </c>
+      <c r="C5">
+        <v>749.97402599999998</v>
+      </c>
+      <c r="D5">
+        <v>0.399764919</v>
+      </c>
+      <c r="E5">
+        <v>3.8463404E-2</v>
+      </c>
+      <c r="F5">
+        <v>9.5001253999999993E-2</v>
+      </c>
+      <c r="G5">
+        <v>3.785549E-3</v>
+      </c>
+      <c r="H5">
+        <v>0.98653263199999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>5.4967899999999997E-4</v>
+      </c>
+      <c r="C6">
+        <v>750.02556879999997</v>
+      </c>
+      <c r="D6">
+        <v>0.50015754999999995</v>
+      </c>
+      <c r="E6">
+        <v>4.0361706999999997E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.101830843</v>
+      </c>
+      <c r="G6">
+        <v>5.2321299999999998E-3</v>
+      </c>
+      <c r="H6">
+        <v>0.99445781600000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>3.38769E-4</v>
+      </c>
+      <c r="C7">
+        <v>750.05733190000001</v>
+      </c>
+      <c r="D7">
+        <v>0.49989457599999998</v>
+      </c>
+      <c r="E7">
+        <v>3.8023349999999997E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.108397884</v>
+      </c>
+      <c r="G7">
+        <v>4.1389720000000003E-3</v>
+      </c>
+      <c r="H7">
+        <v>0.99176721899999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>2.4194099999999999E-4</v>
+      </c>
+      <c r="C8">
+        <v>750.20782199999996</v>
+      </c>
+      <c r="D8">
+        <v>0.40002338700000001</v>
+      </c>
+      <c r="E8">
+        <v>6.6916982E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.106790285</v>
+      </c>
+      <c r="G8">
+        <v>5.2340670000000002E-3</v>
+      </c>
+      <c r="H8">
+        <v>0.99171526700000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>4.9274500000000005E-4</v>
+      </c>
+      <c r="C9">
+        <v>750.25178530000005</v>
+      </c>
+      <c r="D9">
+        <v>0.29988877800000002</v>
+      </c>
+      <c r="E9">
+        <v>3.6448479999999998E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.10019613600000001</v>
+      </c>
+      <c r="G9">
+        <v>2.8000159999999998E-3</v>
+      </c>
+      <c r="H9">
+        <v>0.98938694400000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>6.1183099999999996E-4</v>
+      </c>
+      <c r="C10">
+        <v>750.71744000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.50033280999999996</v>
+      </c>
+      <c r="E10">
+        <v>3.7521118999999999E-2</v>
+      </c>
+      <c r="F10">
+        <v>9.8495864000000002E-2</v>
+      </c>
+      <c r="G10">
+        <v>3.1483090000000002E-3</v>
+      </c>
+      <c r="H10">
+        <v>0.99218971899999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>3.9097999999999997E-4</v>
+      </c>
+      <c r="C11">
+        <v>750.86723619999998</v>
+      </c>
+      <c r="D11">
+        <v>0.30092750000000001</v>
+      </c>
+      <c r="E11">
+        <v>3.3229887E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.100884113</v>
+      </c>
+      <c r="G11">
+        <v>3.2887580000000001E-3</v>
+      </c>
+      <c r="H11">
+        <v>0.99199386300000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>2.2167000000000001E-4</v>
+      </c>
+      <c r="C12">
+        <v>751.48936860000003</v>
+      </c>
+      <c r="D12">
+        <v>0.40003253100000002</v>
+      </c>
+      <c r="E12">
+        <v>7.0955006000000001E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.11041532699999999</v>
+      </c>
+      <c r="G12">
+        <v>4.5576050000000002E-3</v>
+      </c>
+      <c r="H12">
+        <v>0.99505433700000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>6.7796600000000001E-4</v>
+      </c>
+      <c r="C13">
+        <v>752.85933369999998</v>
+      </c>
+      <c r="D13">
+        <v>0.49949943499999999</v>
+      </c>
+      <c r="E13">
+        <v>4.2382797999999999E-2</v>
+      </c>
+      <c r="F13">
+        <v>9.7580385000000006E-2</v>
+      </c>
+      <c r="G13">
+        <v>3.6210349999999999E-3</v>
+      </c>
+      <c r="H13">
+        <v>0.99436792399999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>2.54348E-4</v>
+      </c>
+      <c r="C14">
+        <v>908.35374130000002</v>
+      </c>
+      <c r="D14">
+        <v>0.27718706700000001</v>
+      </c>
+      <c r="E14">
+        <v>3.6368708E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.103970942</v>
+      </c>
+      <c r="G14">
+        <v>3.6805710000000001E-3</v>
+      </c>
+      <c r="H14">
+        <v>0.99263151500000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>8.0239500000000002E-4</v>
+      </c>
+      <c r="C15">
+        <v>998.44373169999994</v>
+      </c>
+      <c r="D15">
+        <v>0.499859416</v>
+      </c>
+      <c r="E15">
+        <v>1.8851822000000001E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.10280117799999999</v>
+      </c>
+      <c r="G15">
+        <v>3.8602500000000002E-4</v>
+      </c>
+      <c r="H15">
+        <v>0.99546705300000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>5.0275999999999999E-4</v>
+      </c>
+      <c r="C16">
+        <v>999.40820970000004</v>
+      </c>
+      <c r="D16">
+        <v>0.29920427599999999</v>
+      </c>
+      <c r="E16">
+        <v>4.1816536000000001E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.101860464</v>
+      </c>
+      <c r="G16">
+        <v>4.1493759999999998E-3</v>
+      </c>
+      <c r="H16">
+        <v>0.98989876499999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>5.9944000000000002E-4</v>
+      </c>
+      <c r="C17">
+        <v>999.59662909999997</v>
+      </c>
+      <c r="D17">
+        <v>0.40006547100000001</v>
+      </c>
+      <c r="E17">
+        <v>2.4784075999999999E-2</v>
+      </c>
+      <c r="F17">
+        <v>9.7689174000000004E-2</v>
+      </c>
+      <c r="G17">
+        <v>4.8635799999999999E-4</v>
+      </c>
+      <c r="H17">
+        <v>0.99499302099999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>7.1244500000000003E-4</v>
+      </c>
+      <c r="C18">
+        <v>999.64467930000001</v>
+      </c>
+      <c r="D18">
+        <v>0.49991358299999999</v>
+      </c>
+      <c r="E18">
+        <v>1.8550810000000001E-2</v>
+      </c>
+      <c r="F18">
+        <v>9.4884389999999999E-2</v>
+      </c>
+      <c r="G18">
+        <v>2.2179650000000001E-3</v>
+      </c>
+      <c r="H18">
+        <v>0.99704778699999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>3.7785800000000001E-4</v>
+      </c>
+      <c r="C19">
+        <v>999.67359969999995</v>
+      </c>
+      <c r="D19">
+        <v>0.30006925000000001</v>
+      </c>
+      <c r="E19">
+        <v>3.6809690999999999E-2</v>
+      </c>
+      <c r="F19">
+        <v>0.108183192</v>
+      </c>
+      <c r="G19">
+        <v>4.052745E-3</v>
+      </c>
+      <c r="H19">
+        <v>0.98579144299999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>5.6844399999999998E-4</v>
+      </c>
+      <c r="C20">
+        <v>1000.032227</v>
+      </c>
+      <c r="D20">
+        <v>0.29996158899999997</v>
+      </c>
+      <c r="E20">
+        <v>1.9367124999999999E-2</v>
+      </c>
+      <c r="F20">
+        <v>9.7314092000000005E-2</v>
+      </c>
+      <c r="G20">
+        <v>2.175696E-3</v>
+      </c>
+      <c r="H20">
+        <v>0.995888047</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>6.5962200000000001E-4</v>
+      </c>
+      <c r="C21">
+        <v>1000.129858</v>
+      </c>
+      <c r="D21">
+        <v>0.49965211700000001</v>
+      </c>
+      <c r="E21">
+        <v>4.2670694000000002E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.10375522299999999</v>
+      </c>
+      <c r="G21">
+        <v>5.4323920000000003E-3</v>
+      </c>
+      <c r="H21">
+        <v>0.99410157700000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>7.5361500000000001E-4</v>
+      </c>
+      <c r="C22">
+        <v>1000.183129</v>
+      </c>
+      <c r="D22">
+        <v>0.50001522700000001</v>
+      </c>
+      <c r="E22">
+        <v>1.9893559000000002E-2</v>
+      </c>
+      <c r="F22">
+        <v>9.5239508E-2</v>
+      </c>
+      <c r="G22">
+        <v>2.0156449999999999E-3</v>
+      </c>
+      <c r="H22">
+        <v>0.99718886500000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>3.65507E-4</v>
+      </c>
+      <c r="C23">
+        <v>1000.201091</v>
+      </c>
+      <c r="D23">
+        <v>0.30000356700000003</v>
+      </c>
+      <c r="E23">
+        <v>5.1118615999999999E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.114449734</v>
+      </c>
+      <c r="G23">
+        <v>4.440495E-3</v>
+      </c>
+      <c r="H23">
+        <v>0.99139601200000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>3.21902E-4</v>
+      </c>
+      <c r="C24">
+        <v>1000.303949</v>
+      </c>
+      <c r="D24">
+        <v>0.50013415000000006</v>
+      </c>
+      <c r="E24">
+        <v>5.7089112999999997E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.11521322000000001</v>
+      </c>
+      <c r="G24">
+        <v>4.8777610000000004E-3</v>
+      </c>
+      <c r="H24">
+        <v>0.99550441999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <v>4.4690600000000001E-4</v>
+      </c>
+      <c r="C25">
+        <v>1000.564352</v>
+      </c>
+      <c r="D25">
+        <v>0.40118413600000002</v>
+      </c>
+      <c r="E25">
+        <v>4.5435773999999998E-2</v>
+      </c>
+      <c r="F25">
+        <v>0.10055367599999999</v>
+      </c>
+      <c r="G25">
+        <v>4.5400780000000003E-3</v>
+      </c>
+      <c r="H25">
+        <v>0.98875126400000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>2.6539199999999998E-4</v>
+      </c>
+      <c r="C26">
+        <v>1002.961609</v>
+      </c>
+      <c r="D26">
+        <v>0.30087852900000001</v>
+      </c>
+      <c r="E26">
+        <v>7.5760642000000003E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.10911349100000001</v>
+      </c>
+      <c r="G26">
+        <v>5.1225200000000002E-3</v>
+      </c>
+      <c r="H26">
+        <v>0.99228384400000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>2.7240599999999999E-4</v>
+      </c>
+      <c r="C27">
+        <v>1242.8563799999999</v>
+      </c>
+      <c r="D27">
+        <v>0.29883443599999998</v>
+      </c>
+      <c r="E27">
+        <v>6.6170259999999995E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.11349644</v>
+      </c>
+      <c r="G27">
+        <v>5.5628220000000003E-3</v>
+      </c>
+      <c r="H27">
+        <v>0.99175836900000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>5.6636299999999996E-4</v>
+      </c>
+      <c r="C28">
+        <v>1249.038305</v>
+      </c>
+      <c r="D28">
+        <v>0.50009379399999998</v>
+      </c>
+      <c r="E28">
+        <v>5.5513298000000003E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.114298685</v>
+      </c>
+      <c r="G28">
+        <v>5.8367810000000001E-3</v>
+      </c>
+      <c r="H28">
+        <v>0.99043759600000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <v>4.4455299999999998E-4</v>
+      </c>
+      <c r="C29">
+        <v>1249.8621929999999</v>
+      </c>
+      <c r="D29">
+        <v>0.29980042600000001</v>
+      </c>
+      <c r="E29">
+        <v>3.1885854999999998E-2</v>
+      </c>
+      <c r="F29">
+        <v>0.10856081200000001</v>
+      </c>
+      <c r="G29">
+        <v>3.8722560000000001E-3</v>
+      </c>
+      <c r="H29">
+        <v>0.98956896599999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>3.4781999999999999E-4</v>
+      </c>
+      <c r="C30">
+        <v>1249.9720520000001</v>
+      </c>
+      <c r="D30">
+        <v>0.29999618500000003</v>
+      </c>
+      <c r="E30">
+        <v>4.7035642000000003E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.10975439100000001</v>
+      </c>
+      <c r="G30">
+        <v>4.7517119999999999E-3</v>
+      </c>
+      <c r="H30">
+        <v>0.98241363800000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <v>3.0862499999999998E-4</v>
+      </c>
+      <c r="C31">
+        <v>1250.009063</v>
+      </c>
+      <c r="D31">
+        <v>0.300016848</v>
+      </c>
+      <c r="E31">
+        <v>4.267257E-2</v>
+      </c>
+      <c r="F31">
+        <v>0.107568497</v>
+      </c>
+      <c r="G31">
+        <v>4.6496790000000003E-3</v>
+      </c>
+      <c r="H31">
+        <v>0.98361751799999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32">
+        <v>3.9580799999999999E-4</v>
+      </c>
+      <c r="C32">
+        <v>1250.0364039999999</v>
+      </c>
+      <c r="D32">
+        <v>0.29999587</v>
+      </c>
+      <c r="E32">
+        <v>4.6113999000000003E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.11548971800000001</v>
+      </c>
+      <c r="G32">
+        <v>4.2850120000000004E-3</v>
+      </c>
+      <c r="H32">
+        <v>0.99005631800000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <v>4.85129E-4</v>
+      </c>
+      <c r="C33">
+        <v>1250.056002</v>
+      </c>
+      <c r="D33">
+        <v>0.30007985999999998</v>
+      </c>
+      <c r="E33">
+        <v>3.1432143000000003E-2</v>
+      </c>
+      <c r="F33">
+        <v>0.11381099</v>
+      </c>
+      <c r="G33">
+        <v>4.0394979999999999E-3</v>
+      </c>
+      <c r="H33">
+        <v>0.99273382399999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>4.7428800000000001E-4</v>
+      </c>
+      <c r="C34">
+        <v>1250.0886849999999</v>
+      </c>
+      <c r="D34">
+        <v>0.30001281800000001</v>
+      </c>
+      <c r="E34">
+        <v>3.3010744000000002E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.11308117199999999</v>
+      </c>
+      <c r="G34">
+        <v>5.2047889999999996E-3</v>
+      </c>
+      <c r="H34">
+        <v>0.99108814999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>3.4672300000000001E-4</v>
+      </c>
+      <c r="C35">
+        <v>1250.9434040000001</v>
+      </c>
+      <c r="D35">
+        <v>0.39999618199999998</v>
+      </c>
+      <c r="E35">
+        <v>6.9506928999999995E-2</v>
+      </c>
+      <c r="F35">
+        <v>0.110695898</v>
+      </c>
+      <c r="G35">
+        <v>6.4767380000000001E-3</v>
+      </c>
+      <c r="H35">
+        <v>0.99251876100000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36">
+        <v>5.7827599999999996E-4</v>
+      </c>
+      <c r="C36">
+        <v>1252.670832</v>
+      </c>
+      <c r="D36">
+        <v>0.49995556099999999</v>
+      </c>
+      <c r="E36">
+        <v>4.8558603999999998E-2</v>
+      </c>
+      <c r="F36">
+        <v>9.5985962999999994E-2</v>
+      </c>
+      <c r="G36">
+        <v>5.6972220000000001E-3</v>
+      </c>
+      <c r="H36">
+        <v>0.98525604600000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37">
+        <v>4.6433100000000001E-4</v>
+      </c>
+      <c r="C37">
+        <v>1255.424561</v>
+      </c>
+      <c r="D37">
+        <v>0.39989443400000002</v>
+      </c>
+      <c r="E37">
+        <v>4.1705930000000002E-2</v>
+      </c>
+      <c r="F37">
+        <v>0.10475915299999999</v>
+      </c>
+      <c r="G37">
+        <v>4.4100290000000002E-3</v>
+      </c>
+      <c r="H37">
+        <v>0.98489914300000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38">
+        <v>4.11395E-4</v>
+      </c>
+      <c r="C38">
+        <v>1267.5140690000001</v>
+      </c>
+      <c r="D38">
+        <v>0.49920661399999999</v>
+      </c>
+      <c r="E38">
+        <v>4.8344787E-2</v>
+      </c>
+      <c r="F38">
+        <v>0.12562072899999999</v>
+      </c>
+      <c r="G38">
+        <v>3.9256580000000003E-3</v>
+      </c>
+      <c r="H38">
+        <v>0.99312282299999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>3.13467E-4</v>
+      </c>
+      <c r="C39">
+        <v>1271.3936630000001</v>
+      </c>
+      <c r="D39">
+        <v>0.40056073800000003</v>
+      </c>
+      <c r="E39">
+        <v>7.1139833E-2</v>
+      </c>
+      <c r="F39">
+        <v>0.11312243299999999</v>
+      </c>
+      <c r="G39">
+        <v>5.9295399999999996E-3</v>
+      </c>
+      <c r="H39">
+        <v>0.99374623100000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>7.2654800000000004E-4</v>
+      </c>
+      <c r="C40">
+        <v>1455.6305829999999</v>
+      </c>
+      <c r="D40">
+        <v>0.49692148400000002</v>
+      </c>
+      <c r="E40">
+        <v>2.3973168999999999E-2</v>
+      </c>
+      <c r="F40">
+        <v>9.1711663999999998E-2</v>
+      </c>
+      <c r="G40">
+        <v>2.966729E-3</v>
+      </c>
+      <c r="H40">
+        <v>0.99718670099999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>8.1662800000000002E-4</v>
+      </c>
+      <c r="C41">
+        <v>1492.737848</v>
+      </c>
+      <c r="D41">
+        <v>0.50025813699999999</v>
+      </c>
+      <c r="E41">
+        <v>2.6577284999999999E-2</v>
+      </c>
+      <c r="F41">
+        <v>9.2475197999999995E-2</v>
+      </c>
+      <c r="G41">
+        <v>2.9827109999999999E-3</v>
+      </c>
+      <c r="H41">
+        <v>0.99533773199999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42">
+        <v>8.5975099999999996E-4</v>
+      </c>
+      <c r="C42">
+        <v>1494.673636</v>
+      </c>
+      <c r="D42">
+        <v>0.50000099099999995</v>
+      </c>
+      <c r="E42">
+        <v>2.6915963000000001E-2</v>
+      </c>
+      <c r="F42">
+        <v>9.1934420000000003E-2</v>
+      </c>
+      <c r="G42">
+        <v>2.846627E-3</v>
+      </c>
+      <c r="H42">
+        <v>0.99697522500000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43">
+        <v>7.0617800000000001E-4</v>
+      </c>
+      <c r="C43">
+        <v>1497.1705119999999</v>
+      </c>
+      <c r="D43">
+        <v>0.49990232400000001</v>
+      </c>
+      <c r="E43">
+        <v>2.4668497000000001E-2</v>
+      </c>
+      <c r="F43">
+        <v>9.1588153000000005E-2</v>
+      </c>
+      <c r="G43">
+        <v>3.0430520000000001E-3</v>
+      </c>
+      <c r="H43">
+        <v>0.99707969600000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44">
+        <v>6.3737199999999998E-4</v>
+      </c>
+      <c r="C44">
+        <v>1500.051467</v>
+      </c>
+      <c r="D44">
+        <v>0.29994249899999997</v>
+      </c>
+      <c r="E44">
+        <v>2.6047677000000002E-2</v>
+      </c>
+      <c r="F44">
+        <v>0.10857765</v>
+      </c>
+      <c r="G44">
+        <v>7.1048200000000002E-4</v>
+      </c>
+      <c r="H44">
+        <v>0.99349073799999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>5.2616900000000005E-4</v>
+      </c>
+      <c r="C45">
+        <v>1500.0874120000001</v>
+      </c>
+      <c r="D45">
+        <v>0.30007125099999998</v>
+      </c>
+      <c r="E45">
+        <v>1.9110674000000001E-2</v>
+      </c>
+      <c r="F45">
+        <v>0.12915310899999999</v>
+      </c>
+      <c r="G45">
+        <v>7.8471699999999999E-4</v>
+      </c>
+      <c r="H45">
+        <v>0.99525415699999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>7.4180700000000003E-4</v>
+      </c>
+      <c r="C46">
+        <v>1500.215265</v>
+      </c>
+      <c r="D46">
+        <v>0.39993976599999997</v>
+      </c>
+      <c r="E46">
+        <v>2.7369943000000001E-2</v>
+      </c>
+      <c r="F46">
+        <v>9.7766817000000006E-2</v>
+      </c>
+      <c r="G46">
+        <v>4.3964299999999998E-4</v>
+      </c>
+      <c r="H46">
+        <v>0.99480906899999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47">
+        <v>9.1292700000000001E-4</v>
+      </c>
+      <c r="C47">
+        <v>1500.5413000000001</v>
+      </c>
+      <c r="D47">
+        <v>0.50044513199999996</v>
+      </c>
+      <c r="E47">
+        <v>2.0620128000000001E-2</v>
+      </c>
+      <c r="F47">
+        <v>0.103834646</v>
+      </c>
+      <c r="G47">
+        <v>4.4096199999999998E-4</v>
+      </c>
+      <c r="H47">
+        <v>0.99445706499999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48">
+        <v>9.4360899999999998E-4</v>
+      </c>
+      <c r="C48">
+        <v>1500.993866</v>
+      </c>
+      <c r="D48">
+        <v>0.499986655</v>
+      </c>
+      <c r="E48">
+        <v>2.1720821000000001E-2</v>
+      </c>
+      <c r="F48">
+        <v>0.103615651</v>
+      </c>
+      <c r="G48">
+        <v>8.3131500000000001E-4</v>
+      </c>
+      <c r="H48">
+        <v>0.99464200000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <v>6.1466400000000001E-4</v>
+      </c>
+      <c r="C49">
+        <v>1502.4972680000001</v>
+      </c>
+      <c r="D49">
+        <v>0.40017336999999997</v>
+      </c>
+      <c r="E49">
+        <v>2.0735538000000001E-2</v>
+      </c>
+      <c r="F49">
+        <v>9.4777095000000006E-2</v>
+      </c>
+      <c r="G49">
+        <v>2.47956E-3</v>
+      </c>
+      <c r="H49">
+        <v>0.99691817900000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50">
+        <v>6.6162899999999995E-4</v>
+      </c>
+      <c r="C50">
+        <v>1504.5464079999999</v>
+      </c>
+      <c r="D50">
+        <v>0.40074769799999999</v>
+      </c>
+      <c r="E50">
+        <v>2.2464746000000001E-2</v>
+      </c>
+      <c r="F50">
+        <v>9.4852504000000004E-2</v>
+      </c>
+      <c r="G50">
+        <v>2.9607710000000001E-3</v>
+      </c>
+      <c r="H50">
+        <v>0.99641502000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51">
+        <v>7.2370699999999997E-4</v>
+      </c>
+      <c r="C51">
+        <v>1752.5926159999999</v>
+      </c>
+      <c r="D51">
+        <v>0.50002069100000002</v>
+      </c>
+      <c r="E51">
+        <v>2.4334100000000001E-2</v>
+      </c>
+      <c r="F51">
+        <v>9.0262732999999998E-2</v>
+      </c>
+      <c r="G51">
+        <v>2.7651020000000002E-3</v>
+      </c>
+      <c r="H51">
+        <v>0.99688110399999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52">
+        <v>8.0128199999999995E-4</v>
+      </c>
+      <c r="C52">
+        <v>1995.9935250000001</v>
+      </c>
+      <c r="D52">
+        <v>0.49970003499999999</v>
+      </c>
+      <c r="E52">
+        <v>2.3888031000000001E-2</v>
+      </c>
+      <c r="F52">
+        <v>0.101849986</v>
+      </c>
+      <c r="G52">
+        <v>6.1271999999999997E-4</v>
+      </c>
+      <c r="H52">
+        <v>0.99330616800000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53">
+        <v>6.8117199999999996E-4</v>
+      </c>
+      <c r="C53">
+        <v>1999.6194820000001</v>
+      </c>
+      <c r="D53">
+        <v>0.49998881699999997</v>
+      </c>
+      <c r="E53">
+        <v>2.6883537999999998E-2</v>
+      </c>
+      <c r="F53">
+        <v>8.8787929000000002E-2</v>
+      </c>
+      <c r="G53">
+        <v>2.7722139999999998E-3</v>
+      </c>
+      <c r="H53">
+        <v>0.99639685600000005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54">
+        <v>6.1575900000000001E-4</v>
+      </c>
+      <c r="C54">
+        <v>1999.9767119999999</v>
+      </c>
+      <c r="D54">
+        <v>0.40001579300000001</v>
+      </c>
+      <c r="E54">
+        <v>2.3810701E-2</v>
+      </c>
+      <c r="F54">
+        <v>9.3052383000000002E-2</v>
+      </c>
+      <c r="G54">
+        <v>1.4778720000000001E-3</v>
+      </c>
+      <c r="H54">
+        <v>0.99505876199999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55">
+        <v>5.7284199999999995E-4</v>
+      </c>
+      <c r="C55">
+        <v>2000.4061589999999</v>
+      </c>
+      <c r="D55">
+        <v>0.40002267499999999</v>
+      </c>
+      <c r="E55">
+        <v>2.5438157999999999E-2</v>
+      </c>
+      <c r="F55">
+        <v>8.9342075000000007E-2</v>
+      </c>
+      <c r="G55">
+        <v>1.5362749999999999E-3</v>
+      </c>
+      <c r="H55">
+        <v>0.99545406299999994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56">
+        <v>7.3430900000000005E-4</v>
+      </c>
+      <c r="C56">
+        <v>2000.6603399999999</v>
+      </c>
+      <c r="D56">
+        <v>0.50012684799999996</v>
+      </c>
+      <c r="E56">
+        <v>2.6662858000000001E-2</v>
+      </c>
+      <c r="F56">
+        <v>8.9674559000000001E-2</v>
+      </c>
+      <c r="G56">
+        <v>3.0504239999999999E-3</v>
+      </c>
+      <c r="H56">
+        <v>0.99543250999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="C57">
+        <v>160</v>
+      </c>
+      <c r="D57">
+        <v>0.2</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>9.6295699999999996E-4</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>2.81E-4</v>
+      </c>
+      <c r="C58">
+        <v>160</v>
+      </c>
+      <c r="D58">
+        <v>0.2</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>5.4068499999999995E-4</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>3.0699999999999998E-4</v>
+      </c>
+      <c r="C59">
+        <v>160</v>
+      </c>
+      <c r="D59">
+        <v>0.2</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>5.7356200000000001E-4</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="C60">
+        <v>160</v>
+      </c>
+      <c r="D60">
+        <v>0.2</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>1.609114E-3</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>4.3100000000000001E-4</v>
+      </c>
+      <c r="C61">
+        <v>160</v>
+      </c>
+      <c r="D61">
+        <v>0.2</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>2.0221039999999998E-3</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>5.3200000000000003E-4</v>
+      </c>
+      <c r="C62">
+        <v>160</v>
+      </c>
+      <c r="D62">
+        <v>0.2</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>1.858317E-3</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>6.8900000000000005E-4</v>
+      </c>
+      <c r="C63">
+        <v>160</v>
+      </c>
+      <c r="D63">
+        <v>0.2</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>1.541461E-3</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>1.281E-3</v>
+      </c>
+      <c r="C64">
+        <v>160</v>
+      </c>
+      <c r="D64">
+        <v>0.2</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>1.2030529999999999E-3</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>2.52E-4</v>
+      </c>
+      <c r="C65">
+        <v>200</v>
+      </c>
+      <c r="D65">
+        <v>0.2</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>2.27729E-4</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C66">
+        <v>200</v>
+      </c>
+      <c r="D66">
+        <v>0.2</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>1.347741E-3</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <v>3.2499999999999999E-4</v>
+      </c>
+      <c r="C67">
+        <v>200</v>
+      </c>
+      <c r="D67">
+        <v>0.2</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1.48168E-3</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>3.8299999999999999E-4</v>
+      </c>
+      <c r="C68">
+        <v>200</v>
+      </c>
+      <c r="D68">
+        <v>0.2</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>1.5823530000000001E-3</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <v>4.64E-4</v>
+      </c>
+      <c r="C69">
+        <v>200</v>
+      </c>
+      <c r="D69">
+        <v>0.2</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>1.264077E-3</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <v>5.8399999999999999E-4</v>
+      </c>
+      <c r="C70">
+        <v>200</v>
+      </c>
+      <c r="D70">
+        <v>0.2</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>1.7501089999999999E-3</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71">
+        <v>7.8799999999999996E-4</v>
+      </c>
+      <c r="C71">
+        <v>200</v>
+      </c>
+      <c r="D71">
+        <v>0.2</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>1.2385709999999999E-3</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72">
+        <v>1.0950000000000001E-3</v>
+      </c>
+      <c r="C72">
+        <v>200</v>
+      </c>
+      <c r="D72">
+        <v>0.2</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>9.1166800000000003E-4</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <v>1.5E-3</v>
+      </c>
+      <c r="C73">
+        <v>200</v>
+      </c>
+      <c r="D73">
+        <v>0.2</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>4.5693399999999999E-4</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74">
+        <v>2.7099999999999997E-4</v>
+      </c>
+      <c r="C74">
+        <v>240</v>
+      </c>
+      <c r="D74">
+        <v>0.2</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>5.6943599999999999E-4</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75">
+        <v>2.9799999999999998E-4</v>
+      </c>
+      <c r="C75">
+        <v>240</v>
+      </c>
+      <c r="D75">
+        <v>0.2</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>1.764112E-3</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>3.4299999999999999E-4</v>
+      </c>
+      <c r="C76">
+        <v>240</v>
+      </c>
+      <c r="D76">
+        <v>0.2</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>2.7815829999999998E-3</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77">
+        <v>4.0400000000000001E-4</v>
+      </c>
+      <c r="C77">
+        <v>240</v>
+      </c>
+      <c r="D77">
+        <v>0.2</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>3.124384E-3</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78">
+        <v>5.0299999999999997E-4</v>
+      </c>
+      <c r="C78">
+        <v>240</v>
+      </c>
+      <c r="D78">
+        <v>0.2</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>3.5047860000000002E-3</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79">
+        <v>6.0999999999999997E-4</v>
+      </c>
+      <c r="C79">
+        <v>240</v>
+      </c>
+      <c r="D79">
+        <v>0.2</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>3.015471E-3</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80">
+        <v>8.0400000000000003E-4</v>
+      </c>
+      <c r="C80">
+        <v>240</v>
+      </c>
+      <c r="D80">
+        <v>0.2</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>2.3056370000000001E-3</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81">
+        <v>1.0920000000000001E-3</v>
+      </c>
+      <c r="C81">
+        <v>240</v>
+      </c>
+      <c r="D81">
+        <v>0.2</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>1.8617429999999999E-3</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82">
+        <v>1.4159999999999999E-3</v>
+      </c>
+      <c r="C82">
+        <v>240</v>
+      </c>
+      <c r="D82">
+        <v>0.2</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>9.7170399999999999E-4</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83">
+        <v>2.5399999999999999E-4</v>
+      </c>
+      <c r="C83">
+        <v>280</v>
+      </c>
+      <c r="D83">
+        <v>0.2</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>6.6906099999999998E-4</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <v>2.9399999999999999E-4</v>
+      </c>
+      <c r="C84">
+        <v>280</v>
+      </c>
+      <c r="D84">
+        <v>0.2</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>2.4819130000000001E-3</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>3.3700000000000001E-4</v>
+      </c>
+      <c r="C85">
+        <v>280</v>
+      </c>
+      <c r="D85">
+        <v>0.2</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>3.5047860000000002E-3</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86">
+        <v>4.0200000000000001E-4</v>
+      </c>
+      <c r="C86">
+        <v>280</v>
+      </c>
+      <c r="D86">
+        <v>0.2</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>3.5300269999999998E-3</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <v>4.9700000000000005E-4</v>
+      </c>
+      <c r="C87">
+        <v>280</v>
+      </c>
+      <c r="D87">
+        <v>0.2</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>3.7511160000000001E-3</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88">
+        <v>6.1700000000000004E-4</v>
+      </c>
+      <c r="C88">
+        <v>280</v>
+      </c>
+      <c r="D88">
+        <v>0.2</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>3.7918209999999999E-3</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C89">
+        <v>280</v>
+      </c>
+      <c r="D89">
+        <v>0.2</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>2.9280959999999998E-3</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90">
+        <v>1.0989999999999999E-3</v>
+      </c>
+      <c r="C90">
+        <v>280</v>
+      </c>
+      <c r="D90">
+        <v>0.2</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>2.4002030000000001E-3</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>1.2780000000000001E-3</v>
+      </c>
+      <c r="C91">
+        <v>280</v>
+      </c>
+      <c r="D91">
+        <v>0.2</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>1.534342E-3</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="C92">
+        <v>2050</v>
+      </c>
+      <c r="D92">
+        <v>0.3</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93">
+        <v>9.0499999999999999E-4</v>
+      </c>
+      <c r="C93">
+        <v>2350</v>
+      </c>
+      <c r="D93">
+        <v>0.5</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94">
+        <v>6.3250000000000003E-4</v>
+      </c>
+      <c r="C94">
+        <v>1600</v>
+      </c>
+      <c r="D94">
+        <v>0.3</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95">
+        <v>6.0749999999999997E-4</v>
+      </c>
+      <c r="C95">
+        <v>1500</v>
+      </c>
+      <c r="D95">
+        <v>0.3</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96">
+        <v>7.3800000000000005E-4</v>
+      </c>
+      <c r="C96">
+        <v>1450</v>
+      </c>
+      <c r="D96">
+        <v>0.5</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97">
+        <v>8.6499999999999999E-4</v>
+      </c>
+      <c r="C97">
+        <v>1850</v>
+      </c>
+      <c r="D97">
+        <v>0.5</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98">
+        <v>6.2750000000000002E-4</v>
+      </c>
+      <c r="C98">
+        <v>1600</v>
+      </c>
+      <c r="D98">
+        <v>0.3</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99">
+        <v>5.8500000000000002E-4</v>
+      </c>
+      <c r="C99">
+        <v>1450</v>
+      </c>
+      <c r="D99">
+        <v>0.3</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100">
+        <v>7.0750000000000001E-4</v>
+      </c>
+      <c r="C100">
+        <v>1400</v>
+      </c>
+      <c r="D100">
+        <v>0.5</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101">
+        <v>6.3500000000000004E-4</v>
+      </c>
+      <c r="C101">
+        <v>1150</v>
+      </c>
+      <c r="D101">
+        <v>0.5</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102">
+        <v>6.6750000000000002E-4</v>
+      </c>
+      <c r="C102">
+        <v>1600</v>
+      </c>
+      <c r="D102">
+        <v>0.3</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103">
+        <v>6.3029999999999998E-4</v>
+      </c>
+      <c r="C103">
+        <v>1500</v>
+      </c>
+      <c r="D103">
+        <v>0.3</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104">
+        <v>7.2250000000000005E-4</v>
+      </c>
+      <c r="C104">
+        <v>1350</v>
+      </c>
+      <c r="D104">
+        <v>0.5</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105">
+        <v>6.7250000000000003E-4</v>
+      </c>
+      <c r="C105">
+        <v>1200</v>
+      </c>
+      <c r="D105">
+        <v>0.5</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Separator Model/Input/data_main.xlsx
+++ b/Separator Model/Input/data_main.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iagr9\Projekte\MA\MA-Model_4\Separator Model\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001C5818-F282-40CA-8DA0-39B43ED1A302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274CCE94-9ECE-40A4-87B8-1EFC0A5E9C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="sozh" sheetId="2" r:id="rId2"/>
     <sheet name="detail_V_dis" sheetId="3" r:id="rId3"/>
+    <sheet name="detail_lambda" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="21">
   <si>
     <t>exp</t>
   </si>
@@ -11886,7 +11887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D26A40-5EC0-4FC2-A7B8-9E1205DD29FB}">
   <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+    <sheetView topLeftCell="A69" workbookViewId="0">
       <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
@@ -14625,4 +14626,597 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2364CF8B-C2BA-4C62-9862-215FAFAC0BAA}">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="C2">
+        <v>160</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+      <c r="E2">
+        <v>0.99572192500000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C3">
+        <v>160</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3">
+        <v>0.99572192500000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="C4">
+        <v>160</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4">
+        <v>0.99572192500000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C5">
+        <v>160</v>
+      </c>
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5">
+        <v>0.996256684</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3.5E-4</v>
+      </c>
+      <c r="C6">
+        <v>160</v>
+      </c>
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+      <c r="E6">
+        <v>0.996256684</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>0.2</v>
+      </c>
+      <c r="E7">
+        <v>0.95080213899999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>0.2</v>
+      </c>
+      <c r="E8">
+        <v>0.98930481299999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>0.2</v>
+      </c>
+      <c r="E9">
+        <v>0.99358288800000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10">
+        <v>0.2</v>
+      </c>
+      <c r="E10">
+        <v>0.99518716600000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>3.5E-4</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="D11">
+        <v>0.2</v>
+      </c>
+      <c r="E11">
+        <v>0.99732620299999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12">
+        <v>0.1</v>
+      </c>
+      <c r="E12">
+        <v>0.96243386200000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="C13">
+        <v>240</v>
+      </c>
+      <c r="D13">
+        <v>0.2</v>
+      </c>
+      <c r="E13">
+        <v>0.74973261999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C14">
+        <v>240</v>
+      </c>
+      <c r="D14">
+        <v>0.2</v>
+      </c>
+      <c r="E14">
+        <v>0.97433155100000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="C15">
+        <v>240</v>
+      </c>
+      <c r="D15">
+        <v>0.2</v>
+      </c>
+      <c r="E15">
+        <v>0.98609625700000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C16">
+        <v>240</v>
+      </c>
+      <c r="D16">
+        <v>0.2</v>
+      </c>
+      <c r="E16">
+        <v>0.99144385000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3.5E-4</v>
+      </c>
+      <c r="C17">
+        <v>240</v>
+      </c>
+      <c r="D17">
+        <v>0.2</v>
+      </c>
+      <c r="E17">
+        <v>0.99518716600000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="C18">
+        <v>240</v>
+      </c>
+      <c r="D18">
+        <v>0.05</v>
+      </c>
+      <c r="E18">
+        <v>0.93015873000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C19">
+        <v>240</v>
+      </c>
+      <c r="D19">
+        <v>0.05</v>
+      </c>
+      <c r="E19">
+        <v>0.94973545000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="C20">
+        <v>240</v>
+      </c>
+      <c r="D20">
+        <v>0.05</v>
+      </c>
+      <c r="E20">
+        <v>0.97566137600000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C21">
+        <v>240</v>
+      </c>
+      <c r="D21">
+        <v>0.05</v>
+      </c>
+      <c r="E21">
+        <v>0.98783068799999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>3.5E-4</v>
+      </c>
+      <c r="C22">
+        <v>240</v>
+      </c>
+      <c r="D22">
+        <v>0.05</v>
+      </c>
+      <c r="E22">
+        <v>0.99523809500000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="C23">
+        <v>240</v>
+      </c>
+      <c r="D23">
+        <v>0.1</v>
+      </c>
+      <c r="E23">
+        <v>0.92751322800000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="C24">
+        <v>280</v>
+      </c>
+      <c r="D24">
+        <v>0.2</v>
+      </c>
+      <c r="E24">
+        <v>0.64973261999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C25">
+        <v>280</v>
+      </c>
+      <c r="D25">
+        <v>0.2</v>
+      </c>
+      <c r="E25">
+        <v>0.91657754000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="C26">
+        <v>280</v>
+      </c>
+      <c r="D26">
+        <v>0.2</v>
+      </c>
+      <c r="E26">
+        <v>0.97754010700000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C27">
+        <v>280</v>
+      </c>
+      <c r="D27">
+        <v>0.2</v>
+      </c>
+      <c r="E27">
+        <v>0.98716577500000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>3.5E-4</v>
+      </c>
+      <c r="C28">
+        <v>280</v>
+      </c>
+      <c r="D28">
+        <v>0.2</v>
+      </c>
+      <c r="E28">
+        <v>0.99251336899999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="C29">
+        <v>280</v>
+      </c>
+      <c r="D29">
+        <v>0.05</v>
+      </c>
+      <c r="E29">
+        <v>0.89470899500000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C30">
+        <v>280</v>
+      </c>
+      <c r="D30">
+        <v>0.05</v>
+      </c>
+      <c r="E30">
+        <v>0.91216931199999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="C31">
+        <v>280</v>
+      </c>
+      <c r="D31">
+        <v>0.05</v>
+      </c>
+      <c r="E31">
+        <v>0.96137566100000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C32">
+        <v>280</v>
+      </c>
+      <c r="D32">
+        <v>0.05</v>
+      </c>
+      <c r="E32">
+        <v>0.98148148099999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>3.5E-4</v>
+      </c>
+      <c r="C33">
+        <v>280</v>
+      </c>
+      <c r="D33">
+        <v>0.05</v>
+      </c>
+      <c r="E33">
+        <v>0.98994709000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="C34">
+        <v>280</v>
+      </c>
+      <c r="D34">
+        <v>0.1</v>
+      </c>
+      <c r="E34">
+        <v>0.89894179900000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Separator Model/Input/data_main.xlsx
+++ b/Separator Model/Input/data_main.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iagr9\Projekte\MA\MA-Model_4\Separator Model\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Projekte\MA-Model_4\Separator Model\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274CCE94-9ECE-40A4-87B8-1EFC0A5E9C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EAADB2-CCC0-448B-BA03-14CF262A06F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="22">
   <si>
     <t>exp</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>h_c_0</t>
+  </si>
+  <si>
+    <t>h_dis_0</t>
   </si>
 </sst>
 </file>
@@ -11887,8 +11890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D26A40-5EC0-4FC2-A7B8-9E1205DD29FB}">
   <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11907,7 +11910,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>20</v>
@@ -11933,7 +11936,7 @@
         <v>0.29701893400000001</v>
       </c>
       <c r="E2">
-        <v>3.6502927999999997E-2</v>
+        <v>3.55819E-2</v>
       </c>
       <c r="F2">
         <v>9.6633421999999997E-2</v>
@@ -11959,7 +11962,7 @@
         <v>0.50333939500000002</v>
       </c>
       <c r="E3">
-        <v>2.8484735000000001E-2</v>
+        <v>2.2846333E-2</v>
       </c>
       <c r="F3">
         <v>9.2660582000000005E-2</v>
@@ -11985,7 +11988,7 @@
         <v>0.49988101000000001</v>
       </c>
       <c r="E4">
-        <v>3.8919571E-2</v>
+        <v>3.3656999999999999E-2</v>
       </c>
       <c r="F4">
         <v>0.10772396300000001</v>
@@ -12011,7 +12014,7 @@
         <v>0.399764919</v>
       </c>
       <c r="E5">
-        <v>3.8463404E-2</v>
+        <v>3.2073999999999998E-2</v>
       </c>
       <c r="F5">
         <v>9.5001253999999993E-2</v>
@@ -12037,7 +12040,7 @@
         <v>0.50015754999999995</v>
       </c>
       <c r="E6">
-        <v>4.0361706999999997E-2</v>
+        <v>3.8374125000000002E-2</v>
       </c>
       <c r="F6">
         <v>0.101830843</v>
@@ -12063,7 +12066,7 @@
         <v>0.49989457599999998</v>
       </c>
       <c r="E7">
-        <v>3.8023349999999997E-2</v>
+        <v>3.2000428999999997E-2</v>
       </c>
       <c r="F7">
         <v>0.108397884</v>
@@ -12089,7 +12092,7 @@
         <v>0.40002338700000001</v>
       </c>
       <c r="E8">
-        <v>6.6916982E-2</v>
+        <v>2.9817666999999999E-2</v>
       </c>
       <c r="F8">
         <v>0.106790285</v>
@@ -12115,7 +12118,7 @@
         <v>0.29988877800000002</v>
       </c>
       <c r="E9">
-        <v>3.6448479999999998E-2</v>
+        <v>2.9670385000000001E-2</v>
       </c>
       <c r="F9">
         <v>0.10019613600000001</v>
@@ -12141,7 +12144,7 @@
         <v>0.50033280999999996</v>
       </c>
       <c r="E10">
-        <v>3.7521118999999999E-2</v>
+        <v>2.9766384999999999E-2</v>
       </c>
       <c r="F10">
         <v>9.8495864000000002E-2</v>
@@ -12167,7 +12170,7 @@
         <v>0.30092750000000001</v>
       </c>
       <c r="E11">
-        <v>3.3229887E-2</v>
+        <v>3.4920187999999998E-2</v>
       </c>
       <c r="F11">
         <v>0.100884113</v>
@@ -12193,7 +12196,7 @@
         <v>0.40003253100000002</v>
       </c>
       <c r="E12">
-        <v>7.0955006000000001E-2</v>
+        <v>1.9631529000000002E-2</v>
       </c>
       <c r="F12">
         <v>0.11041532699999999</v>
@@ -12219,7 +12222,7 @@
         <v>0.49949943499999999</v>
       </c>
       <c r="E13">
-        <v>4.2382797999999999E-2</v>
+        <v>4.1055332999999999E-2</v>
       </c>
       <c r="F13">
         <v>9.7580385000000006E-2</v>
@@ -12245,7 +12248,7 @@
         <v>0.27718706700000001</v>
       </c>
       <c r="E14">
-        <v>3.6368708E-2</v>
+        <v>1.9585846000000001E-2</v>
       </c>
       <c r="F14">
         <v>0.103970942</v>
@@ -12271,7 +12274,7 @@
         <v>0.499859416</v>
       </c>
       <c r="E15">
-        <v>1.8851822000000001E-2</v>
+        <v>1.5360333E-2</v>
       </c>
       <c r="F15">
         <v>0.10280117799999999</v>
@@ -12297,7 +12300,7 @@
         <v>0.29920427599999999</v>
       </c>
       <c r="E16">
-        <v>4.1816536000000001E-2</v>
+        <v>3.5955842000000002E-2</v>
       </c>
       <c r="F16">
         <v>0.101860464</v>
@@ -12323,7 +12326,7 @@
         <v>0.40006547100000001</v>
       </c>
       <c r="E17">
-        <v>2.4784075999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>9.7689174000000004E-2</v>
@@ -12349,7 +12352,7 @@
         <v>0.49991358299999999</v>
       </c>
       <c r="E18">
-        <v>1.8550810000000001E-2</v>
+        <v>1.5761217000000001E-2</v>
       </c>
       <c r="F18">
         <v>9.4884389999999999E-2</v>
@@ -12375,7 +12378,7 @@
         <v>0.30006925000000001</v>
       </c>
       <c r="E19">
-        <v>3.6809690999999999E-2</v>
+        <v>2.6276999999999998E-2</v>
       </c>
       <c r="F19">
         <v>0.108183192</v>
@@ -12401,7 +12404,7 @@
         <v>0.29996158899999997</v>
       </c>
       <c r="E20">
-        <v>1.9367124999999999E-2</v>
+        <v>1.6771635999999999E-2</v>
       </c>
       <c r="F20">
         <v>9.7314092000000005E-2</v>
@@ -12427,7 +12430,7 @@
         <v>0.49965211700000001</v>
       </c>
       <c r="E21">
-        <v>4.2670694000000002E-2</v>
+        <v>3.9373499999999999E-2</v>
       </c>
       <c r="F21">
         <v>0.10375522299999999</v>
@@ -12453,7 +12456,7 @@
         <v>0.50001522700000001</v>
       </c>
       <c r="E22">
-        <v>1.9893559000000002E-2</v>
+        <v>1.5923438000000002E-2</v>
       </c>
       <c r="F22">
         <v>9.5239508E-2</v>
@@ -12479,7 +12482,7 @@
         <v>0.30000356700000003</v>
       </c>
       <c r="E23">
-        <v>5.1118615999999999E-2</v>
+        <v>2.9010142999999999E-2</v>
       </c>
       <c r="F23">
         <v>0.114449734</v>
@@ -12505,7 +12508,7 @@
         <v>0.50013415000000006</v>
       </c>
       <c r="E24">
-        <v>5.7089112999999997E-2</v>
+        <v>2.9240461999999998E-2</v>
       </c>
       <c r="F24">
         <v>0.11521322000000001</v>
@@ -12531,7 +12534,7 @@
         <v>0.40118413600000002</v>
       </c>
       <c r="E25">
-        <v>4.5435773999999998E-2</v>
+        <v>3.6132938000000003E-2</v>
       </c>
       <c r="F25">
         <v>0.10055367599999999</v>
@@ -12557,7 +12560,7 @@
         <v>0.30087852900000001</v>
       </c>
       <c r="E26">
-        <v>7.5760642000000003E-2</v>
+        <v>2.4022870000000002E-2</v>
       </c>
       <c r="F26">
         <v>0.10911349100000001</v>
@@ -12583,7 +12586,7 @@
         <v>0.29883443599999998</v>
       </c>
       <c r="E27">
-        <v>6.6170259999999995E-2</v>
+        <v>2.9332111000000001E-2</v>
       </c>
       <c r="F27">
         <v>0.11349644</v>
@@ -12609,7 +12612,7 @@
         <v>0.50009379399999998</v>
       </c>
       <c r="E28">
-        <v>5.5513298000000003E-2</v>
+        <v>3.3174416999999998E-2</v>
       </c>
       <c r="F28">
         <v>0.114298685</v>
@@ -12635,7 +12638,7 @@
         <v>0.29980042600000001</v>
       </c>
       <c r="E29">
-        <v>3.1885854999999998E-2</v>
+        <v>2.8255058999999999E-2</v>
       </c>
       <c r="F29">
         <v>0.10856081200000001</v>
@@ -12661,7 +12664,7 @@
         <v>0.29999618500000003</v>
       </c>
       <c r="E30">
-        <v>4.7035642000000003E-2</v>
+        <v>4.2983100000000003E-2</v>
       </c>
       <c r="F30">
         <v>0.10975439100000001</v>
@@ -12687,7 +12690,7 @@
         <v>0.300016848</v>
       </c>
       <c r="E31">
-        <v>4.267257E-2</v>
+        <v>3.03678E-2</v>
       </c>
       <c r="F31">
         <v>0.107568497</v>
@@ -12713,7 +12716,7 @@
         <v>0.29999587</v>
       </c>
       <c r="E32">
-        <v>4.6113999000000003E-2</v>
+        <v>2.3775000000000001E-2</v>
       </c>
       <c r="F32">
         <v>0.11548971800000001</v>
@@ -12739,7 +12742,7 @@
         <v>0.30007985999999998</v>
       </c>
       <c r="E33">
-        <v>3.1432143000000003E-2</v>
+        <v>2.7580614999999999E-2</v>
       </c>
       <c r="F33">
         <v>0.11381099</v>
@@ -12765,7 +12768,7 @@
         <v>0.30001281800000001</v>
       </c>
       <c r="E34">
-        <v>3.3010744000000002E-2</v>
+        <v>2.8364166999999999E-2</v>
       </c>
       <c r="F34">
         <v>0.11308117199999999</v>
@@ -12791,7 +12794,7 @@
         <v>0.39999618199999998</v>
       </c>
       <c r="E35">
-        <v>6.9506928999999995E-2</v>
+        <v>3.9580443999999999E-2</v>
       </c>
       <c r="F35">
         <v>0.110695898</v>
@@ -12817,7 +12820,7 @@
         <v>0.49995556099999999</v>
       </c>
       <c r="E36">
-        <v>4.8558603999999998E-2</v>
+        <v>4.6688437999999999E-2</v>
       </c>
       <c r="F36">
         <v>9.5985962999999994E-2</v>
@@ -12843,7 +12846,7 @@
         <v>0.39989443400000002</v>
       </c>
       <c r="E37">
-        <v>4.1705930000000002E-2</v>
+        <v>3.2895832999999999E-2</v>
       </c>
       <c r="F37">
         <v>0.10475915299999999</v>
@@ -12869,7 +12872,7 @@
         <v>0.49920661399999999</v>
       </c>
       <c r="E38">
-        <v>4.8344787E-2</v>
+        <v>2.7389750000000001E-2</v>
       </c>
       <c r="F38">
         <v>0.12562072899999999</v>
@@ -12895,7 +12898,7 @@
         <v>0.40056073800000003</v>
       </c>
       <c r="E39">
-        <v>7.1139833E-2</v>
+        <v>3.3499599999999997E-2</v>
       </c>
       <c r="F39">
         <v>0.11312243299999999</v>
@@ -12921,7 +12924,7 @@
         <v>0.49692148400000002</v>
       </c>
       <c r="E40">
-        <v>2.3973168999999999E-2</v>
+        <v>1.6203833000000001E-2</v>
       </c>
       <c r="F40">
         <v>9.1711663999999998E-2</v>
@@ -12947,7 +12950,7 @@
         <v>0.50025813699999999</v>
       </c>
       <c r="E41">
-        <v>2.6577284999999999E-2</v>
+        <v>2.5555333E-2</v>
       </c>
       <c r="F41">
         <v>9.2475197999999995E-2</v>
@@ -12973,7 +12976,7 @@
         <v>0.50000099099999995</v>
       </c>
       <c r="E42">
-        <v>2.6915963000000001E-2</v>
+        <v>2.7710216999999999E-2</v>
       </c>
       <c r="F42">
         <v>9.1934420000000003E-2</v>
@@ -12999,7 +13002,7 @@
         <v>0.49990232400000001</v>
       </c>
       <c r="E43">
-        <v>2.4668497000000001E-2</v>
+        <v>1.9429286E-2</v>
       </c>
       <c r="F43">
         <v>9.1588153000000005E-2</v>
@@ -13025,7 +13028,7 @@
         <v>0.29994249899999997</v>
       </c>
       <c r="E44">
-        <v>2.6047677000000002E-2</v>
+        <v>2.6298999999999999E-2</v>
       </c>
       <c r="F44">
         <v>0.10857765</v>
@@ -13051,7 +13054,7 @@
         <v>0.30007125099999998</v>
       </c>
       <c r="E45">
-        <v>1.9110674000000001E-2</v>
+        <v>1.9176444000000001E-2</v>
       </c>
       <c r="F45">
         <v>0.12915310899999999</v>
@@ -13077,7 +13080,7 @@
         <v>0.39993976599999997</v>
       </c>
       <c r="E46">
-        <v>2.7369943000000001E-2</v>
+        <v>4.5705333000000001E-2</v>
       </c>
       <c r="F46">
         <v>9.7766817000000006E-2</v>
@@ -13103,7 +13106,7 @@
         <v>0.50044513199999996</v>
       </c>
       <c r="E47">
-        <v>2.0620128000000001E-2</v>
+        <v>2.2795666999999999E-2</v>
       </c>
       <c r="F47">
         <v>0.103834646</v>
@@ -13129,7 +13132,7 @@
         <v>0.499986655</v>
       </c>
       <c r="E48">
-        <v>2.1720821000000001E-2</v>
+        <v>2.3137000000000001E-2</v>
       </c>
       <c r="F48">
         <v>0.103615651</v>
@@ -13155,7 +13158,7 @@
         <v>0.40017336999999997</v>
       </c>
       <c r="E49">
-        <v>2.0735538000000001E-2</v>
+        <v>1.6598000000000002E-2</v>
       </c>
       <c r="F49">
         <v>9.4777095000000006E-2</v>
@@ -13181,7 +13184,7 @@
         <v>0.40074769799999999</v>
       </c>
       <c r="E50">
-        <v>2.2464746000000001E-2</v>
+        <v>1.9850666999999999E-2</v>
       </c>
       <c r="F50">
         <v>9.4852504000000004E-2</v>
@@ -13207,7 +13210,7 @@
         <v>0.50002069100000002</v>
       </c>
       <c r="E51">
-        <v>2.4334100000000001E-2</v>
+        <v>2.4327778000000001E-2</v>
       </c>
       <c r="F51">
         <v>9.0262732999999998E-2</v>
@@ -13233,7 +13236,7 @@
         <v>0.49970003499999999</v>
       </c>
       <c r="E52">
-        <v>2.3888031000000001E-2</v>
+        <v>2.9573833000000001E-2</v>
       </c>
       <c r="F52">
         <v>0.101849986</v>
@@ -13259,7 +13262,7 @@
         <v>0.49998881699999997</v>
       </c>
       <c r="E53">
-        <v>2.6883537999999998E-2</v>
+        <v>2.3282932999999999E-2</v>
       </c>
       <c r="F53">
         <v>8.8787929000000002E-2</v>
@@ -13285,7 +13288,7 @@
         <v>0.40001579300000001</v>
       </c>
       <c r="E54">
-        <v>2.3810701E-2</v>
+        <v>3.4569500000000003E-2</v>
       </c>
       <c r="F54">
         <v>9.3052383000000002E-2</v>
@@ -13311,7 +13314,7 @@
         <v>0.40002267499999999</v>
       </c>
       <c r="E55">
-        <v>2.5438157999999999E-2</v>
+        <v>2.1106E-2</v>
       </c>
       <c r="F55">
         <v>8.9342075000000007E-2</v>
@@ -13337,7 +13340,7 @@
         <v>0.50012684799999996</v>
       </c>
       <c r="E56">
-        <v>2.6662858000000001E-2</v>
+        <v>2.0743889000000001E-2</v>
       </c>
       <c r="F56">
         <v>8.9674559000000001E-2</v>
@@ -14632,7 +14635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2364CF8B-C2BA-4C62-9862-215FAFAC0BAA}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>

--- a/Separator Model/Input/data_main.xlsx
+++ b/Separator Model/Input/data_main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Projekte\MA-Model_4\Separator Model\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iagr9\Projekte\MA\MA-Model_4\Separator Model\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EAADB2-CCC0-448B-BA03-14CF262A06F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34095E2D-C5F8-4F7D-89C4-9966628CCB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="21">
   <si>
     <t>exp</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>lambda</t>
-  </si>
-  <si>
-    <t>h_dis_max</t>
   </si>
   <si>
     <t>2mmol_21C</t>
@@ -2434,12 +2431,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2B3A06-4DE5-48EC-A9CD-6616EFAB12EB}">
   <dimension ref="A1:H363"/>
   <sheetViews>
-    <sheetView topLeftCell="A327" workbookViewId="0">
-      <selection activeCell="G363" sqref="G363"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="M347" sqref="M347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2457,10 +2455,10 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -2471,7 +2469,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>8.0239500000000002E-4</v>
@@ -2483,7 +2481,7 @@
         <v>0.499859416</v>
       </c>
       <c r="E2">
-        <v>1.8851822000000001E-2</v>
+        <v>2.1230160000000001E-2</v>
       </c>
       <c r="F2">
         <v>0.10280117799999999</v>
@@ -2497,7 +2495,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>6.91448E-4</v>
@@ -2509,7 +2507,7 @@
         <v>0.50028585699999994</v>
       </c>
       <c r="E3">
-        <v>1.3759564E-2</v>
+        <v>1.3507819000000001E-2</v>
       </c>
       <c r="F3">
         <v>0.10897448</v>
@@ -2523,7 +2521,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>5.95906E-4</v>
@@ -2535,7 +2533,7 @@
         <v>0.49989870199999997</v>
       </c>
       <c r="E4">
-        <v>1.88165E-2</v>
+        <v>2.9982749999999999E-2</v>
       </c>
       <c r="F4">
         <v>0.105020287</v>
@@ -2549,7 +2547,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>6.2088699999999998E-4</v>
@@ -2561,7 +2559,7 @@
         <v>0.39951593400000002</v>
       </c>
       <c r="E5">
-        <v>1.9607932000000002E-2</v>
+        <v>3.2247999999999999E-2</v>
       </c>
       <c r="F5">
         <v>0.101170475</v>
@@ -2575,7 +2573,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>5.9944000000000002E-4</v>
@@ -2587,7 +2585,7 @@
         <v>0.40006547100000001</v>
       </c>
       <c r="E6">
-        <v>2.4784075999999999E-2</v>
+        <v>2.9244124999999999E-2</v>
       </c>
       <c r="F6">
         <v>9.7689174000000004E-2</v>
@@ -2601,7 +2599,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>6.1677100000000001E-4</v>
@@ -2613,7 +2611,7 @@
         <v>0.40038251800000002</v>
       </c>
       <c r="E7">
-        <v>2.4416123000000001E-2</v>
+        <v>2.2417833000000002E-2</v>
       </c>
       <c r="F7">
         <v>0.10059602300000001</v>
@@ -2627,7 +2625,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>5.9561800000000002E-4</v>
@@ -2639,7 +2637,7 @@
         <v>0.30056323600000001</v>
       </c>
       <c r="E8">
-        <v>2.3324444999999999E-2</v>
+        <v>2.6593250999999998E-2</v>
       </c>
       <c r="F8">
         <v>0.10011885500000001</v>
@@ -2653,7 +2651,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>5.7893599999999995E-4</v>
@@ -2665,7 +2663,7 @@
         <v>0.29840094900000003</v>
       </c>
       <c r="E9">
-        <v>2.4321518E-2</v>
+        <v>3.2670375000000001E-2</v>
       </c>
       <c r="F9">
         <v>9.9362308999999996E-2</v>
@@ -2679,7 +2677,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>4.9265500000000005E-4</v>
@@ -2691,7 +2689,7 @@
         <v>0.29859516600000002</v>
       </c>
       <c r="E10">
-        <v>1.9255773E-2</v>
+        <v>2.7105875000000001E-2</v>
       </c>
       <c r="F10">
         <v>0.10421707400000001</v>
@@ -2705,7 +2703,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>9.1292700000000001E-4</v>
@@ -2717,7 +2715,7 @@
         <v>0.50044513199999996</v>
       </c>
       <c r="E11">
-        <v>2.0620128000000001E-2</v>
+        <v>1.7934950000000002E-2</v>
       </c>
       <c r="F11">
         <v>0.103834646</v>
@@ -2731,7 +2729,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>9.8825999999999992E-4</v>
@@ -2743,7 +2741,7 @@
         <v>0.50003061599999998</v>
       </c>
       <c r="E12">
-        <v>1.7689674999999998E-2</v>
+        <v>1.5783320999999999E-2</v>
       </c>
       <c r="F12">
         <v>0.105810825</v>
@@ -2757,7 +2755,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>9.4360899999999998E-4</v>
@@ -2769,7 +2767,7 @@
         <v>0.499986655</v>
       </c>
       <c r="E13">
-        <v>2.1720821000000001E-2</v>
+        <v>1.8001669000000001E-2</v>
       </c>
       <c r="F13">
         <v>0.103615651</v>
@@ -2783,7 +2781,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>7.7894200000000002E-4</v>
@@ -2795,7 +2793,7 @@
         <v>0.39986995600000003</v>
       </c>
       <c r="E14">
-        <v>2.3848424E-2</v>
+        <v>3.5990666999999997E-2</v>
       </c>
       <c r="F14">
         <v>9.8667576000000007E-2</v>
@@ -2809,7 +2807,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>7.8108599999999995E-4</v>
@@ -2821,7 +2819,7 @@
         <v>0.400039439</v>
       </c>
       <c r="E15">
-        <v>2.7791891999999999E-2</v>
+        <v>3.6748999999999997E-2</v>
       </c>
       <c r="F15">
         <v>9.5854441999999998E-2</v>
@@ -2835,7 +2833,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>7.4180700000000003E-4</v>
@@ -2847,7 +2845,7 @@
         <v>0.39993976599999997</v>
       </c>
       <c r="E16">
-        <v>2.7369943000000001E-2</v>
+        <v>3.4538167000000002E-2</v>
       </c>
       <c r="F16">
         <v>9.7766817000000006E-2</v>
@@ -2861,7 +2859,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>6.3737199999999998E-4</v>
@@ -2873,7 +2871,7 @@
         <v>0.29994249899999997</v>
       </c>
       <c r="E17">
-        <v>2.6047677000000002E-2</v>
+        <v>3.5846000000000003E-2</v>
       </c>
       <c r="F17">
         <v>0.10857765</v>
@@ -2887,7 +2885,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>6.3181200000000004E-4</v>
@@ -2899,7 +2897,7 @@
         <v>0.30004935199999999</v>
       </c>
       <c r="E18">
-        <v>4.0719331999999997E-2</v>
+        <v>4.6222433E-2</v>
       </c>
       <c r="F18">
         <v>0.11202986400000001</v>
@@ -2913,7 +2911,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>5.6106099999999996E-4</v>
@@ -2925,7 +2923,7 @@
         <v>0.29996400200000001</v>
       </c>
       <c r="E19">
-        <v>3.9184578999999997E-2</v>
+        <v>2.1847999999999999E-2</v>
       </c>
       <c r="F19">
         <v>0.118530145</v>
@@ -2939,7 +2937,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>8.0128199999999995E-4</v>
@@ -2951,7 +2949,7 @@
         <v>0.49970003499999999</v>
       </c>
       <c r="E20">
-        <v>2.3888031000000001E-2</v>
+        <v>2.58175E-2</v>
       </c>
       <c r="F20">
         <v>0.101849986</v>
@@ -2965,7 +2963,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>8.1002600000000004E-4</v>
@@ -2977,7 +2975,7 @@
         <v>0.499961184</v>
       </c>
       <c r="E21">
-        <v>2.9039611999999999E-2</v>
+        <v>3.2184616999999999E-2</v>
       </c>
       <c r="F21">
         <v>0.100430336</v>
@@ -2991,7 +2989,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22">
         <v>7.8814599999999999E-4</v>
@@ -3003,7 +3001,7 @@
         <v>0.49996919899999998</v>
       </c>
       <c r="E22">
-        <v>2.8992381000000001E-2</v>
+        <v>3.1879774999999999E-2</v>
       </c>
       <c r="F22">
         <v>0.10043384299999999</v>
@@ -3017,7 +3015,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23">
         <v>7.1302300000000002E-4</v>
@@ -3029,7 +3027,7 @@
         <v>0.39980531400000002</v>
       </c>
       <c r="E23">
-        <v>2.5204135999999999E-2</v>
+        <v>3.5233417000000003E-2</v>
       </c>
       <c r="F23">
         <v>0.10164448500000001</v>
@@ -3043,7 +3041,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24">
         <v>6.9510100000000005E-4</v>
@@ -3055,7 +3053,7 @@
         <v>0.40003263300000003</v>
       </c>
       <c r="E24">
-        <v>3.1842178999999998E-2</v>
+        <v>4.6955999999999998E-2</v>
       </c>
       <c r="F24">
         <v>9.9360454000000001E-2</v>
@@ -3069,7 +3067,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>7.0127399999999999E-4</v>
@@ -3081,7 +3079,7 @@
         <v>0.40519286300000001</v>
       </c>
       <c r="E25">
-        <v>3.2997344999999997E-2</v>
+        <v>4.4401749999999997E-2</v>
       </c>
       <c r="F25">
         <v>9.6816929999999995E-2</v>
@@ -3095,7 +3093,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>7.3645500000000001E-4</v>
@@ -3107,7 +3105,7 @@
         <v>0.499857828</v>
       </c>
       <c r="E26">
-        <v>1.7182822E-2</v>
+        <v>1.7695522000000002E-2</v>
       </c>
       <c r="F26">
         <v>9.4951860999999999E-2</v>
@@ -3121,7 +3119,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>7.2969899999999999E-4</v>
@@ -3133,7 +3131,7 @@
         <v>0.49970384000000001</v>
       </c>
       <c r="E27">
-        <v>1.8852822000000002E-2</v>
+        <v>2.0651935E-2</v>
       </c>
       <c r="F27">
         <v>9.4908577999999993E-2</v>
@@ -3147,7 +3145,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>6.9667700000000004E-4</v>
@@ -3159,7 +3157,7 @@
         <v>0.49938961599999998</v>
       </c>
       <c r="E28">
-        <v>2.2076011E-2</v>
+        <v>2.2757346000000001E-2</v>
       </c>
       <c r="F28">
         <v>9.4442905999999993E-2</v>
@@ -3173,7 +3171,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>6.4236199999999995E-4</v>
@@ -3185,7 +3183,7 @@
         <v>0.40010973</v>
       </c>
       <c r="E29">
-        <v>1.7214279999999998E-2</v>
+        <v>2.0670075E-2</v>
       </c>
       <c r="F29">
         <v>9.6245902999999994E-2</v>
@@ -3199,7 +3197,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>6.8012400000000005E-4</v>
@@ -3211,7 +3209,7 @@
         <v>0.39954061600000002</v>
       </c>
       <c r="E30">
-        <v>1.9736321000000001E-2</v>
+        <v>2.0283136E-2</v>
       </c>
       <c r="F30">
         <v>9.6185945999999994E-2</v>
@@ -3225,7 +3223,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31">
         <v>5.9216200000000003E-4</v>
@@ -3237,7 +3235,7 @@
         <v>0.40100802200000002</v>
       </c>
       <c r="E31">
-        <v>2.0059832E-2</v>
+        <v>1.9446093000000001E-2</v>
       </c>
       <c r="F31">
         <v>9.6083401999999998E-2</v>
@@ -3251,7 +3249,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32">
         <v>5.9390400000000002E-4</v>
@@ -3263,7 +3261,7 @@
         <v>0.30137491399999999</v>
       </c>
       <c r="E32">
-        <v>1.7153650999999999E-2</v>
+        <v>1.8841891999999999E-2</v>
       </c>
       <c r="F32">
         <v>9.7575882000000003E-2</v>
@@ -3277,7 +3275,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33">
         <v>5.8364699999999996E-4</v>
@@ -3289,7 +3287,7 @@
         <v>0.29930047500000001</v>
       </c>
       <c r="E33">
-        <v>1.9624798999999998E-2</v>
+        <v>2.1772928E-2</v>
       </c>
       <c r="F33">
         <v>9.6670351000000002E-2</v>
@@ -3303,7 +3301,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34">
         <v>5.1002800000000004E-4</v>
@@ -3315,7 +3313,7 @@
         <v>0.30168805199999998</v>
       </c>
       <c r="E34">
-        <v>1.704373E-2</v>
+        <v>1.7340412999999999E-2</v>
       </c>
       <c r="F34">
         <v>9.6635620000000005E-2</v>
@@ -3329,7 +3327,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35">
         <v>8.0508499999999998E-4</v>
@@ -3341,7 +3339,7 @@
         <v>0.50017696099999998</v>
       </c>
       <c r="E35">
-        <v>2.3555221000000001E-2</v>
+        <v>2.3462375000000001E-2</v>
       </c>
       <c r="F35">
         <v>9.2545870000000002E-2</v>
@@ -3355,7 +3353,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36">
         <v>7.6724599999999997E-4</v>
@@ -3367,7 +3365,7 @@
         <v>0.49995857100000002</v>
       </c>
       <c r="E36">
-        <v>2.3109550999999999E-2</v>
+        <v>2.4965339E-2</v>
       </c>
       <c r="F36">
         <v>9.2378648999999993E-2</v>
@@ -3381,7 +3379,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37">
         <v>7.0617800000000001E-4</v>
@@ -3393,7 +3391,7 @@
         <v>0.49990232400000001</v>
       </c>
       <c r="E37">
-        <v>2.4668497000000001E-2</v>
+        <v>2.6471788999999999E-2</v>
       </c>
       <c r="F37">
         <v>9.1588153000000005E-2</v>
@@ -3407,7 +3405,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38">
         <v>6.90491E-4</v>
@@ -3419,7 +3417,7 @@
         <v>0.39997470200000002</v>
       </c>
       <c r="E38">
-        <v>2.0796281999999999E-2</v>
+        <v>2.2536453000000001E-2</v>
       </c>
       <c r="F38">
         <v>9.4995364999999998E-2</v>
@@ -3433,7 +3431,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39">
         <v>6.6872600000000002E-4</v>
@@ -3445,7 +3443,7 @@
         <v>0.40031847300000001</v>
       </c>
       <c r="E39">
-        <v>2.0327868999999998E-2</v>
+        <v>2.0575774000000002E-2</v>
       </c>
       <c r="F39">
         <v>9.4793715000000001E-2</v>
@@ -3459,7 +3457,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40">
         <v>6.0886200000000005E-4</v>
@@ -3471,7 +3469,7 @@
         <v>0.40016497499999998</v>
       </c>
       <c r="E40">
-        <v>2.1022189E-2</v>
+        <v>1.9551636000000001E-2</v>
       </c>
       <c r="F40">
         <v>9.3850811000000006E-2</v>
@@ -3485,7 +3483,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41">
         <v>5.8638600000000005E-4</v>
@@ -3497,7 +3495,7 @@
         <v>0.299993344</v>
       </c>
       <c r="E41">
-        <v>1.8880043999999999E-2</v>
+        <v>2.0140444E-2</v>
       </c>
       <c r="F41">
         <v>0.106182606</v>
@@ -3511,7 +3509,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>5.8743599999999999E-4</v>
@@ -3523,7 +3521,7 @@
         <v>0.300089995</v>
       </c>
       <c r="E42">
-        <v>1.7454754999999999E-2</v>
+        <v>1.6236285999999999E-2</v>
       </c>
       <c r="F42">
         <v>0.117572011</v>
@@ -3537,7 +3535,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43">
         <v>5.2147200000000004E-4</v>
@@ -3549,7 +3547,7 @@
         <v>0.300294854</v>
       </c>
       <c r="E43">
-        <v>1.8037182999999998E-2</v>
+        <v>1.6603903E-2</v>
       </c>
       <c r="F43">
         <v>0.126666367</v>
@@ -3563,7 +3561,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44">
         <v>7.3430900000000005E-4</v>
@@ -3575,7 +3573,7 @@
         <v>0.50012684799999996</v>
       </c>
       <c r="E44">
-        <v>2.6662858000000001E-2</v>
+        <v>2.9320511E-2</v>
       </c>
       <c r="F44">
         <v>8.9674559000000001E-2</v>
@@ -3589,7 +3587,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45">
         <v>6.9824100000000005E-4</v>
@@ -3601,7 +3599,7 @@
         <v>0.50011176499999999</v>
       </c>
       <c r="E45">
-        <v>2.5932647999999999E-2</v>
+        <v>2.84383E-2</v>
       </c>
       <c r="F45">
         <v>8.9625669000000005E-2</v>
@@ -3615,7 +3613,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46">
         <v>6.8666599999999995E-4</v>
@@ -3627,7 +3625,7 @@
         <v>0.50005669699999999</v>
       </c>
       <c r="E46">
-        <v>2.5288621000000001E-2</v>
+        <v>2.5482570999999999E-2</v>
       </c>
       <c r="F46">
         <v>8.9115579E-2</v>
@@ -3641,7 +3639,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B47">
         <v>6.0317599999999997E-4</v>
@@ -3653,7 +3651,7 @@
         <v>0.39983770499999999</v>
       </c>
       <c r="E47">
-        <v>2.3257283E-2</v>
+        <v>2.0828599999999999E-2</v>
       </c>
       <c r="F47">
         <v>9.2949599999999993E-2</v>
@@ -3667,7 +3665,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B48">
         <v>6.0375999999999995E-4</v>
@@ -3679,7 +3677,7 @@
         <v>0.39993699799999999</v>
       </c>
       <c r="E48">
-        <v>2.3698462999999999E-2</v>
+        <v>2.4302250000000001E-2</v>
       </c>
       <c r="F48">
         <v>9.1868320000000003E-2</v>
@@ -3693,7 +3691,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49">
         <v>7.2423300000000002E-4</v>
@@ -3705,7 +3703,7 @@
         <v>0.50497902900000002</v>
       </c>
       <c r="E49">
-        <v>2.2361435999999998E-2</v>
+        <v>2.2087249999999999E-2</v>
       </c>
       <c r="F49">
         <v>9.4290947E-2</v>
@@ -3719,7 +3717,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B50">
         <v>8.1175500000000005E-4</v>
@@ -3731,7 +3729,7 @@
         <v>0.50008189700000005</v>
       </c>
       <c r="E50">
-        <v>2.5173661999999999E-2</v>
+        <v>2.8558812999999999E-2</v>
       </c>
       <c r="F50">
         <v>9.1915671000000004E-2</v>
@@ -3745,7 +3743,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51">
         <v>7.9663900000000003E-4</v>
@@ -3757,7 +3755,7 @@
         <v>0.50001988399999997</v>
       </c>
       <c r="E51">
-        <v>2.4801119E-2</v>
+        <v>2.7923136000000001E-2</v>
       </c>
       <c r="F51">
         <v>9.2305313999999999E-2</v>
@@ -3771,7 +3769,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B52">
         <v>7.5900900000000005E-4</v>
@@ -3783,7 +3781,7 @@
         <v>0.500010124</v>
       </c>
       <c r="E52">
-        <v>2.4511805000000001E-2</v>
+        <v>2.4887511000000001E-2</v>
       </c>
       <c r="F52">
         <v>9.1771162000000003E-2</v>
@@ -3797,7 +3795,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B53">
         <v>7.5096099999999997E-4</v>
@@ -3809,7 +3807,7 @@
         <v>0.49999859899999999</v>
       </c>
       <c r="E53">
-        <v>2.4870665E-2</v>
+        <v>2.7336375999999999E-2</v>
       </c>
       <c r="F53">
         <v>9.0949002000000001E-2</v>
@@ -3823,7 +3821,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B54">
         <v>7.63323E-4</v>
@@ -3835,7 +3833,7 @@
         <v>0.50006198700000004</v>
       </c>
       <c r="E54">
-        <v>2.5023548E-2</v>
+        <v>2.5250000000000002E-2</v>
       </c>
       <c r="F54">
         <v>9.1166435000000004E-2</v>
@@ -3849,7 +3847,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B55">
         <v>7.2370699999999997E-4</v>
@@ -3861,7 +3859,7 @@
         <v>0.50002069100000002</v>
       </c>
       <c r="E55">
-        <v>2.4334100000000001E-2</v>
+        <v>2.9699555999999998E-2</v>
       </c>
       <c r="F55">
         <v>9.0262732999999998E-2</v>
@@ -3875,7 +3873,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B56">
         <v>7.0107399999999999E-4</v>
@@ -3887,7 +3885,7 @@
         <v>0.49981435699999999</v>
       </c>
       <c r="E56">
-        <v>2.5514657E-2</v>
+        <v>2.8491307E-2</v>
       </c>
       <c r="F56">
         <v>8.9684443000000003E-2</v>
@@ -3901,7 +3899,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B57">
         <v>7.1206199999999996E-4</v>
@@ -3913,7 +3911,7 @@
         <v>0.50008270300000002</v>
       </c>
       <c r="E57">
-        <v>2.5693543999999999E-2</v>
+        <v>2.7960022000000001E-2</v>
       </c>
       <c r="F57">
         <v>8.9956089000000003E-2</v>
@@ -3927,7 +3925,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B58">
         <v>6.9931300000000002E-4</v>
@@ -3939,7 +3937,7 @@
         <v>0.49992769599999998</v>
       </c>
       <c r="E58">
-        <v>2.5077159000000002E-2</v>
+        <v>2.7482230999999999E-2</v>
       </c>
       <c r="F58">
         <v>8.9725541000000006E-2</v>
@@ -3953,7 +3951,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B59">
         <v>7.7304999999999995E-4</v>
@@ -3965,7 +3963,7 @@
         <v>0.50006005200000003</v>
       </c>
       <c r="E59">
-        <v>2.6129478000000001E-2</v>
+        <v>2.6879742000000002E-2</v>
       </c>
       <c r="F59">
         <v>9.1026439000000001E-2</v>
@@ -3979,7 +3977,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B60">
         <v>7.7200999999999995E-4</v>
@@ -3991,7 +3989,7 @@
         <v>0.5000675</v>
       </c>
       <c r="E60">
-        <v>2.5281590999999999E-2</v>
+        <v>2.7285421000000001E-2</v>
       </c>
       <c r="F60">
         <v>9.0902575999999999E-2</v>
@@ -4005,7 +4003,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B61">
         <v>7.2866900000000004E-4</v>
@@ -4017,7 +4015,7 @@
         <v>0.50000592099999996</v>
       </c>
       <c r="E61">
-        <v>2.4421463000000001E-2</v>
+        <v>2.5060091999999999E-2</v>
       </c>
       <c r="F61">
         <v>9.0799087000000001E-2</v>
@@ -4031,7 +4029,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B62">
         <v>7.7559000000000005E-4</v>
@@ -4043,7 +4041,7 @@
         <v>0.49981272100000002</v>
       </c>
       <c r="E62">
-        <v>2.4078116E-2</v>
+        <v>2.5000455000000001E-2</v>
       </c>
       <c r="F62">
         <v>9.1868149999999996E-2</v>
@@ -4057,7 +4055,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B63">
         <v>7.6392500000000004E-4</v>
@@ -4069,7 +4067,7 @@
         <v>0.50003272799999998</v>
       </c>
       <c r="E63">
-        <v>2.4252689000000001E-2</v>
+        <v>2.4585493999999999E-2</v>
       </c>
       <c r="F63">
         <v>9.1987243999999996E-2</v>
@@ -4083,7 +4081,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B64">
         <v>7.2654800000000004E-4</v>
@@ -4095,7 +4093,7 @@
         <v>0.49692148400000002</v>
       </c>
       <c r="E64">
-        <v>2.3973168999999999E-2</v>
+        <v>2.5115571E-2</v>
       </c>
       <c r="F64">
         <v>9.1711663999999998E-2</v>
@@ -4109,7 +4107,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B65">
         <v>7.2222900000000001E-4</v>
@@ -4121,7 +4119,7 @@
         <v>0.499880084</v>
       </c>
       <c r="E65">
-        <v>1.7030178E-2</v>
+        <v>1.6913991E-2</v>
       </c>
       <c r="F65">
         <v>9.4883205999999998E-2</v>
@@ -4135,7 +4133,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B66">
         <v>7.1244500000000003E-4</v>
@@ -4147,7 +4145,7 @@
         <v>0.49991358299999999</v>
       </c>
       <c r="E66">
-        <v>1.8550810000000001E-2</v>
+        <v>1.876069E-2</v>
       </c>
       <c r="F66">
         <v>9.4884389999999999E-2</v>
@@ -4161,7 +4159,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B67">
         <v>7.1245100000000001E-4</v>
@@ -4173,7 +4171,7 @@
         <v>0.50002289600000005</v>
       </c>
       <c r="E67">
-        <v>2.3203320999999999E-2</v>
+        <v>2.2538355999999999E-2</v>
       </c>
       <c r="F67">
         <v>9.4996779000000003E-2</v>
@@ -4187,7 +4185,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B68">
         <v>7.3421300000000005E-4</v>
@@ -4199,7 +4197,7 @@
         <v>0.49965712499999998</v>
       </c>
       <c r="E68">
-        <v>2.2879033999999999E-2</v>
+        <v>2.1872315E-2</v>
       </c>
       <c r="F68">
         <v>9.4441699000000004E-2</v>
@@ -4213,7 +4211,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B69">
         <v>7.4564200000000003E-4</v>
@@ -4225,7 +4223,7 @@
         <v>0.49991707099999999</v>
       </c>
       <c r="E69">
-        <v>2.1350562999999999E-2</v>
+        <v>2.0420974000000001E-2</v>
       </c>
       <c r="F69">
         <v>9.4204745000000006E-2</v>
@@ -4239,7 +4237,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B70">
         <v>7.5361500000000001E-4</v>
@@ -4251,7 +4249,7 @@
         <v>0.50001522700000001</v>
       </c>
       <c r="E70">
-        <v>1.9893559000000002E-2</v>
+        <v>1.8111566999999999E-2</v>
       </c>
       <c r="F70">
         <v>9.5239508E-2</v>
@@ -4265,7 +4263,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B71">
         <v>6.6505100000000005E-4</v>
@@ -4277,7 +4275,7 @@
         <v>0.399215879</v>
       </c>
       <c r="E71">
-        <v>1.9550339999999999E-2</v>
+        <v>1.7216344000000001E-2</v>
       </c>
       <c r="F71">
         <v>9.5698076000000007E-2</v>
@@ -4291,7 +4289,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B72">
         <v>6.3372099999999996E-4</v>
@@ -4303,7 +4301,7 @@
         <v>0.39906686200000002</v>
       </c>
       <c r="E72">
-        <v>1.9562685999999999E-2</v>
+        <v>1.8789934000000001E-2</v>
       </c>
       <c r="F72">
         <v>9.6278714000000001E-2</v>
@@ -4317,7 +4315,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B73">
         <v>6.1875899999999998E-4</v>
@@ -4329,7 +4327,7 @@
         <v>0.39989831300000001</v>
       </c>
       <c r="E73">
-        <v>2.1604254999999999E-2</v>
+        <v>2.2025092999999999E-2</v>
       </c>
       <c r="F73">
         <v>9.5364194999999999E-2</v>
@@ -4343,7 +4341,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B74">
         <v>6.2012899999999997E-4</v>
@@ -4355,7 +4353,7 @@
         <v>0.39928821199999998</v>
       </c>
       <c r="E74">
-        <v>2.2378535000000001E-2</v>
+        <v>2.1280207999999998E-2</v>
       </c>
       <c r="F74">
         <v>9.5441264999999997E-2</v>
@@ -4369,7 +4367,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B75">
         <v>6.5113400000000004E-4</v>
@@ -4381,7 +4379,7 @@
         <v>0.39950756500000001</v>
       </c>
       <c r="E75">
-        <v>2.3494683999999998E-2</v>
+        <v>2.1074203999999999E-2</v>
       </c>
       <c r="F75">
         <v>9.5445799999999997E-2</v>
@@ -4395,7 +4393,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B76">
         <v>6.6688800000000003E-4</v>
@@ -4407,7 +4405,7 @@
         <v>0.398774242</v>
       </c>
       <c r="E76">
-        <v>2.1653974999999999E-2</v>
+        <v>2.306619E-2</v>
       </c>
       <c r="F76">
         <v>9.5102975000000006E-2</v>
@@ -4421,7 +4419,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B77">
         <v>5.7892299999999996E-4</v>
@@ -4433,7 +4431,7 @@
         <v>0.29963859100000001</v>
       </c>
       <c r="E77">
-        <v>1.6896813E-2</v>
+        <v>1.8974015E-2</v>
       </c>
       <c r="F77">
         <v>9.7863836999999995E-2</v>
@@ -4447,7 +4445,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B78">
         <v>5.6844399999999998E-4</v>
@@ -4459,7 +4457,7 @@
         <v>0.29996158899999997</v>
       </c>
       <c r="E78">
-        <v>1.9367124999999999E-2</v>
+        <v>1.9462601999999999E-2</v>
       </c>
       <c r="F78">
         <v>9.7314092000000005E-2</v>
@@ -4473,7 +4471,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B79">
         <v>5.5183900000000004E-4</v>
@@ -4485,7 +4483,7 @@
         <v>0.30406831400000001</v>
       </c>
       <c r="E79">
-        <v>1.9188990999999999E-2</v>
+        <v>2.0564747000000001E-2</v>
       </c>
       <c r="F79">
         <v>9.7307075000000007E-2</v>
@@ -4499,7 +4497,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B80">
         <v>5.2785099999999997E-4</v>
@@ -4511,7 +4509,7 @@
         <v>0.30089281899999998</v>
       </c>
       <c r="E80">
-        <v>1.8193810000000001E-2</v>
+        <v>1.9941581E-2</v>
       </c>
       <c r="F80">
         <v>9.7334873000000002E-2</v>
@@ -4525,7 +4523,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B81">
         <v>5.4509199999999995E-4</v>
@@ -4537,7 +4535,7 @@
         <v>0.29742201299999999</v>
       </c>
       <c r="E81">
-        <v>2.0483014000000001E-2</v>
+        <v>2.2126839999999998E-2</v>
       </c>
       <c r="F81">
         <v>9.5757468999999998E-2</v>
@@ -4551,7 +4549,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B82">
         <v>5.5842000000000001E-4</v>
@@ -4563,7 +4561,7 @@
         <v>0.299342948</v>
       </c>
       <c r="E82">
-        <v>2.0471765999999999E-2</v>
+        <v>2.1342367000000001E-2</v>
       </c>
       <c r="F82">
         <v>9.5767783999999995E-2</v>
@@ -4577,7 +4575,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B83">
         <v>8.1662800000000002E-4</v>
@@ -4589,7 +4587,7 @@
         <v>0.50025813699999999</v>
       </c>
       <c r="E83">
-        <v>2.6577284999999999E-2</v>
+        <v>2.9359783E-2</v>
       </c>
       <c r="F83">
         <v>9.2475197999999995E-2</v>
@@ -4603,7 +4601,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B84">
         <v>8.2480499999999996E-4</v>
@@ -4615,7 +4613,7 @@
         <v>0.50018586899999995</v>
       </c>
       <c r="E84">
-        <v>2.6404024000000002E-2</v>
+        <v>2.8518803999999998E-2</v>
       </c>
       <c r="F84">
         <v>9.2061076000000006E-2</v>
@@ -4629,7 +4627,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B85">
         <v>7.6000999999999998E-4</v>
@@ -4641,7 +4639,7 @@
         <v>0.50004636899999999</v>
       </c>
       <c r="E85">
-        <v>2.4838368E-2</v>
+        <v>2.7907983000000001E-2</v>
       </c>
       <c r="F85">
         <v>9.2153499E-2</v>
@@ -4655,7 +4653,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B86">
         <v>7.4356499999999996E-4</v>
@@ -4667,7 +4665,7 @@
         <v>0.50049595099999999</v>
       </c>
       <c r="E86">
-        <v>2.549999E-2</v>
+        <v>2.6673499999999999E-2</v>
       </c>
       <c r="F86">
         <v>9.1281444000000003E-2</v>
@@ -4681,7 +4679,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B87">
         <v>7.9224700000000005E-4</v>
@@ -4693,7 +4691,7 @@
         <v>0.500037642</v>
       </c>
       <c r="E87">
-        <v>2.6181453E-2</v>
+        <v>2.7468919000000001E-2</v>
       </c>
       <c r="F87">
         <v>9.1722809000000002E-2</v>
@@ -4707,7 +4705,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B88">
         <v>8.5975099999999996E-4</v>
@@ -4719,7 +4717,7 @@
         <v>0.50000099099999995</v>
       </c>
       <c r="E88">
-        <v>2.6915963000000001E-2</v>
+        <v>2.7848810000000002E-2</v>
       </c>
       <c r="F88">
         <v>9.1934420000000003E-2</v>
@@ -4733,7 +4731,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B89">
         <v>7.0235800000000004E-4</v>
@@ -4745,7 +4743,7 @@
         <v>0.40077602200000001</v>
       </c>
       <c r="E89">
-        <v>2.0475185999999999E-2</v>
+        <v>2.3096966E-2</v>
       </c>
       <c r="F89">
         <v>9.5246530999999995E-2</v>
@@ -4759,7 +4757,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B90">
         <v>6.7399699999999996E-4</v>
@@ -4771,7 +4769,7 @@
         <v>0.399699582</v>
       </c>
       <c r="E90">
-        <v>2.1077841999999999E-2</v>
+        <v>2.5790118000000001E-2</v>
       </c>
       <c r="F90">
         <v>9.4840091000000001E-2</v>
@@ -4785,7 +4783,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B91">
         <v>6.1247500000000002E-4</v>
@@ -4797,7 +4795,7 @@
         <v>0.39970823500000002</v>
       </c>
       <c r="E91">
-        <v>2.0777276000000001E-2</v>
+        <v>2.6694748000000001E-2</v>
       </c>
       <c r="F91">
         <v>9.4596124000000004E-2</v>
@@ -4811,7 +4809,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B92">
         <v>5.9411399999999997E-4</v>
@@ -4823,7 +4821,7 @@
         <v>0.39958102600000001</v>
       </c>
       <c r="E92">
-        <v>2.0836258999999999E-2</v>
+        <v>1.6276200000000001E-2</v>
       </c>
       <c r="F92">
         <v>9.4314624E-2</v>
@@ -4837,7 +4835,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B93">
         <v>6.1466400000000001E-4</v>
@@ -4849,7 +4847,7 @@
         <v>0.40017336999999997</v>
       </c>
       <c r="E93">
-        <v>2.0735538000000001E-2</v>
+        <v>2.2372559E-2</v>
       </c>
       <c r="F93">
         <v>9.4777095000000006E-2</v>
@@ -4863,7 +4861,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B94">
         <v>6.6162899999999995E-4</v>
@@ -4875,7 +4873,7 @@
         <v>0.40074769799999999</v>
       </c>
       <c r="E94">
-        <v>2.2464746000000001E-2</v>
+        <v>2.2298869999999998E-2</v>
       </c>
       <c r="F94">
         <v>9.4852504000000004E-2</v>
@@ -4889,7 +4887,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B95">
         <v>5.9813300000000004E-4</v>
@@ -4901,7 +4899,7 @@
         <v>0.30013885400000001</v>
       </c>
       <c r="E95">
-        <v>1.9020628000000001E-2</v>
+        <v>2.0460501999999998E-2</v>
       </c>
       <c r="F95">
         <v>0.105815622</v>
@@ -4915,7 +4913,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B96">
         <v>5.8159900000000003E-4</v>
@@ -4927,7 +4925,7 @@
         <v>0.30050412700000001</v>
       </c>
       <c r="E96">
-        <v>2.4834759000000001E-2</v>
+        <v>3.3435341E-2</v>
       </c>
       <c r="F96">
         <v>0.11494191300000001</v>
@@ -4941,7 +4939,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B97">
         <v>5.2616900000000005E-4</v>
@@ -4953,7 +4951,7 @@
         <v>0.30007125099999998</v>
       </c>
       <c r="E97">
-        <v>1.9110674000000001E-2</v>
+        <v>1.43962E-2</v>
       </c>
       <c r="F97">
         <v>0.12915310899999999</v>
@@ -4967,7 +4965,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B98">
         <v>5.04985E-4</v>
@@ -4979,7 +4977,7 @@
         <v>0.300041644</v>
       </c>
       <c r="E98">
-        <v>2.1812228999999999E-2</v>
+        <v>2.4023714000000002E-2</v>
       </c>
       <c r="F98">
         <v>0.135209721</v>
@@ -4993,7 +4991,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B99">
         <v>5.1139399999999998E-4</v>
@@ -5005,7 +5003,7 @@
         <v>0.30000299000000002</v>
       </c>
       <c r="E99">
-        <v>2.5789294000000001E-2</v>
+        <v>2.0355875999999998E-2</v>
       </c>
       <c r="F99">
         <v>0.14187197200000001</v>
@@ -5019,7 +5017,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B100">
         <v>5.3669500000000001E-4</v>
@@ -5031,7 +5029,7 @@
         <v>0.30005833100000001</v>
       </c>
       <c r="E100">
-        <v>2.6643176000000001E-2</v>
+        <v>2.4404681000000001E-2</v>
       </c>
       <c r="F100">
         <v>0.14897181500000001</v>
@@ -5045,7 +5043,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B101">
         <v>7.1749599999999998E-4</v>
@@ -5057,7 +5055,7 @@
         <v>0.50050467899999995</v>
       </c>
       <c r="E101">
-        <v>2.8744255E-2</v>
+        <v>2.8163105000000001E-2</v>
       </c>
       <c r="F101">
         <v>8.8546011999999993E-2</v>
@@ -5071,7 +5069,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B102">
         <v>7.0684700000000003E-4</v>
@@ -5083,7 +5081,7 @@
         <v>0.50011482500000004</v>
       </c>
       <c r="E102">
-        <v>2.7856384000000001E-2</v>
+        <v>3.0175171000000001E-2</v>
       </c>
       <c r="F102">
         <v>8.9643099000000004E-2</v>
@@ -5097,7 +5095,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B103">
         <v>6.9391699999999995E-4</v>
@@ -5109,7 +5107,7 @@
         <v>0.49996141900000002</v>
       </c>
       <c r="E103">
-        <v>2.7173981E-2</v>
+        <v>3.3903497999999997E-2</v>
       </c>
       <c r="F103">
         <v>8.9105503000000003E-2</v>
@@ -5123,7 +5121,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B104">
         <v>6.8117199999999996E-4</v>
@@ -5135,7 +5133,7 @@
         <v>0.49998881699999997</v>
       </c>
       <c r="E104">
-        <v>2.6883537999999998E-2</v>
+        <v>3.0178110000000001E-2</v>
       </c>
       <c r="F104">
         <v>8.8787929000000002E-2</v>
@@ -5149,7 +5147,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B105">
         <v>6.7872799999999997E-4</v>
@@ -5161,7 +5159,7 @@
         <v>0.49983905899999997</v>
       </c>
       <c r="E105">
-        <v>2.6575871000000001E-2</v>
+        <v>2.8687727E-2</v>
       </c>
       <c r="F105">
         <v>8.8617395000000002E-2</v>
@@ -5175,7 +5173,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B106">
         <v>7.1950099999999999E-4</v>
@@ -5187,7 +5185,7 @@
         <v>0.50012871199999998</v>
       </c>
       <c r="E106">
-        <v>2.6791129E-2</v>
+        <v>2.8405264E-2</v>
       </c>
       <c r="F106">
         <v>8.9807804000000005E-2</v>
@@ -5201,7 +5199,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B107">
         <v>6.1575900000000001E-4</v>
@@ -5213,7 +5211,7 @@
         <v>0.40001579300000001</v>
       </c>
       <c r="E107">
-        <v>2.3810701E-2</v>
+        <v>3.2579062999999998E-2</v>
       </c>
       <c r="F107">
         <v>9.3052383000000002E-2</v>
@@ -5227,7 +5225,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B108">
         <v>6.0389799999999996E-4</v>
@@ -5239,7 +5237,7 @@
         <v>0.40011335199999998</v>
       </c>
       <c r="E108">
-        <v>2.3536505999999999E-2</v>
+        <v>2.7406429E-2</v>
       </c>
       <c r="F108">
         <v>9.0973494000000002E-2</v>
@@ -5253,7 +5251,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B109">
         <v>5.7284199999999995E-4</v>
@@ -5265,7 +5263,7 @@
         <v>0.40002267499999999</v>
       </c>
       <c r="E109">
-        <v>2.5438157999999999E-2</v>
+        <v>3.3192933000000001E-2</v>
       </c>
       <c r="F109">
         <v>8.9342075000000007E-2</v>
@@ -5279,7 +5277,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B110">
         <v>5.5556900000000001E-4</v>
@@ -5291,7 +5289,7 @@
         <v>0.39995072199999998</v>
       </c>
       <c r="E110">
-        <v>2.5517495000000001E-2</v>
+        <v>3.0516689999999999E-2</v>
       </c>
       <c r="F110">
         <v>8.9309071000000004E-2</v>
@@ -5305,7 +5303,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B111">
         <v>5.6215900000000001E-4</v>
@@ -5317,7 +5315,7 @@
         <v>0.39991206200000001</v>
       </c>
       <c r="E111">
-        <v>2.6224523999999999E-2</v>
+        <v>3.3594800000000001E-2</v>
       </c>
       <c r="F111">
         <v>8.8778441999999999E-2</v>
@@ -5331,7 +5329,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B112">
         <v>5.4408699999999996E-4</v>
@@ -5343,7 +5341,7 @@
         <v>0.29846209099999998</v>
       </c>
       <c r="E112">
-        <v>3.9465617000000001E-2</v>
+        <v>3.6771788E-2</v>
       </c>
       <c r="F112">
         <v>9.1228983E-2</v>
@@ -5357,7 +5355,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B113">
         <v>4.5836E-4</v>
@@ -5369,7 +5367,7 @@
         <v>0.30222506500000001</v>
       </c>
       <c r="E113">
-        <v>4.5065751000000001E-2</v>
+        <v>4.3851583E-2</v>
       </c>
       <c r="F113">
         <v>9.2706983000000007E-2</v>
@@ -5383,7 +5381,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B114">
         <v>3.0230799999999999E-4</v>
@@ -5395,7 +5393,7 @@
         <v>0.296834975</v>
       </c>
       <c r="E114">
-        <v>3.5464901E-2</v>
+        <v>3.5984049999999997E-2</v>
       </c>
       <c r="F114">
         <v>9.9475516E-2</v>
@@ -5409,7 +5407,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B115">
         <v>2.0462099999999999E-4</v>
@@ -5421,7 +5419,7 @@
         <v>0.29701893400000001</v>
       </c>
       <c r="E115">
-        <v>3.6502927999999997E-2</v>
+        <v>3.6558697000000001E-2</v>
       </c>
       <c r="F115">
         <v>9.6633421999999997E-2</v>
@@ -5435,7 +5433,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B116">
         <v>5.2193699999999999E-4</v>
@@ -5447,7 +5445,7 @@
         <v>0.40036071000000001</v>
       </c>
       <c r="E116">
-        <v>3.5911619999999998E-2</v>
+        <v>3.2603696000000001E-2</v>
       </c>
       <c r="F116">
         <v>8.9501396999999996E-2</v>
@@ -5461,7 +5459,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B117">
         <v>4.4927699999999999E-4</v>
@@ -5473,7 +5471,7 @@
         <v>0.399764919</v>
       </c>
       <c r="E117">
-        <v>3.8463404E-2</v>
+        <v>3.2396071999999998E-2</v>
       </c>
       <c r="F117">
         <v>9.5001253999999993E-2</v>
@@ -5487,7 +5485,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B118">
         <v>2.8546399999999998E-4</v>
@@ -5499,7 +5497,7 @@
         <v>0.399049243</v>
       </c>
       <c r="E118">
-        <v>3.5169270000000002E-2</v>
+        <v>3.0683358000000001E-2</v>
       </c>
       <c r="F118">
         <v>0.106014196</v>
@@ -5513,7 +5511,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B119">
         <v>2.4194099999999999E-4</v>
@@ -5525,7 +5523,7 @@
         <v>0.40002338700000001</v>
       </c>
       <c r="E119">
-        <v>6.6916982E-2</v>
+        <v>2.9894546000000001E-2</v>
       </c>
       <c r="F119">
         <v>0.106790285</v>
@@ -5539,7 +5537,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B120">
         <v>6.5725699999999996E-4</v>
@@ -5551,7 +5549,7 @@
         <v>0.50333939500000002</v>
       </c>
       <c r="E120">
-        <v>2.8484735000000001E-2</v>
+        <v>2.5148977999999999E-2</v>
       </c>
       <c r="F120">
         <v>9.2660582000000005E-2</v>
@@ -5565,7 +5563,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B121">
         <v>5.2808399999999995E-4</v>
@@ -5577,7 +5575,7 @@
         <v>0.50035887499999998</v>
       </c>
       <c r="E121">
-        <v>4.2228937000000001E-2</v>
+        <v>3.6052422000000001E-2</v>
       </c>
       <c r="F121">
         <v>9.9396029999999996E-2</v>
@@ -5591,7 +5589,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B122">
         <v>3.5915099999999999E-4</v>
@@ -5603,7 +5601,7 @@
         <v>0.49840438399999998</v>
       </c>
       <c r="E122">
-        <v>3.5165189999999999E-2</v>
+        <v>3.4000928E-2</v>
       </c>
       <c r="F122">
         <v>0.108600243</v>
@@ -5617,7 +5615,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B123">
         <v>3.1127999999999999E-4</v>
@@ -5629,7 +5627,7 @@
         <v>0.49988101000000001</v>
       </c>
       <c r="E123">
-        <v>3.8919571E-2</v>
+        <v>3.2927250999999998E-2</v>
       </c>
       <c r="F123">
         <v>0.10772396300000001</v>
@@ -5643,7 +5641,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B124">
         <v>4.7841700000000002E-4</v>
@@ -5655,7 +5653,7 @@
         <v>0.30053032600000001</v>
       </c>
       <c r="E124">
-        <v>4.2801569999999997E-2</v>
+        <v>3.6170202999999998E-2</v>
       </c>
       <c r="F124">
         <v>0.103238596</v>
@@ -5669,7 +5667,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B125">
         <v>4.9956000000000002E-4</v>
@@ -5681,7 +5679,7 @@
         <v>0.29977596000000001</v>
       </c>
       <c r="E125">
-        <v>4.0141706999999999E-2</v>
+        <v>3.4628844999999998E-2</v>
       </c>
       <c r="F125">
         <v>0.102442293</v>
@@ -5695,7 +5693,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B126">
         <v>3.2126799999999999E-4</v>
@@ -5707,7 +5705,7 @@
         <v>0.30118348099999998</v>
       </c>
       <c r="E126">
-        <v>3.4455592E-2</v>
+        <v>3.0989666999999999E-2</v>
       </c>
       <c r="F126">
         <v>0.10929739199999999</v>
@@ -5721,7 +5719,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B127">
         <v>2.7020599999999999E-4</v>
@@ -5733,7 +5731,7 @@
         <v>0.29982659</v>
       </c>
       <c r="E127">
-        <v>4.1210475000000003E-2</v>
+        <v>3.2594555999999997E-2</v>
       </c>
       <c r="F127">
         <v>0.107326958</v>
@@ -5747,7 +5745,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B128">
         <v>4.9661200000000001E-4</v>
@@ -5759,7 +5757,7 @@
         <v>0.40112509299999999</v>
       </c>
       <c r="E128">
-        <v>4.5082240000000003E-2</v>
+        <v>3.7916901000000003E-2</v>
       </c>
       <c r="F128">
         <v>0.100575394</v>
@@ -5773,7 +5771,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B129">
         <v>5.3819899999999995E-4</v>
@@ -5785,7 +5783,7 @@
         <v>0.400130769</v>
       </c>
       <c r="E129">
-        <v>4.503236E-2</v>
+        <v>3.8375550000000001E-2</v>
       </c>
       <c r="F129">
         <v>0.10001264</v>
@@ -5799,7 +5797,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B130">
         <v>3.5480499999999998E-4</v>
@@ -5811,7 +5809,7 @@
         <v>0.39987046199999998</v>
       </c>
       <c r="E130">
-        <v>4.3609781E-2</v>
+        <v>3.4675389000000001E-2</v>
       </c>
       <c r="F130">
         <v>0.110734652</v>
@@ -5825,7 +5823,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B131">
         <v>3.0498E-4</v>
@@ -5837,7 +5835,7 @@
         <v>0.39983951400000001</v>
       </c>
       <c r="E131">
-        <v>3.8087335E-2</v>
+        <v>3.4950776000000003E-2</v>
       </c>
       <c r="F131">
         <v>0.10964180599999999</v>
@@ -5851,7 +5849,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B132">
         <v>5.7161400000000002E-4</v>
@@ -5863,7 +5861,7 @@
         <v>0.49980213000000001</v>
       </c>
       <c r="E132">
-        <v>4.6878808000000001E-2</v>
+        <v>3.7310514000000003E-2</v>
       </c>
       <c r="F132">
         <v>0.100384342</v>
@@ -5877,7 +5875,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B133">
         <v>6.1787599999999995E-4</v>
@@ -5889,7 +5887,7 @@
         <v>0.500028205</v>
       </c>
       <c r="E133">
-        <v>4.9885762E-2</v>
+        <v>3.8094810999999999E-2</v>
       </c>
       <c r="F133">
         <v>9.9515904000000002E-2</v>
@@ -5903,7 +5901,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B134">
         <v>4.3410900000000001E-4</v>
@@ -5915,7 +5913,7 @@
         <v>0.49784190099999998</v>
       </c>
       <c r="E134">
-        <v>7.3446624000000002E-2</v>
+        <v>3.7069141E-2</v>
       </c>
       <c r="F134">
         <v>0.110014009</v>
@@ -5929,7 +5927,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B135">
         <v>3.79055E-4</v>
@@ -5941,7 +5939,7 @@
         <v>0.49926978</v>
       </c>
       <c r="E135">
-        <v>6.1689590000000002E-2</v>
+        <v>3.2560628000000001E-2</v>
       </c>
       <c r="F135">
         <v>0.10874370999999999</v>
@@ -5955,7 +5953,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B136">
         <v>5.0153199999999995E-4</v>
@@ -5967,7 +5965,7 @@
         <v>0.29999452700000001</v>
       </c>
       <c r="E136">
-        <v>3.9067486999999998E-2</v>
+        <v>3.3678996000000003E-2</v>
       </c>
       <c r="F136">
         <v>0.109497229</v>
@@ -5981,7 +5979,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B137">
         <v>5.0392299999999998E-4</v>
@@ -5993,7 +5991,7 @@
         <v>0.29948034400000001</v>
       </c>
       <c r="E137">
-        <v>4.7531764999999997E-2</v>
+        <v>3.5209544000000002E-2</v>
       </c>
       <c r="F137">
         <v>0.109779302</v>
@@ -6007,7 +6005,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B138">
         <v>3.4781999999999999E-4</v>
@@ -6019,7 +6017,7 @@
         <v>0.29999618500000003</v>
       </c>
       <c r="E138">
-        <v>4.7035642000000003E-2</v>
+        <v>3.7449899000000002E-2</v>
       </c>
       <c r="F138">
         <v>0.10975439100000001</v>
@@ -6033,7 +6031,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B139">
         <v>2.7612200000000001E-4</v>
@@ -6045,7 +6043,7 @@
         <v>0.300056612</v>
       </c>
       <c r="E139">
-        <v>4.5309544E-2</v>
+        <v>3.7161039999999999E-2</v>
       </c>
       <c r="F139">
         <v>0.111006706</v>
@@ -6059,7 +6057,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B140">
         <v>5.4036500000000001E-4</v>
@@ -6071,7 +6069,7 @@
         <v>0.40050686699999999</v>
       </c>
       <c r="E140">
-        <v>4.6744597999999998E-2</v>
+        <v>3.8979002999999998E-2</v>
       </c>
       <c r="F140">
         <v>9.8130669000000004E-2</v>
@@ -6085,7 +6083,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B141">
         <v>5.2480699999999996E-4</v>
@@ -6097,7 +6095,7 @@
         <v>0.401062998</v>
       </c>
       <c r="E141">
-        <v>3.7531783999999999E-2</v>
+        <v>3.1236511000000002E-2</v>
       </c>
       <c r="F141">
         <v>0.104900016</v>
@@ -6111,7 +6109,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B142">
         <v>3.9074900000000002E-4</v>
@@ -6123,7 +6121,7 @@
         <v>0.39881570100000002</v>
       </c>
       <c r="E142">
-        <v>4.2380693999999997E-2</v>
+        <v>3.3225333000000003E-2</v>
       </c>
       <c r="F142">
         <v>0.10894643900000001</v>
@@ -6137,7 +6135,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B143">
         <v>3.3084899999999998E-4</v>
@@ -6149,7 +6147,7 @@
         <v>0.39911565100000002</v>
       </c>
       <c r="E143">
-        <v>4.8708187999999999E-2</v>
+        <v>3.6519250000000003E-2</v>
       </c>
       <c r="F143">
         <v>0.108711746</v>
@@ -6163,7 +6161,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B144">
         <v>5.6678999999999996E-4</v>
@@ -6175,7 +6173,7 @@
         <v>0.50163681100000002</v>
       </c>
       <c r="E144">
-        <v>4.4913554000000001E-2</v>
+        <v>3.7039750000000003E-2</v>
       </c>
       <c r="F144">
         <v>9.8336361999999997E-2</v>
@@ -6189,7 +6187,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B145">
         <v>6.0097700000000004E-4</v>
@@ -6201,7 +6199,7 @@
         <v>0.49942540800000002</v>
       </c>
       <c r="E145">
-        <v>4.4640606999999999E-2</v>
+        <v>3.6877614000000003E-2</v>
       </c>
       <c r="F145">
         <v>9.8248176000000007E-2</v>
@@ -6215,7 +6213,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B146">
         <v>4.8327E-4</v>
@@ -6227,7 +6225,7 @@
         <v>0.50056330999999998</v>
       </c>
       <c r="E146">
-        <v>5.5029842000000002E-2</v>
+        <v>3.3496234999999999E-2</v>
       </c>
       <c r="F146">
         <v>0.102968558</v>
@@ -6241,7 +6239,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B147">
         <v>4.9274500000000005E-4</v>
@@ -6253,7 +6251,7 @@
         <v>0.29988877800000002</v>
       </c>
       <c r="E147">
-        <v>3.6448479999999998E-2</v>
+        <v>3.3134829999999997E-2</v>
       </c>
       <c r="F147">
         <v>0.10019613600000001</v>
@@ -6267,7 +6265,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B148">
         <v>3.2658299999999997E-4</v>
@@ -6279,7 +6277,7 @@
         <v>0.29819178499999999</v>
       </c>
       <c r="E148">
-        <v>3.5661086000000002E-2</v>
+        <v>3.3243096E-2</v>
       </c>
       <c r="F148">
         <v>0.10441104800000001</v>
@@ -6293,7 +6291,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B149">
         <v>2.25011E-4</v>
@@ -6305,7 +6303,7 @@
         <v>0.29830796199999998</v>
       </c>
       <c r="E149">
-        <v>3.2729743999999998E-2</v>
+        <v>2.8524424999999999E-2</v>
       </c>
       <c r="F149">
         <v>0.107690773</v>
@@ -6319,7 +6317,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B150">
         <v>5.0822400000000005E-4</v>
@@ -6331,7 +6329,7 @@
         <v>0.39998064300000002</v>
       </c>
       <c r="E150">
-        <v>3.5481061000000001E-2</v>
+        <v>2.8374363E-2</v>
       </c>
       <c r="F150">
         <v>9.7909154999999998E-2</v>
@@ -6345,7 +6343,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B151">
         <v>3.85542E-4</v>
@@ -6357,7 +6355,7 @@
         <v>0.40142784199999998</v>
       </c>
       <c r="E151">
-        <v>3.7443071000000001E-2</v>
+        <v>3.2418615999999997E-2</v>
       </c>
       <c r="F151">
         <v>0.104410629</v>
@@ -6371,7 +6369,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B152">
         <v>2.7817599999999999E-4</v>
@@ -6383,7 +6381,7 @@
         <v>0.40073868600000001</v>
       </c>
       <c r="E152">
-        <v>4.8454603999999998E-2</v>
+        <v>2.9233142E-2</v>
       </c>
       <c r="F152">
         <v>0.108353029</v>
@@ -6397,7 +6395,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B153">
         <v>5.7829300000000001E-4</v>
@@ -6409,7 +6407,7 @@
         <v>0.49932425499999999</v>
       </c>
       <c r="E153">
-        <v>3.3814474999999997E-2</v>
+        <v>2.2336103E-2</v>
       </c>
       <c r="F153">
         <v>9.9111609000000003E-2</v>
@@ -6423,7 +6421,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B154">
         <v>4.49791E-4</v>
@@ -6435,7 +6433,7 @@
         <v>0.49965446800000002</v>
       </c>
       <c r="E154">
-        <v>4.3603258999999998E-2</v>
+        <v>3.5048993000000001E-2</v>
       </c>
       <c r="F154">
         <v>0.10304944100000001</v>
@@ -6449,7 +6447,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B155">
         <v>3.38769E-4</v>
@@ -6461,7 +6459,7 @@
         <v>0.49989457599999998</v>
       </c>
       <c r="E155">
-        <v>3.8023349999999997E-2</v>
+        <v>3.2506526000000001E-2</v>
       </c>
       <c r="F155">
         <v>0.108397884</v>
@@ -6475,7 +6473,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B156">
         <v>5.0523799999999998E-4</v>
@@ -6487,7 +6485,7 @@
         <v>0.30028363699999999</v>
       </c>
       <c r="E156">
-        <v>4.1271736000000003E-2</v>
+        <v>3.2856110000000001E-2</v>
       </c>
       <c r="F156">
         <v>0.102398581</v>
@@ -6501,7 +6499,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B157">
         <v>3.7785800000000001E-4</v>
@@ -6513,7 +6511,7 @@
         <v>0.30006925000000001</v>
       </c>
       <c r="E157">
-        <v>3.6809690999999999E-2</v>
+        <v>2.8938051999999999E-2</v>
       </c>
       <c r="F157">
         <v>0.108183192</v>
@@ -6527,7 +6525,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B158">
         <v>2.8554999999999997E-4</v>
@@ -6539,7 +6537,7 @@
         <v>0.300038366</v>
       </c>
       <c r="E158">
-        <v>3.8511337E-2</v>
+        <v>2.9716191999999999E-2</v>
       </c>
       <c r="F158">
         <v>0.107811647</v>
@@ -6553,7 +6551,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B159">
         <v>4.70111E-4</v>
@@ -6565,7 +6563,7 @@
         <v>0.401582726</v>
       </c>
       <c r="E159">
-        <v>4.3640801999999999E-2</v>
+        <v>3.5263436000000002E-2</v>
       </c>
       <c r="F159">
         <v>0.101165298</v>
@@ -6579,7 +6577,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B160">
         <v>4.27133E-4</v>
@@ -6591,7 +6589,7 @@
         <v>0.39933699</v>
       </c>
       <c r="E160">
-        <v>4.1300086E-2</v>
+        <v>3.2918416999999998E-2</v>
       </c>
       <c r="F160">
         <v>0.10437996400000001</v>
@@ -6605,7 +6603,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B161">
         <v>3.3823700000000002E-4</v>
@@ -6617,7 +6615,7 @@
         <v>0.40005315400000002</v>
       </c>
       <c r="E161">
-        <v>4.5480125000000003E-2</v>
+        <v>3.0640058000000001E-2</v>
       </c>
       <c r="F161">
         <v>0.108152225</v>
@@ -6631,7 +6629,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B162">
         <v>5.7063399999999998E-4</v>
@@ -6643,7 +6641,7 @@
         <v>0.50041046</v>
       </c>
       <c r="E162">
-        <v>4.6042647999999999E-2</v>
+        <v>3.2445148E-2</v>
       </c>
       <c r="F162">
         <v>0.100247435</v>
@@ -6657,7 +6655,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B163">
         <v>5.2623700000000004E-4</v>
@@ -6669,7 +6667,7 @@
         <v>0.49990065900000002</v>
       </c>
       <c r="E163">
-        <v>5.1275907000000003E-2</v>
+        <v>4.1581205000000003E-2</v>
       </c>
       <c r="F163">
         <v>9.9901226999999995E-2</v>
@@ -6683,7 +6681,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B164">
         <v>3.8766700000000001E-4</v>
@@ -6695,7 +6693,7 @@
         <v>0.50011976599999997</v>
       </c>
       <c r="E164">
-        <v>5.4014270000000003E-2</v>
+        <v>2.8642780999999999E-2</v>
       </c>
       <c r="F164">
         <v>0.108257747</v>
@@ -6709,7 +6707,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B165">
         <v>4.8464800000000001E-4</v>
@@ -6721,7 +6719,7 @@
         <v>0.30006123899999998</v>
       </c>
       <c r="E165">
-        <v>3.8515338000000003E-2</v>
+        <v>2.9416213E-2</v>
       </c>
       <c r="F165">
         <v>0.107851928</v>
@@ -6735,7 +6733,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B166">
         <v>4.0982300000000002E-4</v>
@@ -6747,7 +6745,7 @@
         <v>0.30000044100000001</v>
       </c>
       <c r="E166">
-        <v>3.9715410999999999E-2</v>
+        <v>3.1521225E-2</v>
       </c>
       <c r="F166">
         <v>0.113022656</v>
@@ -6761,7 +6759,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B167">
         <v>3.1294599999999998E-4</v>
@@ -6773,7 +6771,7 @@
         <v>0.30003166100000001</v>
       </c>
       <c r="E167">
-        <v>4.9237347000000001E-2</v>
+        <v>3.5077997999999999E-2</v>
       </c>
       <c r="F167">
         <v>0.11181050300000001</v>
@@ -6787,7 +6785,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B168">
         <v>5.2144500000000005E-4</v>
@@ -6799,7 +6797,7 @@
         <v>0.40037684400000001</v>
       </c>
       <c r="E168">
-        <v>4.5546267000000001E-2</v>
+        <v>3.9031063999999997E-2</v>
       </c>
       <c r="F168">
         <v>9.4369333E-2</v>
@@ -6813,7 +6811,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B169">
         <v>4.6947900000000002E-4</v>
@@ -6825,7 +6823,7 @@
         <v>0.39994793499999998</v>
       </c>
       <c r="E169">
-        <v>3.7810668999999998E-2</v>
+        <v>2.8204534E-2</v>
       </c>
       <c r="F169">
         <v>9.1765380999999993E-2</v>
@@ -6839,7 +6837,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B170">
         <v>3.4246299999999999E-4</v>
@@ -6851,7 +6849,7 @@
         <v>0.39314682299999998</v>
       </c>
       <c r="E170">
-        <v>3.3905121000000003E-2</v>
+        <v>3.3906947E-2</v>
       </c>
       <c r="F170">
         <v>9.3838846000000004E-2</v>
@@ -6865,7 +6863,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B171">
         <v>5.7827599999999996E-4</v>
@@ -6877,7 +6875,7 @@
         <v>0.49995556099999999</v>
       </c>
       <c r="E171">
-        <v>4.8558603999999998E-2</v>
+        <v>3.7198548999999997E-2</v>
       </c>
       <c r="F171">
         <v>9.5985962999999994E-2</v>
@@ -6891,7 +6889,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B172">
         <v>5.4361800000000005E-4</v>
@@ -6903,7 +6901,7 @@
         <v>0.50145735700000005</v>
       </c>
       <c r="E172">
-        <v>4.8427867999999999E-2</v>
+        <v>3.2468634000000003E-2</v>
       </c>
       <c r="F172">
         <v>0.101831532</v>
@@ -6917,7 +6915,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B173">
         <v>3.1115599999999999E-4</v>
@@ -6929,7 +6927,7 @@
         <v>0.63610518599999999</v>
       </c>
       <c r="E173">
-        <v>4.8044137000000001E-2</v>
+        <v>3.2970342E-2</v>
       </c>
       <c r="F173">
         <v>0.10235364600000001</v>
@@ -6943,7 +6941,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B174">
         <v>4.84589E-4</v>
@@ -6955,7 +6953,7 @@
         <v>0.29996972900000002</v>
       </c>
       <c r="E174">
-        <v>2.7657220999999999E-2</v>
+        <v>2.5996668000000001E-2</v>
       </c>
       <c r="F174">
         <v>0.10192069600000001</v>
@@ -6969,7 +6967,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B175">
         <v>4.84723E-4</v>
@@ -6981,7 +6979,7 @@
         <v>0.30086995999999999</v>
       </c>
       <c r="E175">
-        <v>2.9996608000000001E-2</v>
+        <v>2.8763354000000001E-2</v>
       </c>
       <c r="F175">
         <v>0.100728892</v>
@@ -6995,7 +6993,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B176">
         <v>4.2448600000000001E-4</v>
@@ -7007,7 +7005,7 @@
         <v>0.30027710699999999</v>
       </c>
       <c r="E176">
-        <v>3.3680896000000002E-2</v>
+        <v>3.3740159999999998E-2</v>
       </c>
       <c r="F176">
         <v>0.101963254</v>
@@ -7021,7 +7019,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B177">
         <v>3.21245E-4</v>
@@ -7033,7 +7031,7 @@
         <v>0.30165437000000001</v>
       </c>
       <c r="E177">
-        <v>2.8404616000000001E-2</v>
+        <v>2.7233378999999999E-2</v>
       </c>
       <c r="F177">
         <v>0.106520084</v>
@@ -7047,7 +7045,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B178">
         <v>2.53766E-4</v>
@@ -7059,7 +7057,7 @@
         <v>0.30044469600000001</v>
       </c>
       <c r="E178">
-        <v>2.9515776000000001E-2</v>
+        <v>2.0616160000000001E-2</v>
       </c>
       <c r="F178">
         <v>0.110764391</v>
@@ -7073,7 +7071,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B179">
         <v>2.18042E-4</v>
@@ -7085,7 +7083,7 @@
         <v>0.29925571200000001</v>
       </c>
       <c r="E179">
-        <v>4.0818380000000001E-2</v>
+        <v>1.8358867000000001E-2</v>
       </c>
       <c r="F179">
         <v>0.112600636</v>
@@ -7099,7 +7097,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B180">
         <v>2.04692E-4</v>
@@ -7111,7 +7109,7 @@
         <v>0.30026093500000001</v>
       </c>
       <c r="E180">
-        <v>2.8816622E-2</v>
+        <v>2.1651783000000001E-2</v>
       </c>
       <c r="F180">
         <v>0.108112661</v>
@@ -7125,7 +7123,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B181">
         <v>5.2550700000000004E-4</v>
@@ -7137,7 +7135,7 @@
         <v>0.40456734900000002</v>
       </c>
       <c r="E181">
-        <v>3.485328E-2</v>
+        <v>3.3982204000000002E-2</v>
       </c>
       <c r="F181">
         <v>0.100120453</v>
@@ -7151,7 +7149,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B182">
         <v>5.3621300000000001E-4</v>
@@ -7163,7 +7161,7 @@
         <v>0.40080857199999997</v>
       </c>
       <c r="E182">
-        <v>3.6146741000000003E-2</v>
+        <v>3.5946688999999997E-2</v>
       </c>
       <c r="F182">
         <v>9.9449108999999994E-2</v>
@@ -7177,7 +7175,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B183">
         <v>4.7342700000000001E-4</v>
@@ -7189,7 +7187,7 @@
         <v>0.39943406199999998</v>
       </c>
       <c r="E183">
-        <v>3.4894360999999999E-2</v>
+        <v>3.4410559E-2</v>
       </c>
       <c r="F183">
         <v>0.103465405</v>
@@ -7203,7 +7201,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B184">
         <v>3.60226E-4</v>
@@ -7215,7 +7213,7 @@
         <v>0.39901998599999999</v>
       </c>
       <c r="E184">
-        <v>3.1833512000000001E-2</v>
+        <v>2.698455E-2</v>
       </c>
       <c r="F184">
         <v>0.110368597</v>
@@ -7229,7 +7227,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B185">
         <v>2.6574900000000002E-4</v>
@@ -7241,7 +7239,7 @@
         <v>0.40128135700000001</v>
       </c>
       <c r="E185">
-        <v>4.7793125999999998E-2</v>
+        <v>2.6107383000000001E-2</v>
       </c>
       <c r="F185">
         <v>0.10981632400000001</v>
@@ -7255,7 +7253,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B186">
         <v>2.40091E-4</v>
@@ -7267,7 +7265,7 @@
         <v>0.398708968</v>
       </c>
       <c r="E186">
-        <v>7.3278926999999994E-2</v>
+        <v>2.5653498E-2</v>
       </c>
       <c r="F186">
         <v>0.109913707</v>
@@ -7281,7 +7279,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B187">
         <v>2.2167000000000001E-4</v>
@@ -7293,7 +7291,7 @@
         <v>0.40003253100000002</v>
       </c>
       <c r="E187">
-        <v>7.0955006000000001E-2</v>
+        <v>1.8274945000000001E-2</v>
       </c>
       <c r="F187">
         <v>0.11041532699999999</v>
@@ -7307,7 +7305,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B188">
         <v>6.5489400000000005E-4</v>
@@ -7319,7 +7317,7 @@
         <v>0.50102734100000001</v>
       </c>
       <c r="E188">
-        <v>4.0853266999999999E-2</v>
+        <v>3.9141698000000003E-2</v>
       </c>
       <c r="F188">
         <v>9.9028083000000003E-2</v>
@@ -7333,7 +7331,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B189">
         <v>6.7796600000000001E-4</v>
@@ -7345,7 +7343,7 @@
         <v>0.49949943499999999</v>
       </c>
       <c r="E189">
-        <v>4.2382797999999999E-2</v>
+        <v>4.1188469999999998E-2</v>
       </c>
       <c r="F189">
         <v>9.7580385000000006E-2</v>
@@ -7359,7 +7357,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B190">
         <v>5.4967899999999997E-4</v>
@@ -7371,7 +7369,7 @@
         <v>0.50015754999999995</v>
       </c>
       <c r="E190">
-        <v>4.0361706999999997E-2</v>
+        <v>4.1100949999999997E-2</v>
       </c>
       <c r="F190">
         <v>0.101830843</v>
@@ -7385,7 +7383,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B191">
         <v>3.9895000000000002E-4</v>
@@ -7397,7 +7395,7 @@
         <v>0.49934918099999998</v>
       </c>
       <c r="E191">
-        <v>4.7611008000000003E-2</v>
+        <v>2.8115138000000001E-2</v>
       </c>
       <c r="F191">
         <v>0.111231076</v>
@@ -7411,7 +7409,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B192">
         <v>3.54428E-4</v>
@@ -7423,7 +7421,7 @@
         <v>0.50286452199999998</v>
       </c>
       <c r="E192">
-        <v>7.4892011999999994E-2</v>
+        <v>2.5991879999999998E-2</v>
       </c>
       <c r="F192">
         <v>0.108552304</v>
@@ -7437,7 +7435,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B193">
         <v>3.3188100000000002E-4</v>
@@ -7449,7 +7447,7 @@
         <v>0.49958002400000001</v>
       </c>
       <c r="E193">
-        <v>6.5147737999999997E-2</v>
+        <v>2.5567070000000001E-2</v>
       </c>
       <c r="F193">
         <v>0.111880279</v>
@@ -7463,7 +7461,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B194">
         <v>3.1751099999999998E-4</v>
@@ -7475,7 +7473,7 @@
         <v>0.50318848900000002</v>
       </c>
       <c r="E194">
-        <v>6.8701842999999999E-2</v>
+        <v>2.5804876000000001E-2</v>
       </c>
       <c r="F194">
         <v>0.110167457</v>
@@ -7489,7 +7487,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B195">
         <v>5.18681E-4</v>
@@ -7501,7 +7499,7 @@
         <v>0.29919042400000001</v>
       </c>
       <c r="E195">
-        <v>3.9886977999999997E-2</v>
+        <v>4.0519695000000001E-2</v>
       </c>
       <c r="F195">
         <v>0.102206272</v>
@@ -7515,7 +7513,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B196">
         <v>4.9001800000000005E-4</v>
@@ -7527,7 +7525,7 @@
         <v>0.30003544999999998</v>
       </c>
       <c r="E196">
-        <v>3.5557048000000001E-2</v>
+        <v>3.5539057999999998E-2</v>
       </c>
       <c r="F196">
         <v>0.108222652</v>
@@ -7541,7 +7539,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B197">
         <v>5.0937400000000005E-4</v>
@@ -7553,7 +7551,7 @@
         <v>0.29971783400000002</v>
       </c>
       <c r="E197">
-        <v>3.4331379000000002E-2</v>
+        <v>3.1520261000000001E-2</v>
       </c>
       <c r="F197">
         <v>0.109312838</v>
@@ -7567,7 +7565,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B198">
         <v>3.65507E-4</v>
@@ -7579,7 +7577,7 @@
         <v>0.30000356700000003</v>
       </c>
       <c r="E198">
-        <v>5.1118615999999999E-2</v>
+        <v>2.52023E-2</v>
       </c>
       <c r="F198">
         <v>0.114449734</v>
@@ -7593,7 +7591,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B199">
         <v>3.0124600000000002E-4</v>
@@ -7605,7 +7603,7 @@
         <v>0.29861169900000001</v>
       </c>
       <c r="E199">
-        <v>6.6413747999999995E-2</v>
+        <v>2.5660776E-2</v>
       </c>
       <c r="F199">
         <v>0.115184302</v>
@@ -7619,7 +7617,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B200">
         <v>2.8024199999999999E-4</v>
@@ -7631,7 +7629,7 @@
         <v>0.29985795599999998</v>
       </c>
       <c r="E200">
-        <v>6.6196255999999995E-2</v>
+        <v>2.3959202999999998E-2</v>
       </c>
       <c r="F200">
         <v>0.114170378</v>
@@ -7645,7 +7643,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B201">
         <v>2.7145000000000001E-4</v>
@@ -7657,7 +7655,7 @@
         <v>0.29980958600000002</v>
       </c>
       <c r="E201">
-        <v>6.1389894E-2</v>
+        <v>2.4672979000000001E-2</v>
       </c>
       <c r="F201">
         <v>0.114551606</v>
@@ -7671,7 +7669,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B202">
         <v>4.9716300000000001E-4</v>
@@ -7683,7 +7681,7 @@
         <v>0.39820402900000001</v>
       </c>
       <c r="E202">
-        <v>3.9495048999999997E-2</v>
+        <v>4.0553687999999997E-2</v>
       </c>
       <c r="F202">
         <v>0.107373751</v>
@@ -7697,7 +7695,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B203">
         <v>4.92466E-4</v>
@@ -7709,7 +7707,7 @@
         <v>0.39896216099999998</v>
       </c>
       <c r="E203">
-        <v>3.8421223999999997E-2</v>
+        <v>3.7943923999999997E-2</v>
       </c>
       <c r="F203">
         <v>0.106738518</v>
@@ -7723,7 +7721,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B204">
         <v>5.3962499999999996E-4</v>
@@ -7735,7 +7733,7 @@
         <v>0.39933082600000003</v>
       </c>
       <c r="E204">
-        <v>4.0525404000000001E-2</v>
+        <v>3.9118199999999999E-2</v>
       </c>
       <c r="F204">
         <v>0.108351713</v>
@@ -7749,7 +7747,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B205">
         <v>4.2028999999999998E-4</v>
@@ -7761,7 +7759,7 @@
         <v>0.40105601099999999</v>
       </c>
       <c r="E205">
-        <v>6.8845437999999995E-2</v>
+        <v>2.8223287999999999E-2</v>
       </c>
       <c r="F205">
         <v>0.116344845</v>
@@ -7775,7 +7773,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B206">
         <v>3.3060400000000002E-4</v>
@@ -7787,7 +7785,7 @@
         <v>0.39966170000000001</v>
       </c>
       <c r="E206">
-        <v>4.3627777999999999E-2</v>
+        <v>2.8835245999999998E-2</v>
       </c>
       <c r="F206">
         <v>0.11832458899999999</v>
@@ -7801,7 +7799,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B207">
         <v>3.0584500000000001E-4</v>
@@ -7813,7 +7811,7 @@
         <v>0.401437606</v>
       </c>
       <c r="E207">
-        <v>3.6550775000000001E-2</v>
+        <v>2.7479773999999998E-2</v>
       </c>
       <c r="F207">
         <v>0.119888392</v>
@@ -7827,7 +7825,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B208">
         <v>2.9125199999999998E-4</v>
@@ -7839,7 +7837,7 @@
         <v>0.40070955899999999</v>
       </c>
       <c r="E208">
-        <v>5.3149543E-2</v>
+        <v>3.0562319000000001E-2</v>
       </c>
       <c r="F208">
         <v>0.114329707</v>
@@ -7853,7 +7851,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B209">
         <v>5.6804700000000002E-4</v>
@@ -7865,7 +7863,7 @@
         <v>0.50076906200000004</v>
       </c>
       <c r="E209">
-        <v>4.2668380999999998E-2</v>
+        <v>4.1167963000000002E-2</v>
       </c>
       <c r="F209">
         <v>0.103836703</v>
@@ -7879,7 +7877,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B210">
         <v>5.8126300000000005E-4</v>
@@ -7891,7 +7889,7 @@
         <v>0.49977500800000002</v>
       </c>
       <c r="E210">
-        <v>4.4473360000000003E-2</v>
+        <v>4.1036514000000003E-2</v>
       </c>
       <c r="F210">
         <v>0.10628235699999999</v>
@@ -7905,7 +7903,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B211">
         <v>6.2164100000000003E-4</v>
@@ -7917,7 +7915,7 @@
         <v>0.499679392</v>
       </c>
       <c r="E211">
-        <v>4.0051691E-2</v>
+        <v>4.1156499999999999E-2</v>
       </c>
       <c r="F211">
         <v>0.110220675</v>
@@ -7931,7 +7929,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B212">
         <v>4.8212199999999998E-4</v>
@@ -7943,7 +7941,7 @@
         <v>0.499367542</v>
       </c>
       <c r="E212">
-        <v>6.9093981999999998E-2</v>
+        <v>3.0501744000000001E-2</v>
       </c>
       <c r="F212">
         <v>0.116096568</v>
@@ -7957,7 +7955,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B213">
         <v>3.6832299999999999E-4</v>
@@ -7969,7 +7967,7 @@
         <v>0.50092015999999995</v>
       </c>
       <c r="E213">
-        <v>3.8758915999999997E-2</v>
+        <v>2.9811035E-2</v>
       </c>
       <c r="F213">
         <v>0.122499317</v>
@@ -7983,7 +7981,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B214">
         <v>3.2732300000000002E-4</v>
@@ -7995,7 +7993,7 @@
         <v>0.49992052799999998</v>
       </c>
       <c r="E214">
-        <v>4.0073879999999999E-2</v>
+        <v>2.0171081E-2</v>
       </c>
       <c r="F214">
         <v>0.12782097000000001</v>
@@ -8009,7 +8007,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B215">
         <v>3.2196200000000002E-4</v>
@@ -8021,7 +8019,7 @@
         <v>0.49934297</v>
       </c>
       <c r="E215">
-        <v>6.0286174999999997E-2</v>
+        <v>2.8582026E-2</v>
       </c>
       <c r="F215">
         <v>0.11676415800000001</v>
@@ -8035,7 +8033,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B216">
         <v>4.8343099999999999E-4</v>
@@ -8047,7 +8045,7 @@
         <v>0.30003924100000001</v>
       </c>
       <c r="E216">
-        <v>3.2509215000000001E-2</v>
+        <v>2.9279166999999998E-2</v>
       </c>
       <c r="F216">
         <v>0.114784118</v>
@@ -8061,7 +8059,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B217">
         <v>4.7872600000000001E-4</v>
@@ -8073,7 +8071,7 @@
         <v>0.29903062699999999</v>
       </c>
       <c r="E217">
-        <v>3.2588632999999999E-2</v>
+        <v>2.5857577999999999E-2</v>
       </c>
       <c r="F217">
         <v>0.10958135099999999</v>
@@ -8087,7 +8085,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B218">
         <v>4.4455299999999998E-4</v>
@@ -8099,7 +8097,7 @@
         <v>0.29980042600000001</v>
       </c>
       <c r="E218">
-        <v>3.1885854999999998E-2</v>
+        <v>2.689706E-2</v>
       </c>
       <c r="F218">
         <v>0.10856081200000001</v>
@@ -8113,7 +8111,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B219">
         <v>3.8442400000000002E-4</v>
@@ -8125,7 +8123,7 @@
         <v>0.300352656</v>
       </c>
       <c r="E219">
-        <v>3.7383800000000002E-2</v>
+        <v>2.7090680999999998E-2</v>
       </c>
       <c r="F219">
         <v>0.108928434</v>
@@ -8139,7 +8137,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B220">
         <v>3.2228600000000002E-4</v>
@@ -8151,7 +8149,7 @@
         <v>0.29982069500000003</v>
       </c>
       <c r="E220">
-        <v>4.3492595000000002E-2</v>
+        <v>2.6526444999999999E-2</v>
       </c>
       <c r="F220">
         <v>0.110902872</v>
@@ -8165,7 +8163,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B221">
         <v>2.9366100000000002E-4</v>
@@ -8177,7 +8175,7 @@
         <v>0.30012657700000001</v>
       </c>
       <c r="E221">
-        <v>6.1729950999999998E-2</v>
+        <v>3.2150801999999999E-2</v>
       </c>
       <c r="F221">
         <v>0.115226499</v>
@@ -8191,7 +8189,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B222">
         <v>2.7240599999999999E-4</v>
@@ -8203,7 +8201,7 @@
         <v>0.29883443599999998</v>
       </c>
       <c r="E222">
-        <v>6.6170259999999995E-2</v>
+        <v>3.1520719000000003E-2</v>
       </c>
       <c r="F222">
         <v>0.11349644</v>
@@ -8217,7 +8215,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B223">
         <v>5.1822599999999999E-4</v>
@@ -8229,7 +8227,7 @@
         <v>0.40103576400000002</v>
       </c>
       <c r="E223">
-        <v>3.7581605999999997E-2</v>
+        <v>2.8851980999999999E-2</v>
       </c>
       <c r="F223">
         <v>0.109166028</v>
@@ -8243,7 +8241,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B224">
         <v>5.0449399999999997E-4</v>
@@ -8255,7 +8253,7 @@
         <v>0.40004508500000002</v>
       </c>
       <c r="E224">
-        <v>3.8170769E-2</v>
+        <v>3.0098415E-2</v>
       </c>
       <c r="F224">
         <v>0.109666481</v>
@@ -8269,7 +8267,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B225">
         <v>5.07009E-4</v>
@@ -8281,7 +8279,7 @@
         <v>0.39886264100000002</v>
       </c>
       <c r="E225">
-        <v>4.0584954999999999E-2</v>
+        <v>3.4996043999999997E-2</v>
       </c>
       <c r="F225">
         <v>0.109285695</v>
@@ -8295,7 +8293,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B226">
         <v>4.29863E-4</v>
@@ -8307,7 +8305,7 @@
         <v>0.39965901199999998</v>
       </c>
       <c r="E226">
-        <v>7.1105811000000005E-2</v>
+        <v>3.5208625E-2</v>
       </c>
       <c r="F226">
         <v>0.110949139</v>
@@ -8321,7 +8319,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B227">
         <v>3.4672300000000001E-4</v>
@@ -8333,7 +8331,7 @@
         <v>0.39999618199999998</v>
       </c>
       <c r="E227">
-        <v>6.9506928999999995E-2</v>
+        <v>4.0058535999999999E-2</v>
       </c>
       <c r="F227">
         <v>0.110695898</v>
@@ -8347,7 +8345,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B228">
         <v>3.13467E-4</v>
@@ -8359,7 +8357,7 @@
         <v>0.40056073800000003</v>
       </c>
       <c r="E228">
-        <v>7.1139833E-2</v>
+        <v>3.0372111E-2</v>
       </c>
       <c r="F228">
         <v>0.11312243299999999</v>
@@ -8373,7 +8371,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B229">
         <v>3.0008900000000002E-4</v>
@@ -8385,7 +8383,7 @@
         <v>0.39697400300000002</v>
       </c>
       <c r="E229">
-        <v>6.8165431999999998E-2</v>
+        <v>3.0062344000000001E-2</v>
       </c>
       <c r="F229">
         <v>0.11259936800000001</v>
@@ -8399,7 +8397,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B230">
         <v>5.6569300000000003E-4</v>
@@ -8411,7 +8409,7 @@
         <v>0.50014953600000001</v>
       </c>
       <c r="E230">
-        <v>6.9078813000000003E-2</v>
+        <v>3.2101386000000003E-2</v>
       </c>
       <c r="F230">
         <v>0.11520121999999999</v>
@@ -8425,7 +8423,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B231">
         <v>5.6636299999999996E-4</v>
@@ -8437,7 +8435,7 @@
         <v>0.50009379399999998</v>
       </c>
       <c r="E231">
-        <v>5.5513298000000003E-2</v>
+        <v>3.3790003999999998E-2</v>
       </c>
       <c r="F231">
         <v>0.114298685</v>
@@ -8451,7 +8449,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B232">
         <v>5.5780800000000002E-4</v>
@@ -8463,7 +8461,7 @@
         <v>0.49851990699999998</v>
       </c>
       <c r="E232">
-        <v>6.8876906000000002E-2</v>
+        <v>3.0070327000000001E-2</v>
       </c>
       <c r="F232">
         <v>0.116313977</v>
@@ -8477,7 +8475,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B233">
         <v>4.9915300000000001E-4</v>
@@ -8489,7 +8487,7 @@
         <v>0.49927363899999999</v>
       </c>
       <c r="E233">
-        <v>6.1411471000000002E-2</v>
+        <v>3.2267628E-2</v>
       </c>
       <c r="F233">
         <v>0.11773539500000001</v>
@@ -8503,7 +8501,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B234">
         <v>4.11395E-4</v>
@@ -8515,7 +8513,7 @@
         <v>0.49920661399999999</v>
       </c>
       <c r="E234">
-        <v>4.8344787E-2</v>
+        <v>2.7664886999999999E-2</v>
       </c>
       <c r="F234">
         <v>0.12562072899999999</v>
@@ -8529,7 +8527,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B235">
         <v>3.53161E-4</v>
@@ -8541,7 +8539,7 @@
         <v>0.49958985500000003</v>
       </c>
       <c r="E235">
-        <v>3.7024263000000002E-2</v>
+        <v>3.2011471E-2</v>
       </c>
       <c r="F235">
         <v>0.11188050300000001</v>
@@ -8555,7 +8553,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B236">
         <v>4.7270299999999999E-4</v>
@@ -8567,7 +8565,7 @@
         <v>0.30055517599999998</v>
       </c>
       <c r="E236">
-        <v>3.0824668E-2</v>
+        <v>2.9953827999999998E-2</v>
       </c>
       <c r="F236">
         <v>9.8189598000000003E-2</v>
@@ -8581,7 +8579,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B237">
         <v>4.6852800000000001E-4</v>
@@ -8593,7 +8591,7 @@
         <v>0.30032410799999998</v>
       </c>
       <c r="E237">
-        <v>3.3418607000000003E-2</v>
+        <v>3.2612093000000002E-2</v>
       </c>
       <c r="F237">
         <v>9.5314093000000003E-2</v>
@@ -8607,7 +8605,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B238">
         <v>4.1679199999999998E-4</v>
@@ -8619,7 +8617,7 @@
         <v>0.30124453200000001</v>
       </c>
       <c r="E238">
-        <v>3.7811510999999999E-2</v>
+        <v>3.8066342000000003E-2</v>
       </c>
       <c r="F238">
         <v>9.8369604999999999E-2</v>
@@ -8633,7 +8631,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B239">
         <v>3.2306400000000002E-4</v>
@@ -8645,7 +8643,7 @@
         <v>0.29904739499999999</v>
       </c>
       <c r="E239">
-        <v>3.5929846000000001E-2</v>
+        <v>3.5776985999999997E-2</v>
       </c>
       <c r="F239">
         <v>9.9846620999999997E-2</v>
@@ -8659,7 +8657,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B240">
         <v>2.6293600000000002E-4</v>
@@ -8671,7 +8669,7 @@
         <v>0.30047309999999999</v>
       </c>
       <c r="E240">
-        <v>3.3267286E-2</v>
+        <v>2.8083650000000002E-2</v>
       </c>
       <c r="F240">
         <v>0.10603617999999999</v>
@@ -8685,7 +8683,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B241">
         <v>2.2804999999999999E-4</v>
@@ -8697,7 +8695,7 @@
         <v>0.30166880499999998</v>
       </c>
       <c r="E241">
-        <v>3.1315015000000002E-2</v>
+        <v>2.919161E-2</v>
       </c>
       <c r="F241">
         <v>0.10724196799999999</v>
@@ -8711,7 +8709,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B242">
         <v>2.0938099999999999E-4</v>
@@ -8723,7 +8721,7 @@
         <v>0.29948566300000001</v>
       </c>
       <c r="E242">
-        <v>3.6314119999999998E-2</v>
+        <v>2.7488122E-2</v>
       </c>
       <c r="F242">
         <v>0.104573546</v>
@@ -8737,7 +8735,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B243">
         <v>5.0179900000000004E-4</v>
@@ -8749,7 +8747,7 @@
         <v>0.39968498499999999</v>
       </c>
       <c r="E243">
-        <v>2.9392582E-2</v>
+        <v>2.7075848E-2</v>
       </c>
       <c r="F243">
         <v>0.100459284</v>
@@ -8763,7 +8761,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B244">
         <v>5.1192700000000002E-4</v>
@@ -8775,7 +8773,7 @@
         <v>0.39811110900000002</v>
       </c>
       <c r="E244">
-        <v>3.2175303000000002E-2</v>
+        <v>2.7941183000000001E-2</v>
       </c>
       <c r="F244">
         <v>9.9352846999999994E-2</v>
@@ -8789,7 +8787,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B245">
         <v>4.3557999999999997E-4</v>
@@ -8801,7 +8799,7 @@
         <v>0.40116832899999999</v>
       </c>
       <c r="E245">
-        <v>3.9693225999999998E-2</v>
+        <v>3.6700075999999998E-2</v>
       </c>
       <c r="F245">
         <v>0.10021440700000001</v>
@@ -8815,7 +8813,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B246">
         <v>3.5768399999999999E-4</v>
@@ -8827,7 +8825,7 @@
         <v>0.39981008400000001</v>
       </c>
       <c r="E246">
-        <v>3.5477432000000003E-2</v>
+        <v>3.2424057999999999E-2</v>
       </c>
       <c r="F246">
         <v>0.105138485</v>
@@ -8841,7 +8839,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B247">
         <v>2.76524E-4</v>
@@ -8853,7 +8851,7 @@
         <v>0.39963096399999998</v>
       </c>
       <c r="E247">
-        <v>4.1707279E-2</v>
+        <v>2.8262046999999998E-2</v>
       </c>
       <c r="F247">
         <v>0.10851050399999999</v>
@@ -8867,7 +8865,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B248">
         <v>2.5828500000000002E-4</v>
@@ -8879,7 +8877,7 @@
         <v>0.39990617699999997</v>
       </c>
       <c r="E248">
-        <v>6.2740635000000003E-2</v>
+        <v>2.8981139E-2</v>
       </c>
       <c r="F248">
         <v>0.107568398</v>
@@ -8893,7 +8891,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B249">
         <v>2.3551900000000001E-4</v>
@@ -8905,7 +8903,7 @@
         <v>0.39852104300000002</v>
       </c>
       <c r="E249">
-        <v>5.7989448999999998E-2</v>
+        <v>2.6817901000000002E-2</v>
       </c>
       <c r="F249">
         <v>0.108287201</v>
@@ -8919,7 +8917,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B250">
         <v>6.48955E-4</v>
@@ -8931,7 +8929,7 @@
         <v>0.49962082099999999</v>
       </c>
       <c r="E250">
-        <v>3.4657304E-2</v>
+        <v>2.4963539999999999E-2</v>
       </c>
       <c r="F250">
         <v>9.9429778999999996E-2</v>
@@ -8945,7 +8943,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B251">
         <v>6.1183099999999996E-4</v>
@@ -8957,7 +8955,7 @@
         <v>0.50033280999999996</v>
       </c>
       <c r="E251">
-        <v>3.7521118999999999E-2</v>
+        <v>2.7673001999999999E-2</v>
       </c>
       <c r="F251">
         <v>9.8495864000000002E-2</v>
@@ -8971,7 +8969,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B252">
         <v>5.1377200000000001E-4</v>
@@ -8983,7 +8981,7 @@
         <v>0.50024451299999995</v>
       </c>
       <c r="E252">
-        <v>4.4029801E-2</v>
+        <v>3.9128736999999997E-2</v>
       </c>
       <c r="F252">
         <v>0.100396349</v>
@@ -8997,7 +8995,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B253">
         <v>4.3876499999999998E-4</v>
@@ -9009,7 +9007,7 @@
         <v>0.49925901499999997</v>
       </c>
       <c r="E253">
-        <v>3.9294586999999999E-2</v>
+        <v>3.4625995999999999E-2</v>
       </c>
       <c r="F253">
         <v>0.10699968</v>
@@ -9023,7 +9021,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B254">
         <v>3.4390000000000001E-4</v>
@@ -9035,7 +9033,7 @@
         <v>0.50068191399999995</v>
       </c>
       <c r="E254">
-        <v>6.5830854999999994E-2</v>
+        <v>3.0414301000000001E-2</v>
       </c>
       <c r="F254">
         <v>0.109581978</v>
@@ -9049,7 +9047,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B255">
         <v>3.10771E-4</v>
@@ -9061,7 +9059,7 @@
         <v>0.50035387600000003</v>
       </c>
       <c r="E255">
-        <v>7.3258196999999997E-2</v>
+        <v>2.9485480000000001E-2</v>
       </c>
       <c r="F255">
         <v>0.10888812</v>
@@ -9075,7 +9073,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B256">
         <v>3.0146300000000002E-4</v>
@@ -9087,7 +9085,7 @@
         <v>0.49992013899999999</v>
       </c>
       <c r="E256">
-        <v>5.1725806999999999E-2</v>
+        <v>2.8539121000000001E-2</v>
       </c>
       <c r="F256">
         <v>0.10817375999999999</v>
@@ -9101,7 +9099,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B257">
         <v>4.7849500000000001E-4</v>
@@ -9113,7 +9111,7 @@
         <v>0.30004532699999997</v>
       </c>
       <c r="E257">
-        <v>4.0780660000000003E-2</v>
+        <v>3.5949209000000003E-2</v>
       </c>
       <c r="F257">
         <v>0.103141573</v>
@@ -9127,7 +9125,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B258">
         <v>5.0275999999999999E-4</v>
@@ -9139,7 +9137,7 @@
         <v>0.29920427599999999</v>
       </c>
       <c r="E258">
-        <v>4.1816536000000001E-2</v>
+        <v>3.4553436E-2</v>
       </c>
       <c r="F258">
         <v>0.101860464</v>
@@ -9153,7 +9151,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B259">
         <v>5.1740599999999999E-4</v>
@@ -9165,7 +9163,7 @@
         <v>0.30149447299999999</v>
       </c>
       <c r="E259">
-        <v>4.1015214000000001E-2</v>
+        <v>3.4323686999999999E-2</v>
       </c>
       <c r="F259">
         <v>0.10246135300000001</v>
@@ -9179,7 +9177,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B260">
         <v>3.7951899999999998E-4</v>
@@ -9191,7 +9189,7 @@
         <v>0.29935602700000002</v>
       </c>
       <c r="E260">
-        <v>3.2089376000000003E-2</v>
+        <v>2.8244406999999999E-2</v>
       </c>
       <c r="F260">
         <v>0.107956841</v>
@@ -9205,7 +9203,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B261">
         <v>3.2461399999999998E-4</v>
@@ -9217,7 +9215,7 @@
         <v>0.298850589</v>
       </c>
       <c r="E261">
-        <v>7.0884645999999996E-2</v>
+        <v>2.7735271999999998E-2</v>
       </c>
       <c r="F261">
         <v>0.109011937</v>
@@ -9231,7 +9229,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B262">
         <v>2.92262E-4</v>
@@ -9243,7 +9241,7 @@
         <v>0.30029543199999997</v>
       </c>
       <c r="E262">
-        <v>7.4512727000000001E-2</v>
+        <v>2.7834968000000002E-2</v>
       </c>
       <c r="F262">
         <v>0.108335639</v>
@@ -9257,7 +9255,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B263">
         <v>2.7891199999999998E-4</v>
@@ -9269,7 +9267,7 @@
         <v>0.29951224900000001</v>
       </c>
       <c r="E263">
-        <v>6.4799326000000004E-2</v>
+        <v>2.8513480000000001E-2</v>
       </c>
       <c r="F263">
         <v>0.107322791</v>
@@ -9283,7 +9281,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B264">
         <v>4.4690600000000001E-4</v>
@@ -9295,7 +9293,7 @@
         <v>0.40118413600000002</v>
       </c>
       <c r="E264">
-        <v>4.5435773999999998E-2</v>
+        <v>3.8519957000000001E-2</v>
       </c>
       <c r="F264">
         <v>0.10055367599999999</v>
@@ -9309,7 +9307,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B265">
         <v>4.50968E-4</v>
@@ -9321,7 +9319,7 @@
         <v>0.40014166899999998</v>
       </c>
       <c r="E265">
-        <v>4.2461959000000001E-2</v>
+        <v>3.6762580000000003E-2</v>
       </c>
       <c r="F265">
         <v>9.9674258000000002E-2</v>
@@ -9335,7 +9333,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B266">
         <v>4.99166E-4</v>
@@ -9347,7 +9345,7 @@
         <v>0.40072669900000002</v>
       </c>
       <c r="E266">
-        <v>4.6791843999999999E-2</v>
+        <v>4.1438547999999999E-2</v>
       </c>
       <c r="F266">
         <v>0.100050923</v>
@@ -9361,7 +9359,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B267">
         <v>4.3689199999999998E-4</v>
@@ -9373,7 +9371,7 @@
         <v>0.39974975899999998</v>
       </c>
       <c r="E267">
-        <v>3.7030752E-2</v>
+        <v>3.1148538E-2</v>
       </c>
       <c r="F267">
         <v>0.108159581</v>
@@ -9387,7 +9385,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B268">
         <v>3.6157600000000001E-4</v>
@@ -9399,7 +9397,7 @@
         <v>0.400765488</v>
       </c>
       <c r="E268">
-        <v>6.5080570000000004E-2</v>
+        <v>2.9858714000000001E-2</v>
       </c>
       <c r="F268">
         <v>0.109293213</v>
@@ -9413,7 +9411,7 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B269">
         <v>3.40119E-4</v>
@@ -9425,7 +9423,7 @@
         <v>0.40009669599999997</v>
       </c>
       <c r="E269">
-        <v>7.3524844000000006E-2</v>
+        <v>2.9213735000000001E-2</v>
       </c>
       <c r="F269">
         <v>0.10913827299999999</v>
@@ -9439,7 +9437,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B270">
         <v>3.23025E-4</v>
@@ -9451,7 +9449,7 @@
         <v>0.40044863800000002</v>
       </c>
       <c r="E270">
-        <v>7.6759078999999994E-2</v>
+        <v>2.8591861E-2</v>
       </c>
       <c r="F270">
         <v>0.10835315500000001</v>
@@ -9465,7 +9463,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B271">
         <v>5.6255699999999999E-4</v>
@@ -9477,7 +9475,7 @@
         <v>0.49986556300000001</v>
       </c>
       <c r="E271">
-        <v>4.3558463999999998E-2</v>
+        <v>3.3598491000000001E-2</v>
       </c>
       <c r="F271">
         <v>0.10062673599999999</v>
@@ -9491,7 +9489,7 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B272">
         <v>5.7886999999999999E-4</v>
@@ -9503,7 +9501,7 @@
         <v>0.49958438500000002</v>
       </c>
       <c r="E272">
-        <v>4.4103181999999998E-2</v>
+        <v>3.3946135000000002E-2</v>
       </c>
       <c r="F272">
         <v>9.9812217999999994E-2</v>
@@ -9517,7 +9515,7 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B273">
         <v>6.3783199999999996E-4</v>
@@ -9529,7 +9527,7 @@
         <v>0.49801411899999998</v>
       </c>
       <c r="E273">
-        <v>4.2463493999999997E-2</v>
+        <v>3.3256761000000003E-2</v>
       </c>
       <c r="F273">
         <v>0.100906723</v>
@@ -9543,7 +9541,7 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B274">
         <v>5.2629499999999997E-4</v>
@@ -9555,7 +9553,7 @@
         <v>0.50003780099999995</v>
       </c>
       <c r="E274">
-        <v>4.5139868E-2</v>
+        <v>3.8036022000000003E-2</v>
       </c>
       <c r="F274">
         <v>0.101938865</v>
@@ -9569,7 +9567,7 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B275">
         <v>4.5853300000000001E-4</v>
@@ -9581,7 +9579,7 @@
         <v>0.499705173</v>
       </c>
       <c r="E275">
-        <v>4.4022573000000002E-2</v>
+        <v>3.3203124000000001E-2</v>
       </c>
       <c r="F275">
         <v>0.106222393</v>
@@ -9595,7 +9593,7 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B276">
         <v>4.09391E-4</v>
@@ -9607,7 +9605,7 @@
         <v>0.49964764900000003</v>
       </c>
       <c r="E276">
-        <v>6.8103606999999997E-2</v>
+        <v>2.8537580999999999E-2</v>
       </c>
       <c r="F276">
         <v>0.10792351</v>
@@ -9621,7 +9619,7 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B277">
         <v>4.1426199999999999E-4</v>
@@ -9633,7 +9631,7 @@
         <v>0.50079021499999998</v>
       </c>
       <c r="E277">
-        <v>5.6538620999999997E-2</v>
+        <v>3.0278824999999999E-2</v>
       </c>
       <c r="F277">
         <v>0.108647546</v>
@@ -9647,7 +9645,7 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B278">
         <v>4.8616099999999998E-4</v>
@@ -9659,7 +9657,7 @@
         <v>0.29988949399999998</v>
       </c>
       <c r="E278">
-        <v>4.0868091000000002E-2</v>
+        <v>3.4821600000000001E-2</v>
       </c>
       <c r="F278">
         <v>0.102740609</v>
@@ -9673,7 +9671,7 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B279">
         <v>4.9223300000000002E-4</v>
@@ -9685,7 +9683,7 @@
         <v>0.29991707200000001</v>
       </c>
       <c r="E279">
-        <v>3.9588467000000002E-2</v>
+        <v>3.5770488000000003E-2</v>
       </c>
       <c r="F279">
         <v>9.9979082999999996E-2</v>
@@ -9699,7 +9697,7 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B280">
         <v>4.8966000000000005E-4</v>
@@ -9711,7 +9709,7 @@
         <v>0.299807559</v>
       </c>
       <c r="E280">
-        <v>4.2113662000000003E-2</v>
+        <v>3.5374483999999998E-2</v>
       </c>
       <c r="F280">
         <v>9.8520637999999994E-2</v>
@@ -9725,7 +9723,7 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B281">
         <v>4.1326699999999999E-4</v>
@@ -9737,7 +9735,7 @@
         <v>0.30008244499999998</v>
       </c>
       <c r="E281">
-        <v>3.8818410999999997E-2</v>
+        <v>3.1020714000000001E-2</v>
       </c>
       <c r="F281">
         <v>0.104997322</v>
@@ -9751,7 +9749,7 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B282">
         <v>3.5472599999999998E-4</v>
@@ -9763,7 +9761,7 @@
         <v>0.299649999</v>
       </c>
       <c r="E282">
-        <v>3.805335E-2</v>
+        <v>3.0169298000000001E-2</v>
       </c>
       <c r="F282">
         <v>0.106645016</v>
@@ -9777,7 +9775,7 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B283">
         <v>3.0862499999999998E-4</v>
@@ -9789,7 +9787,7 @@
         <v>0.300016848</v>
       </c>
       <c r="E283">
-        <v>4.267257E-2</v>
+        <v>2.9701722E-2</v>
       </c>
       <c r="F283">
         <v>0.107568497</v>
@@ -9803,7 +9801,7 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B284">
         <v>2.9086800000000001E-4</v>
@@ -9815,7 +9813,7 @@
         <v>0.30050387099999998</v>
       </c>
       <c r="E284">
-        <v>4.7419393999999997E-2</v>
+        <v>3.1289824000000001E-2</v>
       </c>
       <c r="F284">
         <v>0.10544677199999999</v>
@@ -9829,7 +9827,7 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B285">
         <v>5.3141199999999999E-4</v>
@@ -9841,7 +9839,7 @@
         <v>0.40096458800000001</v>
       </c>
       <c r="E285">
-        <v>3.9940086E-2</v>
+        <v>3.6926992999999998E-2</v>
       </c>
       <c r="F285">
         <v>0.100374031</v>
@@ -9855,7 +9853,7 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B286">
         <v>4.9130500000000004E-4</v>
@@ -9867,7 +9865,7 @@
         <v>0.39783279599999999</v>
       </c>
       <c r="E286">
-        <v>3.9921999999999999E-2</v>
+        <v>3.4722467E-2</v>
       </c>
       <c r="F286">
         <v>0.100867067</v>
@@ -9881,7 +9879,7 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B287">
         <v>4.9682100000000005E-4</v>
@@ -9893,7 +9891,7 @@
         <v>0.39957826800000001</v>
       </c>
       <c r="E287">
-        <v>3.5337199999999999E-2</v>
+        <v>3.3049200000000001E-2</v>
       </c>
       <c r="F287">
         <v>0.10193480000000001</v>
@@ -9907,7 +9905,7 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B288">
         <v>4.6433100000000001E-4</v>
@@ -9919,7 +9917,7 @@
         <v>0.39989443400000002</v>
       </c>
       <c r="E288">
-        <v>4.1705930000000002E-2</v>
+        <v>3.1602706000000001E-2</v>
       </c>
       <c r="F288">
         <v>0.10475915299999999</v>
@@ -9933,7 +9931,7 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B289">
         <v>4.0902799999999997E-4</v>
@@ -9945,7 +9943,7 @@
         <v>0.40126719</v>
       </c>
       <c r="E289">
-        <v>6.0387098E-2</v>
+        <v>3.1978808999999997E-2</v>
       </c>
       <c r="F289">
         <v>0.10727930199999999</v>
@@ -9959,7 +9957,7 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B290">
         <v>3.7444099999999999E-4</v>
@@ -9971,7 +9969,7 @@
         <v>0.40043706899999998</v>
       </c>
       <c r="E290">
-        <v>7.2278722000000004E-2</v>
+        <v>3.0790000000000001E-2</v>
       </c>
       <c r="F290">
         <v>0.10862016200000001</v>
@@ -9985,7 +9983,7 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B291">
         <v>3.3825899999999999E-4</v>
@@ -9997,7 +9995,7 @@
         <v>0.39960972299999997</v>
       </c>
       <c r="E291">
-        <v>5.0731548000000001E-2</v>
+        <v>3.2077708000000003E-2</v>
       </c>
       <c r="F291">
         <v>0.109580419</v>
@@ -10011,7 +10009,7 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B292">
         <v>5.5933100000000004E-4</v>
@@ -10023,7 +10021,7 @@
         <v>0.499773087</v>
       </c>
       <c r="E292">
-        <v>4.3240530999999999E-2</v>
+        <v>3.1987520999999998E-2</v>
       </c>
       <c r="F292">
         <v>9.6250286000000004E-2</v>
@@ -10037,7 +10035,7 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B293">
         <v>5.6149699999999999E-4</v>
@@ -10049,7 +10047,7 @@
         <v>0.49969234000000001</v>
       </c>
       <c r="E293">
-        <v>4.6532391999999999E-2</v>
+        <v>3.4721224000000002E-2</v>
       </c>
       <c r="F293">
         <v>9.3758707999999996E-2</v>
@@ -10063,7 +10061,7 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B294">
         <v>5.6852900000000002E-4</v>
@@ -10075,7 +10073,7 @@
         <v>0.49999912200000002</v>
       </c>
       <c r="E294">
-        <v>4.8635330999999997E-2</v>
+        <v>3.8079976000000001E-2</v>
       </c>
       <c r="F294">
         <v>9.3466701999999999E-2</v>
@@ -10089,7 +10087,7 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B295">
         <v>5.5993099999999995E-4</v>
@@ -10101,7 +10099,7 @@
         <v>0.50000105500000003</v>
       </c>
       <c r="E295">
-        <v>4.9490144999999999E-2</v>
+        <v>3.3559245000000001E-2</v>
       </c>
       <c r="F295">
         <v>9.5530058000000001E-2</v>
@@ -10115,7 +10113,7 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B296">
         <v>4.9463399999999998E-4</v>
@@ -10127,7 +10125,7 @@
         <v>0.50235871200000004</v>
       </c>
       <c r="E296">
-        <v>3.7902236999999998E-2</v>
+        <v>2.8625714E-2</v>
       </c>
       <c r="F296">
         <v>0.104715946</v>
@@ -10141,7 +10139,7 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B297">
         <v>4.6393200000000002E-4</v>
@@ -10153,7 +10151,7 @@
         <v>0.49960959599999999</v>
       </c>
       <c r="E297">
-        <v>4.5027570000000003E-2</v>
+        <v>2.7584549E-2</v>
       </c>
       <c r="F297">
         <v>0.105402013</v>
@@ -10167,7 +10165,7 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B298">
         <v>3.34135E-4</v>
@@ -10179,7 +10177,7 @@
         <v>0.58694023799999995</v>
       </c>
       <c r="E298">
-        <v>4.2935114000000003E-2</v>
+        <v>2.5076272E-2</v>
       </c>
       <c r="F298">
         <v>0.102427253</v>
@@ -10193,7 +10191,7 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B299">
         <v>4.2709099999999999E-4</v>
@@ -10205,7 +10203,7 @@
         <v>0.300595785</v>
       </c>
       <c r="E299">
-        <v>2.0250721999999999E-2</v>
+        <v>1.8875831999999999E-2</v>
       </c>
       <c r="F299">
         <v>0.102772961</v>
@@ -10219,7 +10217,7 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B300">
         <v>4.3149099999999999E-4</v>
@@ -10231,7 +10229,7 @@
         <v>0.30079881800000002</v>
       </c>
       <c r="E300">
-        <v>2.1508796E-2</v>
+        <v>2.0397160000000001E-2</v>
       </c>
       <c r="F300">
         <v>0.10339688700000001</v>
@@ -10245,7 +10243,7 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B301">
         <v>3.9097999999999997E-4</v>
@@ -10257,7 +10255,7 @@
         <v>0.30092750000000001</v>
       </c>
       <c r="E301">
-        <v>3.3229887E-2</v>
+        <v>3.2527309999999997E-2</v>
       </c>
       <c r="F301">
         <v>0.100884113</v>
@@ -10271,7 +10269,7 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B302">
         <v>3.3918300000000001E-4</v>
@@ -10283,7 +10281,7 @@
         <v>0.29819463800000001</v>
       </c>
       <c r="E302">
-        <v>2.8830732000000001E-2</v>
+        <v>2.6236393E-2</v>
       </c>
       <c r="F302">
         <v>0.103947435</v>
@@ -10297,7 +10295,7 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B303">
         <v>2.9627499999999998E-4</v>
@@ -10309,7 +10307,7 @@
         <v>0.29996649600000003</v>
       </c>
       <c r="E303">
-        <v>2.8150482000000001E-2</v>
+        <v>2.2631852000000001E-2</v>
       </c>
       <c r="F303">
         <v>0.10510950099999999</v>
@@ -10323,7 +10321,7 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B304">
         <v>2.7603600000000001E-4</v>
@@ -10335,7 +10333,7 @@
         <v>0.29922444599999998</v>
       </c>
       <c r="E304">
-        <v>2.8260444999999999E-2</v>
+        <v>2.1853049999999999E-2</v>
       </c>
       <c r="F304">
         <v>0.105832572</v>
@@ -10349,7 +10347,7 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B305">
         <v>2.64763E-4</v>
@@ -10361,7 +10359,7 @@
         <v>0.29931229500000001</v>
       </c>
       <c r="E305">
-        <v>3.1558317000000002E-2</v>
+        <v>2.2081080999999999E-2</v>
       </c>
       <c r="F305">
         <v>0.10425438300000001</v>
@@ -10375,7 +10373,7 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B306">
         <v>4.6320699999999999E-4</v>
@@ -10387,7 +10385,7 @@
         <v>0.39906417700000002</v>
       </c>
       <c r="E306">
-        <v>2.7279082999999999E-2</v>
+        <v>2.6606799E-2</v>
       </c>
       <c r="F306">
         <v>0.100653384</v>
@@ -10401,7 +10399,7 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B307">
         <v>4.5498799999999997E-4</v>
@@ -10413,7 +10411,7 @@
         <v>0.39925735299999998</v>
       </c>
       <c r="E307">
-        <v>3.0386533E-2</v>
+        <v>2.8405099999999999E-2</v>
       </c>
       <c r="F307">
         <v>9.8851866999999996E-2</v>
@@ -10427,7 +10425,7 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B308">
         <v>4.3629200000000002E-4</v>
@@ -10439,7 +10437,7 @@
         <v>0.398908343</v>
       </c>
       <c r="E308">
-        <v>3.6496613999999997E-2</v>
+        <v>3.6396097000000002E-2</v>
       </c>
       <c r="F308">
         <v>0.100735436</v>
@@ -10453,7 +10451,7 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B309">
         <v>3.9866700000000001E-4</v>
@@ -10465,7 +10463,7 @@
         <v>0.39891339799999997</v>
       </c>
       <c r="E309">
-        <v>3.0948234000000002E-2</v>
+        <v>2.8173764E-2</v>
       </c>
       <c r="F309">
         <v>0.10731945</v>
@@ -10479,7 +10477,7 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B310">
         <v>3.3655799999999999E-4</v>
@@ -10491,7 +10489,7 @@
         <v>0.40106589199999998</v>
       </c>
       <c r="E310">
-        <v>3.6833079999999997E-2</v>
+        <v>2.7300264000000001E-2</v>
       </c>
       <c r="F310">
         <v>0.104447937</v>
@@ -10505,7 +10503,7 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B311">
         <v>3.0972699999999998E-4</v>
@@ -10517,7 +10515,7 @@
         <v>0.39997719900000001</v>
       </c>
       <c r="E311">
-        <v>3.7491233999999998E-2</v>
+        <v>2.4306024999999998E-2</v>
       </c>
       <c r="F311">
         <v>0.100064399</v>
@@ -10531,7 +10529,7 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B312">
         <v>2.9860200000000003E-4</v>
@@ -10543,7 +10541,7 @@
         <v>0.399170462</v>
       </c>
       <c r="E312">
-        <v>3.4313367999999997E-2</v>
+        <v>2.4034926000000002E-2</v>
       </c>
       <c r="F312">
         <v>9.9761053000000002E-2</v>
@@ -10557,7 +10555,7 @@
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B313">
         <v>5.8556899999999998E-4</v>
@@ -10569,7 +10567,7 @@
         <v>0.50132858499999999</v>
       </c>
       <c r="E313">
-        <v>3.9261512999999998E-2</v>
+        <v>3.5760098999999997E-2</v>
       </c>
       <c r="F313">
         <v>9.2089454000000001E-2</v>
@@ -10583,7 +10581,7 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B314">
         <v>5.4085199999999998E-4</v>
@@ -10595,7 +10593,7 @@
         <v>0.50137097799999997</v>
       </c>
       <c r="E314">
-        <v>4.1191199999999997E-2</v>
+        <v>4.0050941999999999E-2</v>
       </c>
       <c r="F314">
         <v>9.2783633000000004E-2</v>
@@ -10609,7 +10607,7 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B315">
         <v>5.2526299999999999E-4</v>
@@ -10621,7 +10619,7 @@
         <v>0.49945460400000002</v>
       </c>
       <c r="E315">
-        <v>4.7282786E-2</v>
+        <v>4.6477519000000002E-2</v>
       </c>
       <c r="F315">
         <v>9.3627264000000002E-2</v>
@@ -10635,7 +10633,7 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B316">
         <v>4.62764E-4</v>
@@ -10647,7 +10645,7 @@
         <v>0.50061619400000001</v>
       </c>
       <c r="E316">
-        <v>5.2233031999999999E-2</v>
+        <v>4.3855742000000003E-2</v>
       </c>
       <c r="F316">
         <v>9.3554020000000002E-2</v>
@@ -10661,7 +10659,7 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B317">
         <v>3.65235E-4</v>
@@ -10673,7 +10671,7 @@
         <v>0.50027888099999995</v>
       </c>
       <c r="E317">
-        <v>4.1933915000000002E-2</v>
+        <v>2.7426127000000002E-2</v>
       </c>
       <c r="F317">
         <v>0.101548746</v>
@@ -10687,7 +10685,7 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B318">
         <v>3.27277E-4</v>
@@ -10699,7 +10697,7 @@
         <v>0.49991671900000001</v>
       </c>
       <c r="E318">
-        <v>6.4726811999999995E-2</v>
+        <v>2.5266204E-2</v>
       </c>
       <c r="F318">
         <v>0.110354388</v>
@@ -10713,7 +10711,7 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B319">
         <v>3.14875E-4</v>
@@ -10725,7 +10723,7 @@
         <v>0.50003056499999998</v>
       </c>
       <c r="E319">
-        <v>6.8702416000000002E-2</v>
+        <v>2.4889184000000002E-2</v>
       </c>
       <c r="F319">
         <v>0.109727409</v>
@@ -10739,7 +10737,7 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B320">
         <v>5.3314300000000003E-4</v>
@@ -10751,7 +10749,7 @@
         <v>0.298486943</v>
       </c>
       <c r="E320">
-        <v>3.7798134999999997E-2</v>
+        <v>3.6146156999999998E-2</v>
       </c>
       <c r="F320">
         <v>0.102955349</v>
@@ -10765,7 +10763,7 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B321">
         <v>5.1531000000000005E-4</v>
@@ -10777,7 +10775,7 @@
         <v>0.29985018800000002</v>
       </c>
       <c r="E321">
-        <v>4.0141284999999999E-2</v>
+        <v>3.7439083999999997E-2</v>
       </c>
       <c r="F321">
         <v>0.10231591499999999</v>
@@ -10791,7 +10789,7 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B322">
         <v>4.7795299999999998E-4</v>
@@ -10803,7 +10801,7 @@
         <v>0.30006054700000001</v>
       </c>
       <c r="E322">
-        <v>3.3727591000000001E-2</v>
+        <v>3.1618561000000003E-2</v>
       </c>
       <c r="F322">
         <v>0.105785476</v>
@@ -10817,7 +10815,7 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B323">
         <v>3.6146000000000003E-4</v>
@@ -10829,7 +10827,7 @@
         <v>0.29996759200000001</v>
       </c>
       <c r="E323">
-        <v>3.9639283999999997E-2</v>
+        <v>2.4192293E-2</v>
       </c>
       <c r="F323">
         <v>0.10970555</v>
@@ -10843,7 +10841,7 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B324">
         <v>2.9615000000000002E-4</v>
@@ -10855,7 +10853,7 @@
         <v>0.29927169599999998</v>
       </c>
       <c r="E324">
-        <v>6.0865677E-2</v>
+        <v>2.6010675E-2</v>
       </c>
       <c r="F324">
         <v>0.109082656</v>
@@ -10869,7 +10867,7 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B325">
         <v>2.6539199999999998E-4</v>
@@ -10881,7 +10879,7 @@
         <v>0.30087852900000001</v>
       </c>
       <c r="E325">
-        <v>7.5760642000000003E-2</v>
+        <v>2.4306310000000001E-2</v>
       </c>
       <c r="F325">
         <v>0.10911349100000001</v>
@@ -10895,7 +10893,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B326">
         <v>2.54348E-4</v>
@@ -10907,7 +10905,7 @@
         <v>0.27718706700000001</v>
       </c>
       <c r="E326">
-        <v>3.6368708E-2</v>
+        <v>2.3473473000000002E-2</v>
       </c>
       <c r="F326">
         <v>0.103970942</v>
@@ -10921,7 +10919,7 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B327">
         <v>5.5100500000000003E-4</v>
@@ -10933,7 +10931,7 @@
         <v>0.401205753</v>
       </c>
       <c r="E327">
-        <v>4.0367198999999999E-2</v>
+        <v>3.7712063999999997E-2</v>
       </c>
       <c r="F327">
         <v>0.10470025099999999</v>
@@ -10947,7 +10945,7 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B328">
         <v>5.6732099999999997E-4</v>
@@ -10959,7 +10957,7 @@
         <v>0.40160295099999999</v>
       </c>
       <c r="E328">
-        <v>4.0969556999999997E-2</v>
+        <v>4.1222267E-2</v>
       </c>
       <c r="F328">
         <v>0.105206543</v>
@@ -10973,7 +10971,7 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B329">
         <v>5.3201699999999997E-4</v>
@@ -10985,7 +10983,7 @@
         <v>0.40022643899999999</v>
       </c>
       <c r="E329">
-        <v>3.5358458000000002E-2</v>
+        <v>3.4129283000000003E-2</v>
       </c>
       <c r="F329">
         <v>0.110609967</v>
@@ -10999,7 +10997,7 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B330">
         <v>4.2268500000000001E-4</v>
@@ -11011,7 +11009,7 @@
         <v>0.39981734200000002</v>
       </c>
       <c r="E330">
-        <v>7.1620111E-2</v>
+        <v>2.5461850000000001E-2</v>
       </c>
       <c r="F330">
         <v>0.113427005</v>
@@ -11025,7 +11023,7 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B331">
         <v>3.2515300000000001E-4</v>
@@ -11037,7 +11035,7 @@
         <v>0.39902740599999997</v>
       </c>
       <c r="E331">
-        <v>7.3646951000000002E-2</v>
+        <v>2.9937952E-2</v>
       </c>
       <c r="F331">
         <v>0.11154404900000001</v>
@@ -11051,7 +11049,7 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B332">
         <v>3.0033399999999997E-4</v>
@@ -11063,7 +11061,7 @@
         <v>0.399791332</v>
       </c>
       <c r="E332">
-        <v>7.0960326000000004E-2</v>
+        <v>2.5111034000000001E-2</v>
       </c>
       <c r="F332">
         <v>0.11136420700000001</v>
@@ -11077,7 +11075,7 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B333">
         <v>2.8682499999999999E-4</v>
@@ -11089,7 +11087,7 @@
         <v>0.39983521399999999</v>
       </c>
       <c r="E333">
-        <v>6.7126547999999994E-2</v>
+        <v>2.4440446000000001E-2</v>
       </c>
       <c r="F333">
         <v>0.110826652</v>
@@ -11103,7 +11101,7 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B334">
         <v>6.5962200000000001E-4</v>
@@ -11115,7 +11113,7 @@
         <v>0.49965211700000001</v>
       </c>
       <c r="E334">
-        <v>4.2670694000000002E-2</v>
+        <v>3.8939330000000001E-2</v>
       </c>
       <c r="F334">
         <v>0.10375522299999999</v>
@@ -11129,7 +11127,7 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B335">
         <v>6.4296000000000004E-4</v>
@@ -11141,7 +11139,7 @@
         <v>0.49918752599999999</v>
       </c>
       <c r="E335">
-        <v>4.1950378000000003E-2</v>
+        <v>3.7288868000000003E-2</v>
       </c>
       <c r="F335">
         <v>0.106407322</v>
@@ -11155,7 +11153,7 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B336">
         <v>6.3665800000000002E-4</v>
@@ -11167,7 +11165,7 @@
         <v>0.53332581999999995</v>
       </c>
       <c r="E336">
-        <v>4.0856731E-2</v>
+        <v>3.6855077E-2</v>
       </c>
       <c r="F336">
         <v>0.104040328</v>
@@ -11181,7 +11179,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B337">
         <v>6.3738399999999995E-4</v>
@@ -11193,7 +11191,7 @@
         <v>0.49974123100000001</v>
       </c>
       <c r="E337">
-        <v>4.2100723E-2</v>
+        <v>3.9244738000000001E-2</v>
       </c>
       <c r="F337">
         <v>0.10597546100000001</v>
@@ -11207,7 +11205,7 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B338">
         <v>6.19449E-4</v>
@@ -11219,7 +11217,7 @@
         <v>0.50026277399999997</v>
       </c>
       <c r="E338">
-        <v>4.1591356000000003E-2</v>
+        <v>3.4016498999999999E-2</v>
       </c>
       <c r="F338">
         <v>0.109977661</v>
@@ -11233,7 +11231,7 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B339">
         <v>4.9860200000000001E-4</v>
@@ -11245,7 +11243,7 @@
         <v>0.50027971900000001</v>
       </c>
       <c r="E339">
-        <v>7.0967073000000006E-2</v>
+        <v>2.3932939E-2</v>
       </c>
       <c r="F339">
         <v>0.11422294400000001</v>
@@ -11259,7 +11257,7 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B340">
         <v>3.6904199999999998E-4</v>
@@ -11271,7 +11269,7 @@
         <v>0.50030577499999995</v>
       </c>
       <c r="E340">
-        <v>6.6469704000000004E-2</v>
+        <v>2.6483E-2</v>
       </c>
       <c r="F340">
         <v>0.116510979</v>
@@ -11285,7 +11283,7 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B341">
         <v>3.21902E-4</v>
@@ -11297,7 +11295,7 @@
         <v>0.50013415000000006</v>
       </c>
       <c r="E341">
-        <v>5.7089112999999997E-2</v>
+        <v>2.9292808E-2</v>
       </c>
       <c r="F341">
         <v>0.11521322000000001</v>
@@ -11311,7 +11309,7 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B342">
         <v>3.0918599999999998E-4</v>
@@ -11323,7 +11321,7 @@
         <v>0.49975158200000003</v>
       </c>
       <c r="E342">
-        <v>5.5146272000000003E-2</v>
+        <v>2.4939234000000001E-2</v>
       </c>
       <c r="F342">
         <v>0.114309811</v>
@@ -11337,7 +11335,7 @@
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B343">
         <v>4.85129E-4</v>
@@ -11349,7 +11347,7 @@
         <v>0.30007985999999998</v>
       </c>
       <c r="E343">
-        <v>3.1432143000000003E-2</v>
+        <v>2.9019796E-2</v>
       </c>
       <c r="F343">
         <v>0.11381099</v>
@@ -11363,7 +11361,7 @@
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B344">
         <v>4.7428800000000001E-4</v>
@@ -11375,7 +11373,7 @@
         <v>0.30001281800000001</v>
       </c>
       <c r="E344">
-        <v>3.3010744000000002E-2</v>
+        <v>3.1406066000000003E-2</v>
       </c>
       <c r="F344">
         <v>0.11308117199999999</v>
@@ -11389,7 +11387,7 @@
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B345">
         <v>4.58329E-4</v>
@@ -11401,7 +11399,7 @@
         <v>0.29983200300000001</v>
       </c>
       <c r="E345">
-        <v>3.3648738999999997E-2</v>
+        <v>2.7470317000000001E-2</v>
       </c>
       <c r="F345">
         <v>0.113457661</v>
@@ -11415,7 +11413,7 @@
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B346">
         <v>3.9580799999999999E-4</v>
@@ -11427,7 +11425,7 @@
         <v>0.29999587</v>
       </c>
       <c r="E346">
-        <v>4.6113999000000003E-2</v>
+        <v>2.5909682999999999E-2</v>
       </c>
       <c r="F346">
         <v>0.11548971800000001</v>
@@ -11441,7 +11439,7 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B347">
         <v>3.3780799999999999E-4</v>
@@ -11453,7 +11451,7 @@
         <v>0.29984454500000002</v>
       </c>
       <c r="E347">
-        <v>7.0016203999999999E-2</v>
+        <v>2.6734391E-2</v>
       </c>
       <c r="F347">
         <v>0.114565863</v>
@@ -11467,7 +11465,7 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B348">
         <v>2.9499700000000002E-4</v>
@@ -11479,7 +11477,7 @@
         <v>0.29999497400000003</v>
       </c>
       <c r="E348">
-        <v>5.1478729000000001E-2</v>
+        <v>2.6031990000000001E-2</v>
       </c>
       <c r="F348">
         <v>0.113484838</v>
@@ -11493,7 +11491,7 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B349">
         <v>2.7738399999999999E-4</v>
@@ -11505,7 +11503,7 @@
         <v>0.299965806</v>
       </c>
       <c r="E349">
-        <v>6.8609329999999996E-2</v>
+        <v>2.5472035000000001E-2</v>
       </c>
       <c r="F349">
         <v>0.110792153</v>
@@ -11519,7 +11517,7 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B350">
         <v>5.13668E-4</v>
@@ -11531,7 +11529,7 @@
         <v>0.40181292899999999</v>
       </c>
       <c r="E350">
-        <v>3.3861730999999999E-2</v>
+        <v>2.8976854E-2</v>
       </c>
       <c r="F350">
         <v>0.108200269</v>
@@ -11545,7 +11543,7 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B351">
         <v>5.3114999999999998E-4</v>
@@ -11557,7 +11555,7 @@
         <v>0.40075802599999999</v>
       </c>
       <c r="E351">
-        <v>3.5328396999999997E-2</v>
+        <v>3.0165536E-2</v>
       </c>
       <c r="F351">
         <v>0.10805416900000001</v>
@@ -11571,7 +11569,7 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B352">
         <v>5.0897099999999999E-4</v>
@@ -11583,7 +11581,7 @@
         <v>0.39980108800000003</v>
       </c>
       <c r="E352">
-        <v>4.0676258999999999E-2</v>
+        <v>2.8191463E-2</v>
       </c>
       <c r="F352">
         <v>0.109044108</v>
@@ -11597,7 +11595,7 @@
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B353">
         <v>4.3509100000000003E-4</v>
@@ -11609,7 +11607,7 @@
         <v>0.3997909</v>
       </c>
       <c r="E353">
-        <v>6.4119865999999998E-2</v>
+        <v>2.6927901000000001E-2</v>
       </c>
       <c r="F353">
         <v>0.111962584</v>
@@ -11623,7 +11621,7 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B354">
         <v>3.6169799999999998E-4</v>
@@ -11635,7 +11633,7 @@
         <v>0.39989279700000002</v>
       </c>
       <c r="E354">
-        <v>4.0492685E-2</v>
+        <v>2.9547614999999999E-2</v>
       </c>
       <c r="F354">
         <v>0.115546248</v>
@@ -11649,7 +11647,7 @@
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B355">
         <v>3.3175099999999998E-4</v>
@@ -11661,7 +11659,7 @@
         <v>0.399759647</v>
       </c>
       <c r="E355">
-        <v>3.7007920999999999E-2</v>
+        <v>2.8581051E-2</v>
       </c>
       <c r="F355">
         <v>0.116101996</v>
@@ -11675,7 +11673,7 @@
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B356">
         <v>3.0890699999999998E-4</v>
@@ -11687,7 +11685,7 @@
         <v>0.39975485500000002</v>
       </c>
       <c r="E356">
-        <v>3.5096822999999999E-2</v>
+        <v>2.2202800000000002E-2</v>
       </c>
       <c r="F356">
         <v>0.11645707700000001</v>
@@ -11701,7 +11699,7 @@
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B357">
         <v>5.4922200000000003E-4</v>
@@ -11713,7 +11711,7 @@
         <v>0.49980048199999999</v>
       </c>
       <c r="E357">
-        <v>3.8351444999999998E-2</v>
+        <v>3.0615773999999998E-2</v>
       </c>
       <c r="F357">
         <v>0.105765605</v>
@@ -11727,7 +11725,7 @@
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B358">
         <v>5.5316299999999996E-4</v>
@@ -11739,7 +11737,7 @@
         <v>0.50032897399999998</v>
       </c>
       <c r="E358">
-        <v>3.8767682999999997E-2</v>
+        <v>3.1153771E-2</v>
       </c>
       <c r="F358">
         <v>0.105608667</v>
@@ -11753,7 +11751,7 @@
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B359">
         <v>5.5357200000000001E-4</v>
@@ -11765,7 +11763,7 @@
         <v>0.49995863899999998</v>
       </c>
       <c r="E359">
-        <v>4.1497602000000001E-2</v>
+        <v>2.9911225999999999E-2</v>
       </c>
       <c r="F359">
         <v>0.107865848</v>
@@ -11779,7 +11777,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B360">
         <v>5.1459900000000002E-4</v>
@@ -11791,7 +11789,7 @@
         <v>0.49924889700000002</v>
       </c>
       <c r="E360">
-        <v>7.3695811E-2</v>
+        <v>2.7726224000000001E-2</v>
       </c>
       <c r="F360">
         <v>0.11089763900000001</v>
@@ -11805,7 +11803,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B361">
         <v>4.2470700000000003E-4</v>
@@ -11817,7 +11815,7 @@
         <v>0.49989370999999999</v>
       </c>
       <c r="E361">
-        <v>4.5768153999999998E-2</v>
+        <v>2.8382245E-2</v>
       </c>
       <c r="F361">
         <v>0.116405312</v>
@@ -11831,7 +11829,7 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B362">
         <v>3.68847E-4</v>
@@ -11843,7 +11841,7 @@
         <v>0.49769276600000001</v>
       </c>
       <c r="E362">
-        <v>3.9563547999999997E-2</v>
+        <v>2.2175271999999999E-2</v>
       </c>
       <c r="F362">
         <v>0.115419568</v>
@@ -11857,7 +11855,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B363">
         <v>3.3055999999999998E-4</v>
@@ -11869,7 +11867,7 @@
         <v>0.59374902299999999</v>
       </c>
       <c r="E363">
-        <v>3.6715955000000002E-2</v>
+        <v>3.1967387999999999E-2</v>
       </c>
       <c r="F363">
         <v>0.12346001199999999</v>
@@ -11890,8 +11888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D26A40-5EC0-4FC2-A7B8-9E1205DD29FB}">
   <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E105"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11910,10 +11908,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>2</v>
@@ -11924,7 +11922,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>2.0462099999999999E-4</v>
@@ -11950,7 +11948,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>6.5725699999999996E-4</v>
@@ -11976,7 +11974,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>3.1127999999999999E-4</v>
@@ -12002,7 +12000,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>4.4927699999999999E-4</v>
@@ -12028,7 +12026,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>5.4967899999999997E-4</v>
@@ -12054,7 +12052,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>3.38769E-4</v>
@@ -12080,7 +12078,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>2.4194099999999999E-4</v>
@@ -12106,7 +12104,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>4.9274500000000005E-4</v>
@@ -12132,7 +12130,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>6.1183099999999996E-4</v>
@@ -12158,7 +12156,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>3.9097999999999997E-4</v>
@@ -12184,7 +12182,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>2.2167000000000001E-4</v>
@@ -12210,7 +12208,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>6.7796600000000001E-4</v>
@@ -12236,7 +12234,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>2.54348E-4</v>
@@ -12262,7 +12260,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>8.0239500000000002E-4</v>
@@ -12288,7 +12286,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>5.0275999999999999E-4</v>
@@ -12314,7 +12312,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>5.9944000000000002E-4</v>
@@ -12340,7 +12338,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>7.1244500000000003E-4</v>
@@ -12366,7 +12364,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>3.7785800000000001E-4</v>
@@ -12392,7 +12390,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>5.6844399999999998E-4</v>
@@ -12418,7 +12416,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>6.5962200000000001E-4</v>
@@ -12444,7 +12442,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22">
         <v>7.5361500000000001E-4</v>
@@ -12470,7 +12468,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23">
         <v>3.65507E-4</v>
@@ -12496,7 +12494,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24">
         <v>3.21902E-4</v>
@@ -12522,7 +12520,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25">
         <v>4.4690600000000001E-4</v>
@@ -12548,7 +12546,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26">
         <v>2.6539199999999998E-4</v>
@@ -12574,7 +12572,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27">
         <v>2.7240599999999999E-4</v>
@@ -12600,7 +12598,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28">
         <v>5.6636299999999996E-4</v>
@@ -12626,7 +12624,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29">
         <v>4.4455299999999998E-4</v>
@@ -12652,7 +12650,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30">
         <v>3.4781999999999999E-4</v>
@@ -12678,7 +12676,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31">
         <v>3.0862499999999998E-4</v>
@@ -12704,7 +12702,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32">
         <v>3.9580799999999999E-4</v>
@@ -12730,7 +12728,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33">
         <v>4.85129E-4</v>
@@ -12756,7 +12754,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34">
         <v>4.7428800000000001E-4</v>
@@ -12782,7 +12780,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35">
         <v>3.4672300000000001E-4</v>
@@ -12808,7 +12806,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36">
         <v>5.7827599999999996E-4</v>
@@ -12834,7 +12832,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37">
         <v>4.6433100000000001E-4</v>
@@ -12860,7 +12858,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38">
         <v>4.11395E-4</v>
@@ -12886,7 +12884,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39">
         <v>3.13467E-4</v>
@@ -12912,7 +12910,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40">
         <v>7.2654800000000004E-4</v>
@@ -12938,7 +12936,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>8.1662800000000002E-4</v>
@@ -12964,7 +12962,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42">
         <v>8.5975099999999996E-4</v>
@@ -12990,7 +12988,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43">
         <v>7.0617800000000001E-4</v>
@@ -13016,7 +13014,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44">
         <v>6.3737199999999998E-4</v>
@@ -13042,7 +13040,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B45">
         <v>5.2616900000000005E-4</v>
@@ -13068,7 +13066,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46">
         <v>7.4180700000000003E-4</v>
@@ -13094,7 +13092,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47">
         <v>9.1292700000000001E-4</v>
@@ -13120,7 +13118,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <v>9.4360899999999998E-4</v>
@@ -13146,7 +13144,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B49">
         <v>6.1466400000000001E-4</v>
@@ -13172,7 +13170,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B50">
         <v>6.6162899999999995E-4</v>
@@ -13198,7 +13196,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51">
         <v>7.2370699999999997E-4</v>
@@ -13224,7 +13222,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52">
         <v>8.0128199999999995E-4</v>
@@ -13250,7 +13248,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B53">
         <v>6.8117199999999996E-4</v>
@@ -13276,7 +13274,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B54">
         <v>6.1575900000000001E-4</v>
@@ -13302,7 +13300,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B55">
         <v>5.7284199999999995E-4</v>
@@ -13328,7 +13326,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B56">
         <v>7.3430900000000005E-4</v>

--- a/Separator Model/Input/data_main.xlsx
+++ b/Separator Model/Input/data_main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iagr9\Projekte\MA\MA-Model_4\Separator Model\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34095E2D-C5F8-4F7D-89C4-9966628CCB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8DD418-0809-49B3-8D11-082D042A81F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="23">
   <si>
     <t>exp</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>ye</t>
-  </si>
-  <si>
-    <t>ratio</t>
   </si>
   <si>
     <t>niba1</t>
@@ -102,6 +99,15 @@
   </si>
   <si>
     <t>h_dis_0</t>
+  </si>
+  <si>
+    <t>H_DPZ</t>
+  </si>
+  <si>
+    <t>L_DPZ</t>
+  </si>
+  <si>
+    <t>dpz_flooded</t>
   </si>
 </sst>
 </file>
@@ -466,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection sqref="A1:I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,30 +483,36 @@
     <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -514,16 +526,22 @@
         <v>0.2</v>
       </c>
       <c r="E2" s="1">
-        <v>9.6295716614565059E-4</v>
+        <v>9.6295699999999996E-4</v>
       </c>
       <c r="F2" s="1">
-        <v>0.1823660146057291</v>
+        <v>-1</v>
       </c>
       <c r="G2" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.43149999999999999</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -537,16 +555,22 @@
         <v>0.2</v>
       </c>
       <c r="E3" s="1">
-        <v>5.4068508635758987E-4</v>
+        <v>5.4068499999999995E-4</v>
       </c>
       <c r="F3" s="1">
-        <v>0.21301483549235181</v>
+        <v>-1</v>
       </c>
       <c r="G3" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H3">
+        <v>0.34539999999999998</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -560,16 +584,22 @@
         <v>0.2</v>
       </c>
       <c r="E4" s="1">
-        <v>5.7356177557115905E-4</v>
+        <v>5.7356200000000001E-4</v>
       </c>
       <c r="F4" s="1">
-        <v>0.25425761110318579</v>
+        <v>-1</v>
       </c>
       <c r="G4" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.35E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.33950000000000002</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -583,16 +613,22 @@
         <v>0.2</v>
       </c>
       <c r="E5" s="1">
-        <v>1.6091137159752529E-3</v>
+        <v>1.609114E-3</v>
       </c>
       <c r="F5" s="1">
-        <v>0.36931815679769697</v>
+        <v>-1</v>
       </c>
       <c r="G5" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.35420000000000001</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -606,16 +642,22 @@
         <v>0.2</v>
       </c>
       <c r="E6" s="1">
-        <v>2.022104184845368E-3</v>
+        <v>2.0221039999999998E-3</v>
       </c>
       <c r="F6" s="1">
-        <v>0.50113155679252741</v>
+        <v>-1</v>
       </c>
       <c r="G6" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.36980000000000002</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -629,21 +671,27 @@
         <v>0.2</v>
       </c>
       <c r="E7" s="1">
-        <v>1.8583168791360669E-3</v>
+        <v>1.858317E-3</v>
       </c>
       <c r="F7" s="1">
-        <v>0.76352010233390366</v>
+        <v>-1</v>
       </c>
       <c r="G7" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.5900000000000003E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.34239999999999998</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>6.8899999999999994E-4</v>
+        <v>6.8900000000000005E-4</v>
       </c>
       <c r="C8" s="1">
         <v>160</v>
@@ -652,16 +700,22 @@
         <v>0.2</v>
       </c>
       <c r="E8" s="1">
-        <v>1.5414611966421831E-3</v>
+        <v>1.541461E-3</v>
       </c>
       <c r="F8" s="1">
-        <v>1.2806653375687329</v>
+        <v>-1</v>
       </c>
       <c r="G8" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.29349999999999998</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -675,21 +729,26 @@
         <v>0.2</v>
       </c>
       <c r="E9" s="1">
-        <v>1.203053031576804E-3</v>
+        <v>1.2030529999999999E-3</v>
       </c>
       <c r="F9" s="1">
-        <v>4.4268567706128978</v>
+        <v>-1</v>
       </c>
       <c r="G9" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.23089999999999999</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <f>0.00018</f>
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="C10" s="1">
@@ -702,18 +761,23 @@
         <v>-1</v>
       </c>
       <c r="F10" s="1">
-        <v>-1</v>
+        <v>0.99572192500000001</v>
       </c>
       <c r="G10" s="1">
-        <v>0.99572192513368896</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="H10">
+        <v>-1</v>
+      </c>
+      <c r="I10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1">
-        <f>0.0002</f>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C11" s="1">
@@ -726,18 +790,23 @@
         <v>-1</v>
       </c>
       <c r="F11" s="1">
-        <v>-1</v>
+        <v>0.99572192500000001</v>
       </c>
       <c r="G11" s="1">
-        <v>0.99572192513368896</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+      <c r="I11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="1">
-        <f>0.00025</f>
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="C12" s="1">
@@ -750,18 +819,23 @@
         <v>-1</v>
       </c>
       <c r="F12" s="1">
-        <v>-1</v>
+        <v>0.99572192500000001</v>
       </c>
       <c r="G12" s="1">
-        <v>0.99572192513368896</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="H12">
+        <v>-1</v>
+      </c>
+      <c r="I12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="1">
-        <f>0.0003</f>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="C13" s="1">
@@ -774,18 +848,23 @@
         <v>-1</v>
       </c>
       <c r="F13" s="1">
-        <v>-1</v>
+        <v>0.996256684</v>
       </c>
       <c r="G13" s="1">
-        <v>0.99625668449197802</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="H13">
+        <v>-1</v>
+      </c>
+      <c r="I13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="1">
-        <f>0.00035</f>
         <v>3.5E-4</v>
       </c>
       <c r="C14" s="1">
@@ -798,13 +877,19 @@
         <v>-1</v>
       </c>
       <c r="F14" s="1">
-        <v>-1</v>
+        <v>0.996256684</v>
       </c>
       <c r="G14" s="1">
-        <v>0.99625668449197802</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="H14">
+        <v>-1</v>
+      </c>
+      <c r="I14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -818,16 +903,22 @@
         <v>0.2</v>
       </c>
       <c r="E15">
-        <v>2.2772938978669619E-4</v>
+        <v>2.27729E-4</v>
       </c>
       <c r="F15">
-        <v>0.1370529158760026</v>
+        <v>-1</v>
       </c>
       <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.5799999999999998E-3</v>
+      </c>
+      <c r="H15">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -841,13 +932,19 @@
         <v>0.2</v>
       </c>
       <c r="E16">
-        <v>1.3477410867637691E-3</v>
+        <v>1.347741E-3</v>
       </c>
       <c r="F16">
-        <v>0.17284629282554129</v>
+        <v>-1</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>2.18E-2</v>
+      </c>
+      <c r="H16">
+        <v>0.498</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -864,13 +961,19 @@
         <v>0.2</v>
       </c>
       <c r="E17">
-        <v>1.48167952704679E-3</v>
+        <v>1.48168E-3</v>
       </c>
       <c r="F17">
-        <v>0.2279575182571614</v>
+        <v>-1</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="H17">
+        <v>0.45</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -887,13 +990,19 @@
         <v>0.2</v>
       </c>
       <c r="E18">
-        <v>1.5823525896206921E-3</v>
+        <v>1.5823530000000001E-3</v>
       </c>
       <c r="F18">
-        <v>0.31658092682248279</v>
+        <v>-1</v>
       </c>
       <c r="G18">
-        <v>-1</v>
+        <v>0.03</v>
+      </c>
+      <c r="H18">
+        <v>0.43</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -910,13 +1019,19 @@
         <v>0.2</v>
       </c>
       <c r="E19">
-        <v>1.2640770242587729E-3</v>
+        <v>1.264077E-3</v>
       </c>
       <c r="F19">
-        <v>0.46464702343852138</v>
+        <v>-1</v>
       </c>
       <c r="G19">
-        <v>-1</v>
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="H19">
+        <v>0.33</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -933,13 +1048,19 @@
         <v>0.2</v>
       </c>
       <c r="E20">
-        <v>1.750109021017441E-3</v>
+        <v>1.7501089999999999E-3</v>
       </c>
       <c r="F20">
-        <v>0.73605944943634971</v>
+        <v>-1</v>
       </c>
       <c r="G20">
-        <v>-1</v>
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="H20">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -956,13 +1077,19 @@
         <v>0.2</v>
       </c>
       <c r="E21">
-        <v>1.238571092807607E-3</v>
+        <v>1.2385709999999999E-3</v>
       </c>
       <c r="F21">
-        <v>1.3401074860750279</v>
+        <v>-1</v>
       </c>
       <c r="G21">
-        <v>-1</v>
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="H21">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -979,13 +1106,19 @@
         <v>0.2</v>
       </c>
       <c r="E22">
-        <v>9.1166767204117576E-4</v>
+        <v>9.1166800000000003E-4</v>
       </c>
       <c r="F22">
-        <v>2.5877090019246669</v>
+        <v>-1</v>
       </c>
       <c r="G22">
-        <v>-1</v>
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="H22">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -1002,13 +1135,19 @@
         <v>0.2</v>
       </c>
       <c r="E23">
-        <v>4.5693419373077951E-4</v>
+        <v>4.5693399999999999E-4</v>
       </c>
       <c r="F23">
-        <v>4.8558997971939712</v>
+        <v>-1</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="H23">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -1016,7 +1155,6 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <f>0.00018</f>
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="C24">
@@ -1029,10 +1167,16 @@
         <v>-1</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <v>0.95080213899999999</v>
       </c>
       <c r="G24">
-        <v>0.95080213903743305</v>
+        <v>-1</v>
+      </c>
+      <c r="H24">
+        <v>-1</v>
+      </c>
+      <c r="I24">
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -1040,7 +1184,6 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <f>0.0002</f>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C25">
@@ -1053,10 +1196,16 @@
         <v>-1</v>
       </c>
       <c r="F25">
-        <v>-1</v>
+        <v>0.98930481299999995</v>
       </c>
       <c r="G25">
-        <v>0.989304812834224</v>
+        <v>-1</v>
+      </c>
+      <c r="H25">
+        <v>-1</v>
+      </c>
+      <c r="I25">
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -1064,7 +1213,6 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <f>0.00025</f>
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="C26">
@@ -1077,10 +1225,16 @@
         <v>-1</v>
       </c>
       <c r="F26">
-        <v>-1</v>
+        <v>0.99358288800000005</v>
       </c>
       <c r="G26">
-        <v>0.99358288770053405</v>
+        <v>-1</v>
+      </c>
+      <c r="H26">
+        <v>-1</v>
+      </c>
+      <c r="I26">
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -1088,7 +1242,6 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <f>0.0003</f>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="C27">
@@ -1101,10 +1254,16 @@
         <v>-1</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>0.99518716600000001</v>
       </c>
       <c r="G27">
-        <v>0.99518716577540101</v>
+        <v>-1</v>
+      </c>
+      <c r="H27">
+        <v>-1</v>
+      </c>
+      <c r="I27">
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -1112,7 +1271,6 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <f>0.00035</f>
         <v>3.5E-4</v>
       </c>
       <c r="C28">
@@ -1125,10 +1283,16 @@
         <v>-1</v>
       </c>
       <c r="F28">
-        <v>-1</v>
+        <v>0.99732620299999997</v>
       </c>
       <c r="G28">
-        <v>0.99732620320855603</v>
+        <v>-1</v>
+      </c>
+      <c r="H28">
+        <v>-1</v>
+      </c>
+      <c r="I28">
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -1136,7 +1300,6 @@
         <v>3</v>
       </c>
       <c r="B29">
-        <f>0.00018</f>
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="C29">
@@ -1149,10 +1312,16 @@
         <v>-1</v>
       </c>
       <c r="F29">
-        <v>-1</v>
+        <v>0.96243386200000003</v>
       </c>
       <c r="G29">
-        <v>0.96243386243386198</v>
+        <v>-1</v>
+      </c>
+      <c r="H29">
+        <v>-1</v>
+      </c>
+      <c r="I29">
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -1169,13 +1338,19 @@
         <v>0.2</v>
       </c>
       <c r="E30" s="1">
-        <v>5.6943586866757242E-4</v>
+        <v>5.6943599999999999E-4</v>
       </c>
       <c r="F30" s="1">
-        <v>0.1320822729650824</v>
+        <v>-1</v>
       </c>
       <c r="G30" s="1">
-        <v>-1</v>
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="H30">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -1192,13 +1367,19 @@
         <v>0.2</v>
       </c>
       <c r="E31" s="1">
-        <v>1.7641118244044319E-3</v>
+        <v>1.764112E-3</v>
       </c>
       <c r="F31" s="1">
-        <v>0.1597123428111161</v>
+        <v>-1</v>
       </c>
       <c r="G31" s="1">
-        <v>-1</v>
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="H31">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -1215,17 +1396,23 @@
         <v>0.2</v>
       </c>
       <c r="E32" s="1">
-        <v>2.7815827299968472E-3</v>
+        <v>2.7815829999999998E-3</v>
       </c>
       <c r="F32" s="1">
-        <v>0.211589538977805</v>
+        <v>-1</v>
       </c>
       <c r="G32" s="1">
-        <v>-1</v>
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="H32">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
       </c>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -1239,16 +1426,22 @@
         <v>0.2</v>
       </c>
       <c r="E33" s="1">
-        <v>3.1243836337864731E-3</v>
+        <v>3.124384E-3</v>
       </c>
       <c r="F33" s="1">
-        <v>0.29354094122178198</v>
+        <v>-1</v>
       </c>
       <c r="G33" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="H33">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
@@ -1262,16 +1455,22 @@
         <v>0.2</v>
       </c>
       <c r="E34" s="1">
-        <v>3.5047858321507158E-3</v>
+        <v>3.5047860000000002E-3</v>
       </c>
       <c r="F34" s="1">
-        <v>0.45503198214379609</v>
+        <v>-1</v>
       </c>
       <c r="G34" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.45E-2</v>
+      </c>
+      <c r="H34">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
@@ -1285,21 +1484,27 @@
         <v>0.2</v>
       </c>
       <c r="E35" s="1">
-        <v>3.0154706835275259E-3</v>
+        <v>3.015471E-3</v>
       </c>
       <c r="F35" s="1">
-        <v>0.66921493130958387</v>
+        <v>-1</v>
       </c>
       <c r="G35" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H35">
+        <v>0.45929999999999999</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="1">
-        <v>8.0399999999999992E-4</v>
+        <v>8.0400000000000003E-4</v>
       </c>
       <c r="C36" s="1">
         <v>240</v>
@@ -1308,16 +1513,22 @@
         <v>0.2</v>
       </c>
       <c r="E36" s="1">
-        <v>2.3056367382307788E-3</v>
+        <v>2.3056370000000001E-3</v>
       </c>
       <c r="F36" s="1">
-        <v>1.162567156778866</v>
+        <v>-1</v>
       </c>
       <c r="G36" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="H36">
+        <v>0.36370000000000002</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
@@ -1331,16 +1542,22 @@
         <v>0.2</v>
       </c>
       <c r="E37" s="1">
-        <v>1.8617433763087039E-3</v>
+        <v>1.8617429999999999E-3</v>
       </c>
       <c r="F37" s="1">
-        <v>2.1446243317633749</v>
+        <v>-1</v>
       </c>
       <c r="G37" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="H37">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>3</v>
       </c>
@@ -1354,21 +1571,26 @@
         <v>0.2</v>
       </c>
       <c r="E38" s="1">
-        <v>9.7170389896743172E-4</v>
+        <v>9.7170399999999999E-4</v>
       </c>
       <c r="F38" s="1">
-        <v>3.606055934726871</v>
+        <v>-1</v>
       </c>
       <c r="G38" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="H38">
+        <v>0.26240000000000002</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="1">
-        <f>0.00018</f>
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="C39" s="1">
@@ -1381,18 +1603,23 @@
         <v>-1</v>
       </c>
       <c r="F39" s="1">
-        <v>-1</v>
+        <v>0.74973261999999996</v>
       </c>
       <c r="G39" s="1">
-        <v>0.74973262032085497</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="H39">
+        <v>-1</v>
+      </c>
+      <c r="I39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B40" s="1">
-        <f>0.0002</f>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C40" s="1">
@@ -1405,18 +1632,23 @@
         <v>-1</v>
       </c>
       <c r="F40" s="1">
-        <v>-1</v>
+        <v>0.97433155100000002</v>
       </c>
       <c r="G40" s="1">
-        <v>0.97433155080213896</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="H40">
+        <v>-1</v>
+      </c>
+      <c r="I40">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="1">
-        <f>0.00025</f>
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="C41" s="1">
@@ -1429,18 +1661,23 @@
         <v>-1</v>
       </c>
       <c r="F41" s="1">
-        <v>-1</v>
+        <v>0.98609625700000003</v>
       </c>
       <c r="G41" s="1">
-        <v>0.98609625668449197</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="H41">
+        <v>-1</v>
+      </c>
+      <c r="I41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="1">
-        <f>0.0003</f>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="C42" s="1">
@@ -1453,18 +1690,23 @@
         <v>-1</v>
       </c>
       <c r="F42" s="1">
-        <v>-1</v>
+        <v>0.99144385000000002</v>
       </c>
       <c r="G42" s="1">
-        <v>0.99144385026737902</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="H42">
+        <v>-1</v>
+      </c>
+      <c r="I42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="1">
-        <f>0.00035</f>
         <v>3.5E-4</v>
       </c>
       <c r="C43" s="1">
@@ -1477,18 +1719,23 @@
         <v>-1</v>
       </c>
       <c r="F43" s="1">
-        <v>-1</v>
+        <v>0.99518716600000001</v>
       </c>
       <c r="G43" s="1">
-        <v>0.99518716577540101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="H43">
+        <v>-1</v>
+      </c>
+      <c r="I43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B44" s="1">
-        <f>0.00018</f>
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="C44" s="1">
@@ -1501,18 +1748,23 @@
         <v>-1</v>
       </c>
       <c r="F44" s="1">
-        <v>-1</v>
+        <v>0.93015873000000004</v>
       </c>
       <c r="G44" s="1">
-        <v>0.93015873015872996</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="H44">
+        <v>-1</v>
+      </c>
+      <c r="I44">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B45" s="1">
-        <f>0.0002</f>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C45" s="1">
@@ -1525,18 +1777,23 @@
         <v>-1</v>
       </c>
       <c r="F45" s="1">
-        <v>-1</v>
+        <v>0.94973545000000004</v>
       </c>
       <c r="G45" s="1">
-        <v>0.94973544973544899</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="H45">
+        <v>-1</v>
+      </c>
+      <c r="I45">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B46" s="1">
-        <f>0.00025</f>
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="C46" s="1">
@@ -1549,18 +1806,23 @@
         <v>-1</v>
       </c>
       <c r="F46" s="1">
-        <v>-1</v>
+        <v>0.97566137600000002</v>
       </c>
       <c r="G46" s="1">
-        <v>0.97566137566137501</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="H46">
+        <v>-1</v>
+      </c>
+      <c r="I46">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B47" s="1">
-        <f>0.0003</f>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="C47" s="1">
@@ -1573,18 +1835,23 @@
         <v>-1</v>
       </c>
       <c r="F47" s="1">
-        <v>-1</v>
+        <v>0.98783068799999996</v>
       </c>
       <c r="G47" s="1">
-        <v>0.98783068783068695</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="H47">
+        <v>-1</v>
+      </c>
+      <c r="I47">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B48" s="1">
-        <f>0.00035</f>
         <v>3.5E-4</v>
       </c>
       <c r="C48" s="1">
@@ -1597,18 +1864,23 @@
         <v>-1</v>
       </c>
       <c r="F48" s="1">
-        <v>-1</v>
+        <v>0.99523809500000004</v>
       </c>
       <c r="G48" s="1">
-        <v>0.99523809523809503</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="H48">
+        <v>-1</v>
+      </c>
+      <c r="I48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B49" s="1">
-        <f>0.00018</f>
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="C49" s="1">
@@ -1621,13 +1893,19 @@
         <v>-1</v>
       </c>
       <c r="F49" s="1">
-        <v>-1</v>
+        <v>0.92751322800000002</v>
       </c>
       <c r="G49" s="1">
-        <v>0.92751322751322696</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="H49">
+        <v>-1</v>
+      </c>
+      <c r="I49">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -1641,16 +1919,22 @@
         <v>0.2</v>
       </c>
       <c r="E50">
-        <v>6.6906144476863239E-4</v>
+        <v>6.6906099999999998E-4</v>
       </c>
       <c r="F50">
-        <v>9.9454994068497199E-2</v>
+        <v>-1</v>
       </c>
       <c r="G50">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H50">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -1664,16 +1948,22 @@
         <v>0.2</v>
       </c>
       <c r="E51">
-        <v>2.481912581033939E-3</v>
+        <v>2.4819130000000001E-3</v>
       </c>
       <c r="F51">
-        <v>0.13324589043500251</v>
+        <v>-1</v>
       </c>
       <c r="G51">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="H51">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -1687,16 +1977,22 @@
         <v>0.2</v>
       </c>
       <c r="E52">
-        <v>3.5047858321507158E-3</v>
+        <v>3.5047860000000002E-3</v>
       </c>
       <c r="F52">
-        <v>0.17507291557699109</v>
+        <v>-1</v>
       </c>
       <c r="G52">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.45E-2</v>
+      </c>
+      <c r="H52">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -1710,16 +2006,22 @@
         <v>0.2</v>
       </c>
       <c r="E53">
-        <v>3.5300274842651859E-3</v>
+        <v>3.5300269999999998E-3</v>
       </c>
       <c r="F53">
-        <v>0.24912153359547129</v>
+        <v>-1</v>
       </c>
       <c r="G53">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H53">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -1733,16 +2035,22 @@
         <v>0.2</v>
       </c>
       <c r="E54">
-        <v>3.7511155850126609E-3</v>
+        <v>3.7511160000000001E-3</v>
       </c>
       <c r="F54">
-        <v>0.38077808031907501</v>
+        <v>-1</v>
       </c>
       <c r="G54">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.96E-2</v>
+      </c>
+      <c r="H54">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -1756,16 +2064,22 @@
         <v>0.2</v>
       </c>
       <c r="E55">
-        <v>3.7918205784826329E-3</v>
+        <v>3.7918209999999999E-3</v>
       </c>
       <c r="F55">
-        <v>0.58685321837904003</v>
+        <v>-1</v>
       </c>
       <c r="G55">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="H55">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -1779,16 +2093,22 @@
         <v>0.2</v>
       </c>
       <c r="E56">
-        <v>2.9280961559260119E-3</v>
+        <v>2.9280959999999998E-3</v>
       </c>
       <c r="F56">
-        <v>0.98659551435052129</v>
+        <v>-1</v>
       </c>
       <c r="G56">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="H56">
+        <v>0.42</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -1802,16 +2122,22 @@
         <v>0.2</v>
       </c>
       <c r="E57">
-        <v>2.4002025628507462E-3</v>
+        <v>2.4002030000000001E-3</v>
       </c>
       <c r="F57">
-        <v>1.8618922637938651</v>
+        <v>-1</v>
       </c>
       <c r="G57">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="H57">
+        <v>0.35</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -1825,28 +2151,33 @@
         <v>0.2</v>
       </c>
       <c r="E58">
-        <v>1.53434215541255E-3</v>
+        <v>1.534342E-3</v>
       </c>
       <c r="F58">
-        <v>2.5177979188444941</v>
+        <v>-1</v>
       </c>
       <c r="G58">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="H58">
+        <v>0.32</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
       <c r="B59">
-        <f>0.00018</f>
-        <v>1.8000000000000001E-4</v>
+        <v>2.2510799999999999E-4</v>
       </c>
       <c r="C59">
         <v>280</v>
       </c>
       <c r="D59">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="E59">
         <v>-1</v>
@@ -1855,22 +2186,27 @@
         <v>-1</v>
       </c>
       <c r="G59">
-        <v>0.64973262032085499</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>3</v>
       </c>
       <c r="B60">
-        <f>0.0002</f>
-        <v>2.0000000000000001E-4</v>
+        <v>2.5108200000000002E-4</v>
       </c>
       <c r="C60">
         <v>280</v>
       </c>
       <c r="D60">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="E60">
         <v>-1</v>
@@ -1879,22 +2215,27 @@
         <v>-1</v>
       </c>
       <c r="G60">
-        <v>0.91657754010695103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
       <c r="B61">
-        <f>0.00025</f>
-        <v>2.5000000000000001E-4</v>
+        <v>2.8571400000000001E-4</v>
       </c>
       <c r="C61">
         <v>280</v>
       </c>
       <c r="D61">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="E61">
         <v>-1</v>
@@ -1903,22 +2244,27 @@
         <v>-1</v>
       </c>
       <c r="G61">
-        <v>0.97754010695187099</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>3</v>
       </c>
       <c r="B62">
-        <f>0.0003</f>
-        <v>2.9999999999999997E-4</v>
+        <v>3.3419899999999998E-4</v>
       </c>
       <c r="C62">
         <v>280</v>
       </c>
       <c r="D62">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="E62">
         <v>-1</v>
@@ -1927,22 +2273,27 @@
         <v>-1</v>
       </c>
       <c r="G62">
-        <v>0.98716577540106898</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
       <c r="B63">
-        <f>0.00035</f>
-        <v>3.5E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="C63">
         <v>280</v>
       </c>
       <c r="D63">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="E63">
         <v>-1</v>
@@ -1951,16 +2302,21 @@
         <v>-1</v>
       </c>
       <c r="G63">
-        <v>0.99251336898395703</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>3</v>
       </c>
       <c r="B64">
-        <f>0.00018</f>
-        <v>1.8000000000000001E-4</v>
+        <v>5.0216499999999995E-4</v>
       </c>
       <c r="C64">
         <v>280</v>
@@ -1975,16 +2331,21 @@
         <v>-1</v>
       </c>
       <c r="G64">
-        <v>0.89470899470899401</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>3</v>
       </c>
       <c r="B65">
-        <f>0.0002</f>
-        <v>2.0000000000000001E-4</v>
+        <v>6.44156E-4</v>
       </c>
       <c r="C65">
         <v>280</v>
@@ -1999,16 +2360,21 @@
         <v>-1</v>
       </c>
       <c r="G65">
-        <v>0.91216931216931196</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>3</v>
       </c>
       <c r="B66">
-        <f>0.00025</f>
-        <v>2.5000000000000001E-4</v>
+        <v>9.904759999999999E-4</v>
       </c>
       <c r="C66">
         <v>280</v>
@@ -2023,16 +2389,21 @@
         <v>-1</v>
       </c>
       <c r="G66">
-        <v>0.96137566137566099</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
       <c r="B67">
-        <f>0.0003</f>
-        <v>2.9999999999999997E-4</v>
+        <v>1.4112549999999999E-3</v>
       </c>
       <c r="C67">
         <v>280</v>
@@ -2047,22 +2418,27 @@
         <v>-1</v>
       </c>
       <c r="G67">
-        <v>0.98148148148148096</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>3</v>
       </c>
       <c r="B68">
-        <f>0.00035</f>
-        <v>3.5E-4</v>
+        <v>2.4242400000000001E-4</v>
       </c>
       <c r="C68">
         <v>280</v>
       </c>
       <c r="D68">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E68">
         <v>-1</v>
@@ -2071,16 +2447,21 @@
         <v>-1</v>
       </c>
       <c r="G68">
-        <v>0.98994708994708902</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.4723619999999997E-3</v>
+      </c>
+      <c r="H68">
+        <v>0.236398467</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>3</v>
       </c>
       <c r="B69">
-        <f>0.00018</f>
-        <v>1.8000000000000001E-4</v>
+        <v>2.7186099999999998E-4</v>
       </c>
       <c r="C69">
         <v>280</v>
@@ -2095,328 +2476,1201 @@
         <v>-1</v>
       </c>
       <c r="G69">
-        <v>0.89894179894179804</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.0201009999999999E-3</v>
+      </c>
+      <c r="H69">
+        <v>0.236398467</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="1">
+        <v>3.0995699999999997E-4</v>
+      </c>
+      <c r="C70" s="1">
+        <v>280</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E70" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G70" s="1">
+        <v>4.773869E-3</v>
+      </c>
+      <c r="H70">
+        <v>0.222605364</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="1">
+        <v>3.6017299999999998E-4</v>
+      </c>
+      <c r="C71" s="1">
+        <v>280</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E71" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F71" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G71" s="1">
+        <v>5.3768840000000002E-3</v>
+      </c>
+      <c r="H71">
+        <v>0.188888889</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="1">
+        <v>4.3636400000000001E-4</v>
+      </c>
+      <c r="C72" s="1">
+        <v>280</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E72" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>8.2412059999999992E-3</v>
+      </c>
+      <c r="H72">
+        <v>0.215708812</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="1">
+        <v>5.4891800000000002E-4</v>
+      </c>
+      <c r="C73" s="1">
+        <v>280</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E73" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1.0502513E-2</v>
+      </c>
+      <c r="H73">
+        <v>0.215708812</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="1">
+        <v>7.1515200000000004E-4</v>
+      </c>
+      <c r="C74" s="1">
+        <v>280</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E74" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1.201005E-2</v>
+      </c>
+      <c r="H74">
+        <v>0.195019157</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1.0147190000000001E-3</v>
+      </c>
+      <c r="C75" s="1">
+        <v>280</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1.201005E-2</v>
+      </c>
+      <c r="H75">
+        <v>0.18735632199999999</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1.4943720000000001E-3</v>
+      </c>
+      <c r="C76" s="1">
+        <v>280</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1.1708543E-2</v>
+      </c>
+      <c r="H76">
+        <v>0.18429118799999999</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2.5800900000000002E-4</v>
+      </c>
+      <c r="C77" s="1">
+        <v>280</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E77" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1.1557789000000001E-2</v>
+      </c>
+      <c r="H77">
+        <v>0.44636015299999998</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="1">
+        <v>2.90909E-4</v>
+      </c>
+      <c r="C78" s="1">
+        <v>280</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E78" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F78" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1.2462312E-2</v>
+      </c>
+      <c r="H78">
+        <v>0.51685823799999997</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="1">
+        <v>3.3419899999999998E-4</v>
+      </c>
+      <c r="C79" s="1">
+        <v>280</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G79" s="1">
+        <v>1.8643216000000001E-2</v>
+      </c>
+      <c r="H79">
+        <v>0.46015325699999998</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="1">
+        <v>3.9307399999999998E-4</v>
+      </c>
+      <c r="C80" s="1">
+        <v>280</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E80" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F80" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G80" s="1">
+        <v>2.9346733999999999E-2</v>
+      </c>
+      <c r="H80">
+        <v>0.493103448</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="1">
+        <v>4.7445899999999999E-4</v>
+      </c>
+      <c r="C81" s="1">
+        <v>280</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E81" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F81" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G81" s="1">
+        <v>2.6783919999999999E-2</v>
+      </c>
+      <c r="H81">
+        <v>0.46015325699999998</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="1">
+        <v>5.9913399999999997E-4</v>
+      </c>
+      <c r="C82" s="1">
+        <v>280</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G82" s="1">
+        <v>2.6783919999999999E-2</v>
+      </c>
+      <c r="H82">
+        <v>0.37739463600000001</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="1">
+        <v>7.7229399999999998E-4</v>
+      </c>
+      <c r="C83" s="1">
+        <v>280</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E83" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F83" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G83" s="1">
+        <v>2.6633166E-2</v>
+      </c>
+      <c r="H83">
+        <v>0.29310344799999999</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <v>1.0320349999999999E-3</v>
+      </c>
+      <c r="C84">
+        <v>280</v>
+      </c>
+      <c r="D84">
+        <v>0.15</v>
+      </c>
+      <c r="E84">
+        <v>-1</v>
+      </c>
+      <c r="F84">
+        <v>-1</v>
+      </c>
+      <c r="G84">
+        <v>2.3316582999999998E-2</v>
+      </c>
+      <c r="H84">
+        <v>0.236398467</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>1.314286E-3</v>
+      </c>
+      <c r="C85">
+        <v>280</v>
+      </c>
+      <c r="D85">
+        <v>0.15</v>
+      </c>
+      <c r="E85">
+        <v>-1</v>
+      </c>
+      <c r="F85">
+        <v>-1</v>
+      </c>
+      <c r="G85">
+        <v>1.8492462000000001E-2</v>
+      </c>
+      <c r="H85">
+        <v>0.21340996200000001</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="C86">
+        <v>280</v>
+      </c>
+      <c r="D86">
+        <v>0.2</v>
+      </c>
+      <c r="E86">
+        <v>-1</v>
+      </c>
+      <c r="F86">
+        <v>0.64973261999999998</v>
+      </c>
+      <c r="G86">
+        <v>-1</v>
+      </c>
+      <c r="H86">
+        <v>-1</v>
+      </c>
+      <c r="I86">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C87">
+        <v>280</v>
+      </c>
+      <c r="D87">
+        <v>0.2</v>
+      </c>
+      <c r="E87">
+        <v>-1</v>
+      </c>
+      <c r="F87">
+        <v>0.91657754000000002</v>
+      </c>
+      <c r="G87">
+        <v>-1</v>
+      </c>
+      <c r="H87">
+        <v>-1</v>
+      </c>
+      <c r="I87">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="C88">
+        <v>280</v>
+      </c>
+      <c r="D88">
+        <v>0.2</v>
+      </c>
+      <c r="E88">
+        <v>-1</v>
+      </c>
+      <c r="F88">
+        <v>0.97754010700000005</v>
+      </c>
+      <c r="G88">
+        <v>-1</v>
+      </c>
+      <c r="H88">
+        <v>-1</v>
+      </c>
+      <c r="I88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C89">
+        <v>280</v>
+      </c>
+      <c r="D89">
+        <v>0.2</v>
+      </c>
+      <c r="E89">
+        <v>-1</v>
+      </c>
+      <c r="F89">
+        <v>0.98716577500000002</v>
+      </c>
+      <c r="G89">
+        <v>-1</v>
+      </c>
+      <c r="H89">
+        <v>-1</v>
+      </c>
+      <c r="I89">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90">
+        <v>3.5E-4</v>
+      </c>
+      <c r="C90">
+        <v>280</v>
+      </c>
+      <c r="D90">
+        <v>0.2</v>
+      </c>
+      <c r="E90">
+        <v>-1</v>
+      </c>
+      <c r="F90">
+        <v>0.99251336899999998</v>
+      </c>
+      <c r="G90">
+        <v>-1</v>
+      </c>
+      <c r="H90">
+        <v>-1</v>
+      </c>
+      <c r="I90">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="C91">
+        <v>280</v>
+      </c>
+      <c r="D91">
+        <v>0.05</v>
+      </c>
+      <c r="E91">
+        <v>-1</v>
+      </c>
+      <c r="F91">
+        <v>0.89470899500000001</v>
+      </c>
+      <c r="G91">
+        <v>-1</v>
+      </c>
+      <c r="H91">
+        <v>-1</v>
+      </c>
+      <c r="I91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C92">
+        <v>280</v>
+      </c>
+      <c r="D92">
+        <v>0.05</v>
+      </c>
+      <c r="E92">
+        <v>-1</v>
+      </c>
+      <c r="F92">
+        <v>0.91216931199999995</v>
+      </c>
+      <c r="G92">
+        <v>-1</v>
+      </c>
+      <c r="H92">
+        <v>-1</v>
+      </c>
+      <c r="I92">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="C93">
+        <v>280</v>
+      </c>
+      <c r="D93">
+        <v>0.05</v>
+      </c>
+      <c r="E93">
+        <v>-1</v>
+      </c>
+      <c r="F93">
+        <v>0.96137566100000005</v>
+      </c>
+      <c r="G93">
+        <v>-1</v>
+      </c>
+      <c r="H93">
+        <v>-1</v>
+      </c>
+      <c r="I93">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C94">
+        <v>280</v>
+      </c>
+      <c r="D94">
+        <v>0.05</v>
+      </c>
+      <c r="E94">
+        <v>-1</v>
+      </c>
+      <c r="F94">
+        <v>0.98148148099999999</v>
+      </c>
+      <c r="G94">
+        <v>-1</v>
+      </c>
+      <c r="H94">
+        <v>-1</v>
+      </c>
+      <c r="I94">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95">
+        <v>3.5E-4</v>
+      </c>
+      <c r="C95">
+        <v>280</v>
+      </c>
+      <c r="D95">
+        <v>0.05</v>
+      </c>
+      <c r="E95">
+        <v>-1</v>
+      </c>
+      <c r="F95">
+        <v>0.98994709000000003</v>
+      </c>
+      <c r="G95">
+        <v>-1</v>
+      </c>
+      <c r="H95">
+        <v>-1</v>
+      </c>
+      <c r="I95">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="C96">
+        <v>280</v>
+      </c>
+      <c r="D96">
+        <v>0.1</v>
+      </c>
+      <c r="E96">
+        <v>-1</v>
+      </c>
+      <c r="F96">
+        <v>0.89894179900000004</v>
+      </c>
+      <c r="G96">
+        <v>-1</v>
+      </c>
+      <c r="H96">
+        <v>-1</v>
+      </c>
+      <c r="I96">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="C97">
+        <v>2050</v>
+      </c>
+      <c r="D97">
+        <v>0.3</v>
+      </c>
+      <c r="E97">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="F97">
+        <v>-1</v>
+      </c>
+      <c r="G97">
+        <v>-1</v>
+      </c>
+      <c r="H97">
+        <v>-1</v>
+      </c>
+      <c r="I97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98">
+        <v>9.0499999999999999E-4</v>
+      </c>
+      <c r="C98">
+        <v>2350</v>
+      </c>
+      <c r="D98">
+        <v>0.5</v>
+      </c>
+      <c r="E98">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="F98">
+        <v>-1</v>
+      </c>
+      <c r="G98">
+        <v>-1</v>
+      </c>
+      <c r="H98">
+        <v>-1</v>
+      </c>
+      <c r="I98">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="1">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="C70" s="1">
-        <v>2050</v>
-      </c>
-      <c r="D70" s="1">
+      <c r="B99">
+        <v>6.3250000000000003E-4</v>
+      </c>
+      <c r="C99">
+        <v>1600</v>
+      </c>
+      <c r="D99">
         <v>0.3</v>
       </c>
-      <c r="E70" s="1">
-        <v>5.9087441444048081E-3</v>
-      </c>
-      <c r="F70" s="1">
-        <v>0</v>
-      </c>
-      <c r="G70" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="E99">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="F99">
+        <v>-1</v>
+      </c>
+      <c r="G99">
+        <v>-1</v>
+      </c>
+      <c r="H99">
+        <v>-1</v>
+      </c>
+      <c r="I99">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="1">
-        <v>9.0499999999999999E-4</v>
-      </c>
-      <c r="C71" s="1">
-        <v>2350</v>
-      </c>
-      <c r="D71" s="1">
+      <c r="B100">
+        <v>6.0749999999999997E-4</v>
+      </c>
+      <c r="C100">
+        <v>1500</v>
+      </c>
+      <c r="D100">
+        <v>0.3</v>
+      </c>
+      <c r="E100">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="F100">
+        <v>-1</v>
+      </c>
+      <c r="G100">
+        <v>-1</v>
+      </c>
+      <c r="H100">
+        <v>-1</v>
+      </c>
+      <c r="I100">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101">
+        <v>7.3800000000000005E-4</v>
+      </c>
+      <c r="C101">
+        <v>1450</v>
+      </c>
+      <c r="D101">
         <v>0.5</v>
       </c>
-      <c r="E71" s="1">
-        <v>5.9087441444048081E-3</v>
-      </c>
-      <c r="F71" s="1">
-        <v>0</v>
-      </c>
-      <c r="G71" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="E101">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="F101">
+        <v>-1</v>
+      </c>
+      <c r="G101">
+        <v>-1</v>
+      </c>
+      <c r="H101">
+        <v>-1</v>
+      </c>
+      <c r="I101">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102">
+        <v>8.6499999999999999E-4</v>
+      </c>
+      <c r="C102">
+        <v>1850</v>
+      </c>
+      <c r="D102">
+        <v>0.5</v>
+      </c>
+      <c r="E102">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="F102">
+        <v>-1</v>
+      </c>
+      <c r="G102">
+        <v>-1</v>
+      </c>
+      <c r="H102">
+        <v>-1</v>
+      </c>
+      <c r="I102">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="1">
-        <v>6.3250000000000003E-4</v>
-      </c>
-      <c r="C72" s="1">
+      <c r="B103">
+        <v>6.2750000000000002E-4</v>
+      </c>
+      <c r="C103">
         <v>1600</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D103">
         <v>0.3</v>
       </c>
-      <c r="E72" s="1">
-        <v>5.9087441444048081E-3</v>
-      </c>
-      <c r="F72" s="1">
-        <v>0</v>
-      </c>
-      <c r="G72" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="E103">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="F103">
+        <v>-1</v>
+      </c>
+      <c r="G103">
+        <v>-1</v>
+      </c>
+      <c r="H103">
+        <v>-1</v>
+      </c>
+      <c r="I103">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="1">
-        <v>6.0749999999999997E-4</v>
-      </c>
-      <c r="C73" s="1">
+      <c r="B104">
+        <v>5.8500000000000002E-4</v>
+      </c>
+      <c r="C104">
+        <v>1450</v>
+      </c>
+      <c r="D104">
+        <v>0.3</v>
+      </c>
+      <c r="E104">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="F104">
+        <v>-1</v>
+      </c>
+      <c r="G104">
+        <v>-1</v>
+      </c>
+      <c r="H104">
+        <v>-1</v>
+      </c>
+      <c r="I104">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105">
+        <v>7.0750000000000001E-4</v>
+      </c>
+      <c r="C105">
+        <v>1400</v>
+      </c>
+      <c r="D105">
+        <v>0.5</v>
+      </c>
+      <c r="E105">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="F105">
+        <v>-1</v>
+      </c>
+      <c r="G105">
+        <v>-1</v>
+      </c>
+      <c r="H105">
+        <v>-1</v>
+      </c>
+      <c r="I105">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106">
+        <v>6.3500000000000004E-4</v>
+      </c>
+      <c r="C106">
+        <v>1150</v>
+      </c>
+      <c r="D106">
+        <v>0.5</v>
+      </c>
+      <c r="E106">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="F106">
+        <v>-1</v>
+      </c>
+      <c r="G106">
+        <v>-1</v>
+      </c>
+      <c r="H106">
+        <v>-1</v>
+      </c>
+      <c r="I106">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107">
+        <v>6.6750000000000002E-4</v>
+      </c>
+      <c r="C107">
+        <v>1600</v>
+      </c>
+      <c r="D107">
+        <v>0.3</v>
+      </c>
+      <c r="E107">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="F107">
+        <v>-1</v>
+      </c>
+      <c r="G107">
+        <v>-1</v>
+      </c>
+      <c r="H107">
+        <v>-1</v>
+      </c>
+      <c r="I107">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108">
+        <v>6.3029999999999998E-4</v>
+      </c>
+      <c r="C108">
         <v>1500</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D108">
         <v>0.3</v>
       </c>
-      <c r="E73" s="1">
-        <v>5.9087441444048081E-3</v>
-      </c>
-      <c r="F73" s="1">
-        <v>0</v>
-      </c>
-      <c r="G73" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" s="1">
-        <v>7.3800000000000005E-4</v>
-      </c>
-      <c r="C74" s="1">
-        <v>1450</v>
-      </c>
-      <c r="D74" s="1">
+      <c r="E108">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="F108">
+        <v>-1</v>
+      </c>
+      <c r="G108">
+        <v>-1</v>
+      </c>
+      <c r="H108">
+        <v>-1</v>
+      </c>
+      <c r="I108">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109">
+        <v>7.2250000000000005E-4</v>
+      </c>
+      <c r="C109">
+        <v>1350</v>
+      </c>
+      <c r="D109">
         <v>0.5</v>
       </c>
-      <c r="E74" s="1">
-        <v>5.9087441444048081E-3</v>
-      </c>
-      <c r="F74" s="1">
-        <v>0</v>
-      </c>
-      <c r="G74" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" s="1">
-        <v>8.6499999999999999E-4</v>
-      </c>
-      <c r="C75" s="1">
-        <v>1850</v>
-      </c>
-      <c r="D75" s="1">
+      <c r="E109">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="F109">
+        <v>-1</v>
+      </c>
+      <c r="G109">
+        <v>-1</v>
+      </c>
+      <c r="H109">
+        <v>-1</v>
+      </c>
+      <c r="I109">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110">
+        <v>6.7250000000000003E-4</v>
+      </c>
+      <c r="C110">
+        <v>1200</v>
+      </c>
+      <c r="D110">
         <v>0.5</v>
       </c>
-      <c r="E75" s="1">
-        <v>5.9087441444048081E-3</v>
-      </c>
-      <c r="F75" s="1">
-        <v>0</v>
-      </c>
-      <c r="G75" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" s="1">
-        <v>6.2750000000000002E-4</v>
-      </c>
-      <c r="C76" s="1">
-        <v>1600</v>
-      </c>
-      <c r="D76" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E76" s="1">
-        <v>5.9087441444048081E-3</v>
-      </c>
-      <c r="F76" s="1">
-        <v>0</v>
-      </c>
-      <c r="G76" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" s="1">
-        <v>5.8500000000000002E-4</v>
-      </c>
-      <c r="C77" s="1">
-        <v>1450</v>
-      </c>
-      <c r="D77" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E77" s="1">
-        <v>5.9087441444048081E-3</v>
-      </c>
-      <c r="F77" s="1">
-        <v>0</v>
-      </c>
-      <c r="G77" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" s="1">
-        <v>7.0750000000000001E-4</v>
-      </c>
-      <c r="C78" s="1">
-        <v>1400</v>
-      </c>
-      <c r="D78" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E78" s="1">
-        <v>5.9087441444048081E-3</v>
-      </c>
-      <c r="F78" s="1">
-        <v>0</v>
-      </c>
-      <c r="G78" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" s="1">
-        <v>6.3500000000000004E-4</v>
-      </c>
-      <c r="C79" s="1">
-        <v>1150</v>
-      </c>
-      <c r="D79" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E79" s="1">
-        <v>5.9087441444048081E-3</v>
-      </c>
-      <c r="F79" s="1">
-        <v>0</v>
-      </c>
-      <c r="G79" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" s="1">
-        <v>6.6750000000000002E-4</v>
-      </c>
-      <c r="C80" s="1">
-        <v>1600</v>
-      </c>
-      <c r="D80" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E80" s="1">
-        <v>5.9087441444048081E-3</v>
-      </c>
-      <c r="F80" s="1">
-        <v>0</v>
-      </c>
-      <c r="G80" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="1">
-        <v>6.3029999999999998E-4</v>
-      </c>
-      <c r="C81" s="1">
-        <v>1500</v>
-      </c>
-      <c r="D81" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E81" s="1">
-        <v>5.9087441444048081E-3</v>
-      </c>
-      <c r="F81" s="1">
-        <v>0</v>
-      </c>
-      <c r="G81" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" s="1">
-        <v>7.2250000000000005E-4</v>
-      </c>
-      <c r="C82" s="1">
-        <v>1350</v>
-      </c>
-      <c r="D82" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E82" s="1">
-        <v>5.9087441444048081E-3</v>
-      </c>
-      <c r="F82" s="1">
-        <v>0</v>
-      </c>
-      <c r="G82" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" s="1">
-        <v>6.7250000000000003E-4</v>
-      </c>
-      <c r="C83" s="1">
-        <v>1200</v>
-      </c>
-      <c r="D83" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E83" s="1">
-        <v>5.9087441444048081E-3</v>
-      </c>
-      <c r="F83" s="1">
-        <v>0</v>
-      </c>
-      <c r="G83" s="1">
+      <c r="E110">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="F110">
+        <v>-1</v>
+      </c>
+      <c r="G110">
+        <v>-1</v>
+      </c>
+      <c r="H110">
+        <v>-1</v>
+      </c>
+      <c r="I110">
         <v>-1</v>
       </c>
     </row>
@@ -2431,7 +3685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2B3A06-4DE5-48EC-A9CD-6616EFAB12EB}">
   <dimension ref="A1:H363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+    <sheetView topLeftCell="A328" workbookViewId="0">
       <selection activeCell="M347" sqref="M347"/>
     </sheetView>
   </sheetViews>
@@ -2446,30 +3700,30 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>8.0239500000000002E-4</v>
@@ -2495,7 +3749,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>6.91448E-4</v>
@@ -2521,7 +3775,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>5.95906E-4</v>
@@ -2547,7 +3801,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>6.2088699999999998E-4</v>
@@ -2573,7 +3827,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>5.9944000000000002E-4</v>
@@ -2599,7 +3853,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>6.1677100000000001E-4</v>
@@ -2625,7 +3879,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>5.9561800000000002E-4</v>
@@ -2651,7 +3905,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>5.7893599999999995E-4</v>
@@ -2677,7 +3931,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>4.9265500000000005E-4</v>
@@ -2703,7 +3957,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>9.1292700000000001E-4</v>
@@ -2729,7 +3983,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>9.8825999999999992E-4</v>
@@ -2755,7 +4009,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>9.4360899999999998E-4</v>
@@ -2781,7 +4035,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>7.7894200000000002E-4</v>
@@ -2807,7 +4061,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>7.8108599999999995E-4</v>
@@ -2833,7 +4087,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>7.4180700000000003E-4</v>
@@ -2859,7 +4113,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>6.3737199999999998E-4</v>
@@ -2885,7 +4139,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>6.3181200000000004E-4</v>
@@ -2911,7 +4165,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>5.6106099999999996E-4</v>
@@ -2937,7 +4191,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>8.0128199999999995E-4</v>
@@ -2963,7 +4217,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>8.1002600000000004E-4</v>
@@ -2989,7 +4243,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>7.8814599999999999E-4</v>
@@ -3015,7 +4269,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>7.1302300000000002E-4</v>
@@ -3041,7 +4295,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>6.9510100000000005E-4</v>
@@ -3067,7 +4321,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>7.0127399999999999E-4</v>
@@ -3093,7 +4347,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>7.3645500000000001E-4</v>
@@ -3119,7 +4373,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27">
         <v>7.2969899999999999E-4</v>
@@ -3145,7 +4399,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28">
         <v>6.9667700000000004E-4</v>
@@ -3171,7 +4425,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>6.4236199999999995E-4</v>
@@ -3197,7 +4451,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30">
         <v>6.8012400000000005E-4</v>
@@ -3223,7 +4477,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31">
         <v>5.9216200000000003E-4</v>
@@ -3249,7 +4503,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32">
         <v>5.9390400000000002E-4</v>
@@ -3275,7 +4529,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33">
         <v>5.8364699999999996E-4</v>
@@ -3301,7 +4555,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34">
         <v>5.1002800000000004E-4</v>
@@ -3327,7 +4581,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35">
         <v>8.0508499999999998E-4</v>
@@ -3353,7 +4607,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36">
         <v>7.6724599999999997E-4</v>
@@ -3379,7 +4633,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37">
         <v>7.0617800000000001E-4</v>
@@ -3405,7 +4659,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38">
         <v>6.90491E-4</v>
@@ -3431,7 +4685,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>6.6872600000000002E-4</v>
@@ -3457,7 +4711,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40">
         <v>6.0886200000000005E-4</v>
@@ -3483,7 +4737,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>5.8638600000000005E-4</v>
@@ -3509,7 +4763,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42">
         <v>5.8743599999999999E-4</v>
@@ -3535,7 +4789,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43">
         <v>5.2147200000000004E-4</v>
@@ -3561,7 +4815,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44">
         <v>7.3430900000000005E-4</v>
@@ -3587,7 +4841,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45">
         <v>6.9824100000000005E-4</v>
@@ -3613,7 +4867,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46">
         <v>6.8666599999999995E-4</v>
@@ -3639,7 +4893,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47">
         <v>6.0317599999999997E-4</v>
@@ -3665,7 +4919,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <v>6.0375999999999995E-4</v>
@@ -3691,7 +4945,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49">
         <v>7.2423300000000002E-4</v>
@@ -3717,7 +4971,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50">
         <v>8.1175500000000005E-4</v>
@@ -3743,7 +4997,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B51">
         <v>7.9663900000000003E-4</v>
@@ -3769,7 +5023,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B52">
         <v>7.5900900000000005E-4</v>
@@ -3795,7 +5049,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B53">
         <v>7.5096099999999997E-4</v>
@@ -3821,7 +5075,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54">
         <v>7.63323E-4</v>
@@ -3847,7 +5101,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B55">
         <v>7.2370699999999997E-4</v>
@@ -3873,7 +5127,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B56">
         <v>7.0107399999999999E-4</v>
@@ -3899,7 +5153,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B57">
         <v>7.1206199999999996E-4</v>
@@ -3925,7 +5179,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B58">
         <v>6.9931300000000002E-4</v>
@@ -3951,7 +5205,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B59">
         <v>7.7304999999999995E-4</v>
@@ -3977,7 +5231,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B60">
         <v>7.7200999999999995E-4</v>
@@ -4003,7 +5257,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B61">
         <v>7.2866900000000004E-4</v>
@@ -4029,7 +5283,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B62">
         <v>7.7559000000000005E-4</v>
@@ -4055,7 +5309,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B63">
         <v>7.6392500000000004E-4</v>
@@ -4081,7 +5335,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B64">
         <v>7.2654800000000004E-4</v>
@@ -4107,7 +5361,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B65">
         <v>7.2222900000000001E-4</v>
@@ -4133,7 +5387,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B66">
         <v>7.1244500000000003E-4</v>
@@ -4159,7 +5413,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B67">
         <v>7.1245100000000001E-4</v>
@@ -4185,7 +5439,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B68">
         <v>7.3421300000000005E-4</v>
@@ -4211,7 +5465,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B69">
         <v>7.4564200000000003E-4</v>
@@ -4237,7 +5491,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B70">
         <v>7.5361500000000001E-4</v>
@@ -4263,7 +5517,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B71">
         <v>6.6505100000000005E-4</v>
@@ -4289,7 +5543,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B72">
         <v>6.3372099999999996E-4</v>
@@ -4315,7 +5569,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B73">
         <v>6.1875899999999998E-4</v>
@@ -4341,7 +5595,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B74">
         <v>6.2012899999999997E-4</v>
@@ -4367,7 +5621,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B75">
         <v>6.5113400000000004E-4</v>
@@ -4393,7 +5647,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B76">
         <v>6.6688800000000003E-4</v>
@@ -4419,7 +5673,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B77">
         <v>5.7892299999999996E-4</v>
@@ -4445,7 +5699,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B78">
         <v>5.6844399999999998E-4</v>
@@ -4471,7 +5725,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B79">
         <v>5.5183900000000004E-4</v>
@@ -4497,7 +5751,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B80">
         <v>5.2785099999999997E-4</v>
@@ -4523,7 +5777,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B81">
         <v>5.4509199999999995E-4</v>
@@ -4549,7 +5803,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B82">
         <v>5.5842000000000001E-4</v>
@@ -4575,7 +5829,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B83">
         <v>8.1662800000000002E-4</v>
@@ -4601,7 +5855,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B84">
         <v>8.2480499999999996E-4</v>
@@ -4627,7 +5881,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B85">
         <v>7.6000999999999998E-4</v>
@@ -4653,7 +5907,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B86">
         <v>7.4356499999999996E-4</v>
@@ -4679,7 +5933,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B87">
         <v>7.9224700000000005E-4</v>
@@ -4705,7 +5959,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B88">
         <v>8.5975099999999996E-4</v>
@@ -4731,7 +5985,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B89">
         <v>7.0235800000000004E-4</v>
@@ -4757,7 +6011,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B90">
         <v>6.7399699999999996E-4</v>
@@ -4783,7 +6037,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B91">
         <v>6.1247500000000002E-4</v>
@@ -4809,7 +6063,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B92">
         <v>5.9411399999999997E-4</v>
@@ -4835,7 +6089,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B93">
         <v>6.1466400000000001E-4</v>
@@ -4861,7 +6115,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B94">
         <v>6.6162899999999995E-4</v>
@@ -4887,7 +6141,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B95">
         <v>5.9813300000000004E-4</v>
@@ -4913,7 +6167,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B96">
         <v>5.8159900000000003E-4</v>
@@ -4939,7 +6193,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B97">
         <v>5.2616900000000005E-4</v>
@@ -4965,7 +6219,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B98">
         <v>5.04985E-4</v>
@@ -4991,7 +6245,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B99">
         <v>5.1139399999999998E-4</v>
@@ -5017,7 +6271,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B100">
         <v>5.3669500000000001E-4</v>
@@ -5043,7 +6297,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B101">
         <v>7.1749599999999998E-4</v>
@@ -5069,7 +6323,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B102">
         <v>7.0684700000000003E-4</v>
@@ -5095,7 +6349,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B103">
         <v>6.9391699999999995E-4</v>
@@ -5121,7 +6375,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B104">
         <v>6.8117199999999996E-4</v>
@@ -5147,7 +6401,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B105">
         <v>6.7872799999999997E-4</v>
@@ -5173,7 +6427,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B106">
         <v>7.1950099999999999E-4</v>
@@ -5199,7 +6453,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B107">
         <v>6.1575900000000001E-4</v>
@@ -5225,7 +6479,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B108">
         <v>6.0389799999999996E-4</v>
@@ -5251,7 +6505,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B109">
         <v>5.7284199999999995E-4</v>
@@ -5277,7 +6531,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B110">
         <v>5.5556900000000001E-4</v>
@@ -5303,7 +6557,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B111">
         <v>5.6215900000000001E-4</v>
@@ -5329,7 +6583,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B112">
         <v>5.4408699999999996E-4</v>
@@ -5355,7 +6609,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B113">
         <v>4.5836E-4</v>
@@ -5381,7 +6635,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B114">
         <v>3.0230799999999999E-4</v>
@@ -5407,7 +6661,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B115">
         <v>2.0462099999999999E-4</v>
@@ -5433,7 +6687,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B116">
         <v>5.2193699999999999E-4</v>
@@ -5459,7 +6713,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B117">
         <v>4.4927699999999999E-4</v>
@@ -5485,7 +6739,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B118">
         <v>2.8546399999999998E-4</v>
@@ -5511,7 +6765,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B119">
         <v>2.4194099999999999E-4</v>
@@ -5537,7 +6791,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B120">
         <v>6.5725699999999996E-4</v>
@@ -5563,7 +6817,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B121">
         <v>5.2808399999999995E-4</v>
@@ -5589,7 +6843,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B122">
         <v>3.5915099999999999E-4</v>
@@ -5615,7 +6869,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B123">
         <v>3.1127999999999999E-4</v>
@@ -5641,7 +6895,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B124">
         <v>4.7841700000000002E-4</v>
@@ -5667,7 +6921,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B125">
         <v>4.9956000000000002E-4</v>
@@ -5693,7 +6947,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B126">
         <v>3.2126799999999999E-4</v>
@@ -5719,7 +6973,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B127">
         <v>2.7020599999999999E-4</v>
@@ -5745,7 +6999,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B128">
         <v>4.9661200000000001E-4</v>
@@ -5771,7 +7025,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B129">
         <v>5.3819899999999995E-4</v>
@@ -5797,7 +7051,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B130">
         <v>3.5480499999999998E-4</v>
@@ -5823,7 +7077,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B131">
         <v>3.0498E-4</v>
@@ -5849,7 +7103,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B132">
         <v>5.7161400000000002E-4</v>
@@ -5875,7 +7129,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B133">
         <v>6.1787599999999995E-4</v>
@@ -5901,7 +7155,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B134">
         <v>4.3410900000000001E-4</v>
@@ -5927,7 +7181,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B135">
         <v>3.79055E-4</v>
@@ -5953,7 +7207,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B136">
         <v>5.0153199999999995E-4</v>
@@ -5979,7 +7233,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B137">
         <v>5.0392299999999998E-4</v>
@@ -6005,7 +7259,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B138">
         <v>3.4781999999999999E-4</v>
@@ -6031,7 +7285,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B139">
         <v>2.7612200000000001E-4</v>
@@ -6057,7 +7311,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B140">
         <v>5.4036500000000001E-4</v>
@@ -6083,7 +7337,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B141">
         <v>5.2480699999999996E-4</v>
@@ -6109,7 +7363,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B142">
         <v>3.9074900000000002E-4</v>
@@ -6135,7 +7389,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B143">
         <v>3.3084899999999998E-4</v>
@@ -6161,7 +7415,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B144">
         <v>5.6678999999999996E-4</v>
@@ -6187,7 +7441,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B145">
         <v>6.0097700000000004E-4</v>
@@ -6213,7 +7467,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B146">
         <v>4.8327E-4</v>
@@ -6239,7 +7493,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B147">
         <v>4.9274500000000005E-4</v>
@@ -6265,7 +7519,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B148">
         <v>3.2658299999999997E-4</v>
@@ -6291,7 +7545,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B149">
         <v>2.25011E-4</v>
@@ -6317,7 +7571,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B150">
         <v>5.0822400000000005E-4</v>
@@ -6343,7 +7597,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B151">
         <v>3.85542E-4</v>
@@ -6369,7 +7623,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B152">
         <v>2.7817599999999999E-4</v>
@@ -6395,7 +7649,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B153">
         <v>5.7829300000000001E-4</v>
@@ -6421,7 +7675,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B154">
         <v>4.49791E-4</v>
@@ -6447,7 +7701,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B155">
         <v>3.38769E-4</v>
@@ -6473,7 +7727,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B156">
         <v>5.0523799999999998E-4</v>
@@ -6499,7 +7753,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B157">
         <v>3.7785800000000001E-4</v>
@@ -6525,7 +7779,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B158">
         <v>2.8554999999999997E-4</v>
@@ -6551,7 +7805,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B159">
         <v>4.70111E-4</v>
@@ -6577,7 +7831,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B160">
         <v>4.27133E-4</v>
@@ -6603,7 +7857,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B161">
         <v>3.3823700000000002E-4</v>
@@ -6629,7 +7883,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B162">
         <v>5.7063399999999998E-4</v>
@@ -6655,7 +7909,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B163">
         <v>5.2623700000000004E-4</v>
@@ -6681,7 +7935,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B164">
         <v>3.8766700000000001E-4</v>
@@ -6707,7 +7961,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B165">
         <v>4.8464800000000001E-4</v>
@@ -6733,7 +7987,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B166">
         <v>4.0982300000000002E-4</v>
@@ -6759,7 +8013,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B167">
         <v>3.1294599999999998E-4</v>
@@ -6785,7 +8039,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B168">
         <v>5.2144500000000005E-4</v>
@@ -6811,7 +8065,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B169">
         <v>4.6947900000000002E-4</v>
@@ -6837,7 +8091,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B170">
         <v>3.4246299999999999E-4</v>
@@ -6863,7 +8117,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B171">
         <v>5.7827599999999996E-4</v>
@@ -6889,7 +8143,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B172">
         <v>5.4361800000000005E-4</v>
@@ -6915,7 +8169,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B173">
         <v>3.1115599999999999E-4</v>
@@ -6941,7 +8195,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B174">
         <v>4.84589E-4</v>
@@ -6967,7 +8221,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B175">
         <v>4.84723E-4</v>
@@ -6993,7 +8247,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B176">
         <v>4.2448600000000001E-4</v>
@@ -7019,7 +8273,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B177">
         <v>3.21245E-4</v>
@@ -7045,7 +8299,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B178">
         <v>2.53766E-4</v>
@@ -7071,7 +8325,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B179">
         <v>2.18042E-4</v>
@@ -7097,7 +8351,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B180">
         <v>2.04692E-4</v>
@@ -7123,7 +8377,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B181">
         <v>5.2550700000000004E-4</v>
@@ -7149,7 +8403,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B182">
         <v>5.3621300000000001E-4</v>
@@ -7175,7 +8429,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B183">
         <v>4.7342700000000001E-4</v>
@@ -7201,7 +8455,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B184">
         <v>3.60226E-4</v>
@@ -7227,7 +8481,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B185">
         <v>2.6574900000000002E-4</v>
@@ -7253,7 +8507,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B186">
         <v>2.40091E-4</v>
@@ -7279,7 +8533,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B187">
         <v>2.2167000000000001E-4</v>
@@ -7305,7 +8559,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B188">
         <v>6.5489400000000005E-4</v>
@@ -7331,7 +8585,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B189">
         <v>6.7796600000000001E-4</v>
@@ -7357,7 +8611,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B190">
         <v>5.4967899999999997E-4</v>
@@ -7383,7 +8637,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B191">
         <v>3.9895000000000002E-4</v>
@@ -7409,7 +8663,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B192">
         <v>3.54428E-4</v>
@@ -7435,7 +8689,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B193">
         <v>3.3188100000000002E-4</v>
@@ -7461,7 +8715,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B194">
         <v>3.1751099999999998E-4</v>
@@ -7487,7 +8741,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B195">
         <v>5.18681E-4</v>
@@ -7513,7 +8767,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B196">
         <v>4.9001800000000005E-4</v>
@@ -7539,7 +8793,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B197">
         <v>5.0937400000000005E-4</v>
@@ -7565,7 +8819,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B198">
         <v>3.65507E-4</v>
@@ -7591,7 +8845,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B199">
         <v>3.0124600000000002E-4</v>
@@ -7617,7 +8871,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B200">
         <v>2.8024199999999999E-4</v>
@@ -7643,7 +8897,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B201">
         <v>2.7145000000000001E-4</v>
@@ -7669,7 +8923,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B202">
         <v>4.9716300000000001E-4</v>
@@ -7695,7 +8949,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B203">
         <v>4.92466E-4</v>
@@ -7721,7 +8975,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B204">
         <v>5.3962499999999996E-4</v>
@@ -7747,7 +9001,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B205">
         <v>4.2028999999999998E-4</v>
@@ -7773,7 +9027,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B206">
         <v>3.3060400000000002E-4</v>
@@ -7799,7 +9053,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B207">
         <v>3.0584500000000001E-4</v>
@@ -7825,7 +9079,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B208">
         <v>2.9125199999999998E-4</v>
@@ -7851,7 +9105,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B209">
         <v>5.6804700000000002E-4</v>
@@ -7877,7 +9131,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B210">
         <v>5.8126300000000005E-4</v>
@@ -7903,7 +9157,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B211">
         <v>6.2164100000000003E-4</v>
@@ -7929,7 +9183,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B212">
         <v>4.8212199999999998E-4</v>
@@ -7955,7 +9209,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B213">
         <v>3.6832299999999999E-4</v>
@@ -7981,7 +9235,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B214">
         <v>3.2732300000000002E-4</v>
@@ -8007,7 +9261,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B215">
         <v>3.2196200000000002E-4</v>
@@ -8033,7 +9287,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B216">
         <v>4.8343099999999999E-4</v>
@@ -8059,7 +9313,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B217">
         <v>4.7872600000000001E-4</v>
@@ -8085,7 +9339,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B218">
         <v>4.4455299999999998E-4</v>
@@ -8111,7 +9365,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B219">
         <v>3.8442400000000002E-4</v>
@@ -8137,7 +9391,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B220">
         <v>3.2228600000000002E-4</v>
@@ -8163,7 +9417,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B221">
         <v>2.9366100000000002E-4</v>
@@ -8189,7 +9443,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B222">
         <v>2.7240599999999999E-4</v>
@@ -8215,7 +9469,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B223">
         <v>5.1822599999999999E-4</v>
@@ -8241,7 +9495,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B224">
         <v>5.0449399999999997E-4</v>
@@ -8267,7 +9521,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B225">
         <v>5.07009E-4</v>
@@ -8293,7 +9547,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B226">
         <v>4.29863E-4</v>
@@ -8319,7 +9573,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B227">
         <v>3.4672300000000001E-4</v>
@@ -8345,7 +9599,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B228">
         <v>3.13467E-4</v>
@@ -8371,7 +9625,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B229">
         <v>3.0008900000000002E-4</v>
@@ -8397,7 +9651,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B230">
         <v>5.6569300000000003E-4</v>
@@ -8423,7 +9677,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B231">
         <v>5.6636299999999996E-4</v>
@@ -8449,7 +9703,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B232">
         <v>5.5780800000000002E-4</v>
@@ -8475,7 +9729,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B233">
         <v>4.9915300000000001E-4</v>
@@ -8501,7 +9755,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B234">
         <v>4.11395E-4</v>
@@ -8527,7 +9781,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B235">
         <v>3.53161E-4</v>
@@ -8553,7 +9807,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B236">
         <v>4.7270299999999999E-4</v>
@@ -8579,7 +9833,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B237">
         <v>4.6852800000000001E-4</v>
@@ -8605,7 +9859,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B238">
         <v>4.1679199999999998E-4</v>
@@ -8631,7 +9885,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B239">
         <v>3.2306400000000002E-4</v>
@@ -8657,7 +9911,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B240">
         <v>2.6293600000000002E-4</v>
@@ -8683,7 +9937,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B241">
         <v>2.2804999999999999E-4</v>
@@ -8709,7 +9963,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B242">
         <v>2.0938099999999999E-4</v>
@@ -8735,7 +9989,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B243">
         <v>5.0179900000000004E-4</v>
@@ -8761,7 +10015,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B244">
         <v>5.1192700000000002E-4</v>
@@ -8787,7 +10041,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B245">
         <v>4.3557999999999997E-4</v>
@@ -8813,7 +10067,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B246">
         <v>3.5768399999999999E-4</v>
@@ -8839,7 +10093,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B247">
         <v>2.76524E-4</v>
@@ -8865,7 +10119,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B248">
         <v>2.5828500000000002E-4</v>
@@ -8891,7 +10145,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B249">
         <v>2.3551900000000001E-4</v>
@@ -8917,7 +10171,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B250">
         <v>6.48955E-4</v>
@@ -8943,7 +10197,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B251">
         <v>6.1183099999999996E-4</v>
@@ -8969,7 +10223,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B252">
         <v>5.1377200000000001E-4</v>
@@ -8995,7 +10249,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B253">
         <v>4.3876499999999998E-4</v>
@@ -9021,7 +10275,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B254">
         <v>3.4390000000000001E-4</v>
@@ -9047,7 +10301,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B255">
         <v>3.10771E-4</v>
@@ -9073,7 +10327,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B256">
         <v>3.0146300000000002E-4</v>
@@ -9099,7 +10353,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B257">
         <v>4.7849500000000001E-4</v>
@@ -9125,7 +10379,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B258">
         <v>5.0275999999999999E-4</v>
@@ -9151,7 +10405,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B259">
         <v>5.1740599999999999E-4</v>
@@ -9177,7 +10431,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B260">
         <v>3.7951899999999998E-4</v>
@@ -9203,7 +10457,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B261">
         <v>3.2461399999999998E-4</v>
@@ -9229,7 +10483,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B262">
         <v>2.92262E-4</v>
@@ -9255,7 +10509,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B263">
         <v>2.7891199999999998E-4</v>
@@ -9281,7 +10535,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B264">
         <v>4.4690600000000001E-4</v>
@@ -9307,7 +10561,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B265">
         <v>4.50968E-4</v>
@@ -9333,7 +10587,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B266">
         <v>4.99166E-4</v>
@@ -9359,7 +10613,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B267">
         <v>4.3689199999999998E-4</v>
@@ -9385,7 +10639,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B268">
         <v>3.6157600000000001E-4</v>
@@ -9411,7 +10665,7 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B269">
         <v>3.40119E-4</v>
@@ -9437,7 +10691,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B270">
         <v>3.23025E-4</v>
@@ -9463,7 +10717,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B271">
         <v>5.6255699999999999E-4</v>
@@ -9489,7 +10743,7 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B272">
         <v>5.7886999999999999E-4</v>
@@ -9515,7 +10769,7 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B273">
         <v>6.3783199999999996E-4</v>
@@ -9541,7 +10795,7 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B274">
         <v>5.2629499999999997E-4</v>
@@ -9567,7 +10821,7 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B275">
         <v>4.5853300000000001E-4</v>
@@ -9593,7 +10847,7 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B276">
         <v>4.09391E-4</v>
@@ -9619,7 +10873,7 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B277">
         <v>4.1426199999999999E-4</v>
@@ -9645,7 +10899,7 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B278">
         <v>4.8616099999999998E-4</v>
@@ -9671,7 +10925,7 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B279">
         <v>4.9223300000000002E-4</v>
@@ -9697,7 +10951,7 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B280">
         <v>4.8966000000000005E-4</v>
@@ -9723,7 +10977,7 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B281">
         <v>4.1326699999999999E-4</v>
@@ -9749,7 +11003,7 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B282">
         <v>3.5472599999999998E-4</v>
@@ -9775,7 +11029,7 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B283">
         <v>3.0862499999999998E-4</v>
@@ -9801,7 +11055,7 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B284">
         <v>2.9086800000000001E-4</v>
@@ -9827,7 +11081,7 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B285">
         <v>5.3141199999999999E-4</v>
@@ -9853,7 +11107,7 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B286">
         <v>4.9130500000000004E-4</v>
@@ -9879,7 +11133,7 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B287">
         <v>4.9682100000000005E-4</v>
@@ -9905,7 +11159,7 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B288">
         <v>4.6433100000000001E-4</v>
@@ -9931,7 +11185,7 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B289">
         <v>4.0902799999999997E-4</v>
@@ -9957,7 +11211,7 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B290">
         <v>3.7444099999999999E-4</v>
@@ -9983,7 +11237,7 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B291">
         <v>3.3825899999999999E-4</v>
@@ -10009,7 +11263,7 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B292">
         <v>5.5933100000000004E-4</v>
@@ -10035,7 +11289,7 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B293">
         <v>5.6149699999999999E-4</v>
@@ -10061,7 +11315,7 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B294">
         <v>5.6852900000000002E-4</v>
@@ -10087,7 +11341,7 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B295">
         <v>5.5993099999999995E-4</v>
@@ -10113,7 +11367,7 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B296">
         <v>4.9463399999999998E-4</v>
@@ -10139,7 +11393,7 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B297">
         <v>4.6393200000000002E-4</v>
@@ -10165,7 +11419,7 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B298">
         <v>3.34135E-4</v>
@@ -10191,7 +11445,7 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B299">
         <v>4.2709099999999999E-4</v>
@@ -10217,7 +11471,7 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B300">
         <v>4.3149099999999999E-4</v>
@@ -10243,7 +11497,7 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B301">
         <v>3.9097999999999997E-4</v>
@@ -10269,7 +11523,7 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B302">
         <v>3.3918300000000001E-4</v>
@@ -10295,7 +11549,7 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B303">
         <v>2.9627499999999998E-4</v>
@@ -10321,7 +11575,7 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B304">
         <v>2.7603600000000001E-4</v>
@@ -10347,7 +11601,7 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B305">
         <v>2.64763E-4</v>
@@ -10373,7 +11627,7 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B306">
         <v>4.6320699999999999E-4</v>
@@ -10399,7 +11653,7 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B307">
         <v>4.5498799999999997E-4</v>
@@ -10425,7 +11679,7 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B308">
         <v>4.3629200000000002E-4</v>
@@ -10451,7 +11705,7 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B309">
         <v>3.9866700000000001E-4</v>
@@ -10477,7 +11731,7 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B310">
         <v>3.3655799999999999E-4</v>
@@ -10503,7 +11757,7 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B311">
         <v>3.0972699999999998E-4</v>
@@ -10529,7 +11783,7 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B312">
         <v>2.9860200000000003E-4</v>
@@ -10555,7 +11809,7 @@
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B313">
         <v>5.8556899999999998E-4</v>
@@ -10581,7 +11835,7 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B314">
         <v>5.4085199999999998E-4</v>
@@ -10607,7 +11861,7 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B315">
         <v>5.2526299999999999E-4</v>
@@ -10633,7 +11887,7 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B316">
         <v>4.62764E-4</v>
@@ -10659,7 +11913,7 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B317">
         <v>3.65235E-4</v>
@@ -10685,7 +11939,7 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B318">
         <v>3.27277E-4</v>
@@ -10711,7 +11965,7 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B319">
         <v>3.14875E-4</v>
@@ -10737,7 +11991,7 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B320">
         <v>5.3314300000000003E-4</v>
@@ -10763,7 +12017,7 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B321">
         <v>5.1531000000000005E-4</v>
@@ -10789,7 +12043,7 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B322">
         <v>4.7795299999999998E-4</v>
@@ -10815,7 +12069,7 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B323">
         <v>3.6146000000000003E-4</v>
@@ -10841,7 +12095,7 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B324">
         <v>2.9615000000000002E-4</v>
@@ -10867,7 +12121,7 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B325">
         <v>2.6539199999999998E-4</v>
@@ -10893,7 +12147,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B326">
         <v>2.54348E-4</v>
@@ -10919,7 +12173,7 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B327">
         <v>5.5100500000000003E-4</v>
@@ -10945,7 +12199,7 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B328">
         <v>5.6732099999999997E-4</v>
@@ -10971,7 +12225,7 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B329">
         <v>5.3201699999999997E-4</v>
@@ -10997,7 +12251,7 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B330">
         <v>4.2268500000000001E-4</v>
@@ -11023,7 +12277,7 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B331">
         <v>3.2515300000000001E-4</v>
@@ -11049,7 +12303,7 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B332">
         <v>3.0033399999999997E-4</v>
@@ -11075,7 +12329,7 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B333">
         <v>2.8682499999999999E-4</v>
@@ -11101,7 +12355,7 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B334">
         <v>6.5962200000000001E-4</v>
@@ -11127,7 +12381,7 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B335">
         <v>6.4296000000000004E-4</v>
@@ -11153,7 +12407,7 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B336">
         <v>6.3665800000000002E-4</v>
@@ -11179,7 +12433,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B337">
         <v>6.3738399999999995E-4</v>
@@ -11205,7 +12459,7 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B338">
         <v>6.19449E-4</v>
@@ -11231,7 +12485,7 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B339">
         <v>4.9860200000000001E-4</v>
@@ -11257,7 +12511,7 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B340">
         <v>3.6904199999999998E-4</v>
@@ -11283,7 +12537,7 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B341">
         <v>3.21902E-4</v>
@@ -11309,7 +12563,7 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B342">
         <v>3.0918599999999998E-4</v>
@@ -11335,7 +12589,7 @@
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B343">
         <v>4.85129E-4</v>
@@ -11361,7 +12615,7 @@
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B344">
         <v>4.7428800000000001E-4</v>
@@ -11387,7 +12641,7 @@
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B345">
         <v>4.58329E-4</v>
@@ -11413,7 +12667,7 @@
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B346">
         <v>3.9580799999999999E-4</v>
@@ -11439,7 +12693,7 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B347">
         <v>3.3780799999999999E-4</v>
@@ -11465,7 +12719,7 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B348">
         <v>2.9499700000000002E-4</v>
@@ -11491,7 +12745,7 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B349">
         <v>2.7738399999999999E-4</v>
@@ -11517,7 +12771,7 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B350">
         <v>5.13668E-4</v>
@@ -11543,7 +12797,7 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B351">
         <v>5.3114999999999998E-4</v>
@@ -11569,7 +12823,7 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B352">
         <v>5.0897099999999999E-4</v>
@@ -11595,7 +12849,7 @@
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B353">
         <v>4.3509100000000003E-4</v>
@@ -11621,7 +12875,7 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B354">
         <v>3.6169799999999998E-4</v>
@@ -11647,7 +12901,7 @@
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B355">
         <v>3.3175099999999998E-4</v>
@@ -11673,7 +12927,7 @@
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B356">
         <v>3.0890699999999998E-4</v>
@@ -11699,7 +12953,7 @@
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B357">
         <v>5.4922200000000003E-4</v>
@@ -11725,7 +12979,7 @@
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B358">
         <v>5.5316299999999996E-4</v>
@@ -11751,7 +13005,7 @@
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B359">
         <v>5.5357200000000001E-4</v>
@@ -11777,7 +13031,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B360">
         <v>5.1459900000000002E-4</v>
@@ -11803,7 +13057,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B361">
         <v>4.2470700000000003E-4</v>
@@ -11829,7 +13083,7 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B362">
         <v>3.68847E-4</v>
@@ -11855,7 +13109,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B363">
         <v>3.3055999999999998E-4</v>
@@ -11899,30 +13153,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>2.0462099999999999E-4</v>
@@ -11948,7 +13202,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>6.5725699999999996E-4</v>
@@ -11974,7 +13228,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>3.1127999999999999E-4</v>
@@ -12000,7 +13254,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>4.4927699999999999E-4</v>
@@ -12026,7 +13280,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>5.4967899999999997E-4</v>
@@ -12052,7 +13306,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>3.38769E-4</v>
@@ -12078,7 +13332,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>2.4194099999999999E-4</v>
@@ -12104,7 +13358,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>4.9274500000000005E-4</v>
@@ -12130,7 +13384,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>6.1183099999999996E-4</v>
@@ -12156,7 +13410,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>3.9097999999999997E-4</v>
@@ -12182,7 +13436,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>2.2167000000000001E-4</v>
@@ -12208,7 +13462,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>6.7796600000000001E-4</v>
@@ -12234,7 +13488,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>2.54348E-4</v>
@@ -12260,7 +13514,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>8.0239500000000002E-4</v>
@@ -12286,7 +13540,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>5.0275999999999999E-4</v>
@@ -12312,7 +13566,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>5.9944000000000002E-4</v>
@@ -12338,7 +13592,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>7.1244500000000003E-4</v>
@@ -12364,7 +13618,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>3.7785800000000001E-4</v>
@@ -12390,7 +13644,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20">
         <v>5.6844399999999998E-4</v>
@@ -12416,7 +13670,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>6.5962200000000001E-4</v>
@@ -12442,7 +13696,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22">
         <v>7.5361500000000001E-4</v>
@@ -12468,7 +13722,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23">
         <v>3.65507E-4</v>
@@ -12494,7 +13748,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>3.21902E-4</v>
@@ -12520,7 +13774,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25">
         <v>4.4690600000000001E-4</v>
@@ -12546,7 +13800,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26">
         <v>2.6539199999999998E-4</v>
@@ -12572,7 +13826,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27">
         <v>2.7240599999999999E-4</v>
@@ -12598,7 +13852,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28">
         <v>5.6636299999999996E-4</v>
@@ -12624,7 +13878,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29">
         <v>4.4455299999999998E-4</v>
@@ -12650,7 +13904,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30">
         <v>3.4781999999999999E-4</v>
@@ -12676,7 +13930,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31">
         <v>3.0862499999999998E-4</v>
@@ -12702,7 +13956,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32">
         <v>3.9580799999999999E-4</v>
@@ -12728,7 +13982,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33">
         <v>4.85129E-4</v>
@@ -12754,7 +14008,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34">
         <v>4.7428800000000001E-4</v>
@@ -12780,7 +14034,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35">
         <v>3.4672300000000001E-4</v>
@@ -12806,7 +14060,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36">
         <v>5.7827599999999996E-4</v>
@@ -12832,7 +14086,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37">
         <v>4.6433100000000001E-4</v>
@@ -12858,7 +14112,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38">
         <v>4.11395E-4</v>
@@ -12884,7 +14138,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39">
         <v>3.13467E-4</v>
@@ -12910,7 +14164,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40">
         <v>7.2654800000000004E-4</v>
@@ -12936,7 +14190,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41">
         <v>8.1662800000000002E-4</v>
@@ -12962,7 +14216,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>8.5975099999999996E-4</v>
@@ -12988,7 +14242,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43">
         <v>7.0617800000000001E-4</v>
@@ -13014,7 +14268,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>6.3737199999999998E-4</v>
@@ -13040,7 +14294,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45">
         <v>5.2616900000000005E-4</v>
@@ -13066,7 +14320,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>7.4180700000000003E-4</v>
@@ -13092,7 +14346,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>9.1292700000000001E-4</v>
@@ -13118,7 +14372,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B48">
         <v>9.4360899999999998E-4</v>
@@ -13144,7 +14398,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49">
         <v>6.1466400000000001E-4</v>
@@ -13170,7 +14424,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50">
         <v>6.6162899999999995E-4</v>
@@ -13196,7 +14450,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B51">
         <v>7.2370699999999997E-4</v>
@@ -13222,7 +14476,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>8.0128199999999995E-4</v>
@@ -13248,7 +14502,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B53">
         <v>6.8117199999999996E-4</v>
@@ -13274,7 +14528,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54">
         <v>6.1575900000000001E-4</v>
@@ -13300,7 +14554,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B55">
         <v>5.7284199999999995E-4</v>
@@ -13326,7 +14580,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B56">
         <v>7.3430900000000005E-4</v>
@@ -14262,7 +15516,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B92">
         <v>6.9999999999999999E-4</v>
@@ -14288,7 +15542,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B93">
         <v>9.0499999999999999E-4</v>
@@ -14314,7 +15568,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B94">
         <v>6.3250000000000003E-4</v>
@@ -14340,7 +15594,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B95">
         <v>6.0749999999999997E-4</v>
@@ -14366,7 +15620,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B96">
         <v>7.3800000000000005E-4</v>
@@ -14392,7 +15646,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B97">
         <v>8.6499999999999999E-4</v>
@@ -14418,7 +15672,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B98">
         <v>6.2750000000000002E-4</v>
@@ -14444,7 +15698,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B99">
         <v>5.8500000000000002E-4</v>
@@ -14470,7 +15724,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B100">
         <v>7.0750000000000001E-4</v>
@@ -14496,7 +15750,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B101">
         <v>6.3500000000000004E-4</v>
@@ -14522,7 +15776,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B102">
         <v>6.6750000000000002E-4</v>
@@ -14548,7 +15802,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B103">
         <v>6.3029999999999998E-4</v>
@@ -14574,7 +15828,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B104">
         <v>7.2250000000000005E-4</v>
@@ -14600,7 +15854,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B105">
         <v>6.7250000000000003E-4</v>
@@ -14644,16 +15898,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">

--- a/Separator Model/Input/data_main.xlsx
+++ b/Separator Model/Input/data_main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iagr9\Projekte\MA\MA-Model_4\Separator Model\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\public\03 Studenten\00 Ausgeschieden\Ivan Guzman\05_Simulations\Abscheidermodell\MA\MA-Model_4\Separator Model\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8DD418-0809-49B3-8D11-082D042A81F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFBE033-F80E-442B-86A0-AABEE390BE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -194,7 +197,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -474,11 +477,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection sqref="A1:I110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3689,7 +3692,7 @@
       <selection activeCell="M347" sqref="M347"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -13146,7 +13149,7 @@
       <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -15891,7 +15894,7 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/Separator Model/Input/data_main.xlsx
+++ b/Separator Model/Input/data_main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\public\03 Studenten\00 Ausgeschieden\Ivan Guzman\05_Simulations\Abscheidermodell\MA\MA-Model_4\Separator Model\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFBE033-F80E-442B-86A0-AABEE390BE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2C9036-8D1C-47EA-B6C9-4A1E58002713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="23">
   <si>
     <t>exp</t>
   </si>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13143,15 +13143,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D26A40-5EC0-4FC2-A7B8-9E1205DD29FB}">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -13164,2721 +13164,882 @@
       <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>2.0462099999999999E-4</v>
-      </c>
-      <c r="C2">
-        <v>743.10170100000005</v>
-      </c>
-      <c r="D2">
-        <v>0.29701893400000001</v>
-      </c>
-      <c r="E2">
-        <v>3.55819E-2</v>
-      </c>
-      <c r="F2">
-        <v>9.6633421999999997E-2</v>
-      </c>
-      <c r="G2">
-        <v>4.4652340000000002E-3</v>
-      </c>
-      <c r="H2">
-        <v>0.98750888400000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>6.5725699999999996E-4</v>
-      </c>
-      <c r="C3">
-        <v>748.36788460000002</v>
-      </c>
-      <c r="D3">
-        <v>0.50333939500000002</v>
-      </c>
-      <c r="E3">
-        <v>2.2846333E-2</v>
-      </c>
-      <c r="F3">
-        <v>9.2660582000000005E-2</v>
-      </c>
-      <c r="G3">
-        <v>1.528742E-3</v>
-      </c>
-      <c r="H3">
-        <v>0.99108918400000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>3.1127999999999999E-4</v>
-      </c>
-      <c r="C4">
-        <v>749.92972780000002</v>
-      </c>
-      <c r="D4">
-        <v>0.49988101000000001</v>
-      </c>
-      <c r="E4">
-        <v>3.3656999999999999E-2</v>
-      </c>
-      <c r="F4">
-        <v>0.10772396300000001</v>
-      </c>
-      <c r="G4">
-        <v>4.7552549999999999E-3</v>
-      </c>
-      <c r="H4">
-        <v>0.99268671900000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>4.4927699999999999E-4</v>
-      </c>
-      <c r="C5">
-        <v>749.97402599999998</v>
-      </c>
-      <c r="D5">
-        <v>0.399764919</v>
-      </c>
-      <c r="E5">
-        <v>3.2073999999999998E-2</v>
-      </c>
-      <c r="F5">
-        <v>9.5001253999999993E-2</v>
-      </c>
-      <c r="G5">
-        <v>3.785549E-3</v>
-      </c>
-      <c r="H5">
-        <v>0.98653263199999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>5.4967899999999997E-4</v>
-      </c>
-      <c r="C6">
-        <v>750.02556879999997</v>
-      </c>
-      <c r="D6">
-        <v>0.50015754999999995</v>
-      </c>
-      <c r="E6">
-        <v>3.8374125000000002E-2</v>
-      </c>
-      <c r="F6">
-        <v>0.101830843</v>
-      </c>
-      <c r="G6">
-        <v>5.2321299999999998E-3</v>
-      </c>
-      <c r="H6">
-        <v>0.99445781600000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>3.38769E-4</v>
-      </c>
-      <c r="C7">
-        <v>750.05733190000001</v>
-      </c>
-      <c r="D7">
-        <v>0.49989457599999998</v>
-      </c>
-      <c r="E7">
-        <v>3.2000428999999997E-2</v>
-      </c>
-      <c r="F7">
-        <v>0.108397884</v>
-      </c>
-      <c r="G7">
-        <v>4.1389720000000003E-3</v>
-      </c>
-      <c r="H7">
-        <v>0.99176721899999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>2.4194099999999999E-4</v>
-      </c>
-      <c r="C8">
-        <v>750.20782199999996</v>
-      </c>
-      <c r="D8">
-        <v>0.40002338700000001</v>
-      </c>
-      <c r="E8">
-        <v>2.9817666999999999E-2</v>
-      </c>
-      <c r="F8">
-        <v>0.106790285</v>
-      </c>
-      <c r="G8">
-        <v>5.2340670000000002E-3</v>
-      </c>
-      <c r="H8">
-        <v>0.99171526700000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>4.9274500000000005E-4</v>
-      </c>
-      <c r="C9">
-        <v>750.25178530000005</v>
-      </c>
-      <c r="D9">
-        <v>0.29988877800000002</v>
-      </c>
-      <c r="E9">
-        <v>2.9670385000000001E-2</v>
-      </c>
-      <c r="F9">
-        <v>0.10019613600000001</v>
-      </c>
-      <c r="G9">
-        <v>2.8000159999999998E-3</v>
-      </c>
-      <c r="H9">
-        <v>0.98938694400000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>160</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.81E-4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>160</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3.0699999999999998E-4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>160</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>160</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4.3100000000000001E-4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>160</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5.3200000000000003E-4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>160</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6.8900000000000005E-4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>160</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.281E-3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>160</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>6.1183099999999996E-4</v>
+        <v>2.52E-4</v>
       </c>
       <c r="C10">
-        <v>750.71744000000001</v>
+        <v>200</v>
       </c>
       <c r="D10">
-        <v>0.50033280999999996</v>
-      </c>
-      <c r="E10">
-        <v>2.9766384999999999E-2</v>
-      </c>
-      <c r="F10">
-        <v>9.8495864000000002E-2</v>
-      </c>
-      <c r="G10">
-        <v>3.1483090000000002E-3</v>
-      </c>
-      <c r="H10">
-        <v>0.99218971899999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>3.9097999999999997E-4</v>
+        <v>2.8299999999999999E-4</v>
       </c>
       <c r="C11">
-        <v>750.86723619999998</v>
+        <v>200</v>
       </c>
       <c r="D11">
-        <v>0.30092750000000001</v>
-      </c>
-      <c r="E11">
-        <v>3.4920187999999998E-2</v>
-      </c>
-      <c r="F11">
-        <v>0.100884113</v>
-      </c>
-      <c r="G11">
-        <v>3.2887580000000001E-3</v>
-      </c>
-      <c r="H11">
-        <v>0.99199386300000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>2.2167000000000001E-4</v>
+        <v>3.2499999999999999E-4</v>
       </c>
       <c r="C12">
-        <v>751.48936860000003</v>
+        <v>200</v>
       </c>
       <c r="D12">
-        <v>0.40003253100000002</v>
-      </c>
-      <c r="E12">
-        <v>1.9631529000000002E-2</v>
-      </c>
-      <c r="F12">
-        <v>0.11041532699999999</v>
-      </c>
-      <c r="G12">
-        <v>4.5576050000000002E-3</v>
-      </c>
-      <c r="H12">
-        <v>0.99505433700000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>6.7796600000000001E-4</v>
+        <v>3.8299999999999999E-4</v>
       </c>
       <c r="C13">
-        <v>752.85933369999998</v>
+        <v>200</v>
       </c>
       <c r="D13">
-        <v>0.49949943499999999</v>
-      </c>
-      <c r="E13">
-        <v>4.1055332999999999E-2</v>
-      </c>
-      <c r="F13">
-        <v>9.7580385000000006E-2</v>
-      </c>
-      <c r="G13">
-        <v>3.6210349999999999E-3</v>
-      </c>
-      <c r="H13">
-        <v>0.99436792399999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>2.54348E-4</v>
+        <v>4.64E-4</v>
       </c>
       <c r="C14">
-        <v>908.35374130000002</v>
+        <v>200</v>
       </c>
       <c r="D14">
-        <v>0.27718706700000001</v>
-      </c>
-      <c r="E14">
-        <v>1.9585846000000001E-2</v>
-      </c>
-      <c r="F14">
-        <v>0.103970942</v>
-      </c>
-      <c r="G14">
-        <v>3.6805710000000001E-3</v>
-      </c>
-      <c r="H14">
-        <v>0.99263151500000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B15">
-        <v>8.0239500000000002E-4</v>
+        <v>5.8399999999999999E-4</v>
       </c>
       <c r="C15">
-        <v>998.44373169999994</v>
+        <v>200</v>
       </c>
       <c r="D15">
-        <v>0.499859416</v>
-      </c>
-      <c r="E15">
-        <v>1.5360333E-2</v>
-      </c>
-      <c r="F15">
-        <v>0.10280117799999999</v>
-      </c>
-      <c r="G15">
-        <v>3.8602500000000002E-4</v>
-      </c>
-      <c r="H15">
-        <v>0.99546705300000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>5.0275999999999999E-4</v>
+        <v>7.8799999999999996E-4</v>
       </c>
       <c r="C16">
-        <v>999.40820970000004</v>
+        <v>200</v>
       </c>
       <c r="D16">
-        <v>0.29920427599999999</v>
-      </c>
-      <c r="E16">
-        <v>3.5955842000000002E-2</v>
-      </c>
-      <c r="F16">
-        <v>0.101860464</v>
-      </c>
-      <c r="G16">
-        <v>4.1493759999999998E-3</v>
-      </c>
-      <c r="H16">
-        <v>0.98989876499999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>5.9944000000000002E-4</v>
+        <v>1.0950000000000001E-3</v>
       </c>
       <c r="C17">
-        <v>999.59662909999997</v>
+        <v>200</v>
       </c>
       <c r="D17">
-        <v>0.40006547100000001</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>9.7689174000000004E-2</v>
-      </c>
-      <c r="G17">
-        <v>4.8635799999999999E-4</v>
-      </c>
-      <c r="H17">
-        <v>0.99499302099999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>7.1244500000000003E-4</v>
+        <v>1.5E-3</v>
       </c>
       <c r="C18">
-        <v>999.64467930000001</v>
+        <v>200</v>
       </c>
       <c r="D18">
-        <v>0.49991358299999999</v>
-      </c>
-      <c r="E18">
-        <v>1.5761217000000001E-2</v>
-      </c>
-      <c r="F18">
-        <v>9.4884389999999999E-2</v>
-      </c>
-      <c r="G18">
-        <v>2.2179650000000001E-3</v>
-      </c>
-      <c r="H18">
-        <v>0.99704778699999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19">
-        <v>3.7785800000000001E-4</v>
-      </c>
-      <c r="C19">
-        <v>999.67359969999995</v>
-      </c>
-      <c r="D19">
-        <v>0.30006925000000001</v>
-      </c>
-      <c r="E19">
-        <v>2.6276999999999998E-2</v>
-      </c>
-      <c r="F19">
-        <v>0.108183192</v>
-      </c>
-      <c r="G19">
-        <v>4.052745E-3</v>
-      </c>
-      <c r="H19">
-        <v>0.98579144299999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20">
-        <v>5.6844399999999998E-4</v>
-      </c>
-      <c r="C20">
-        <v>1000.032227</v>
-      </c>
-      <c r="D20">
-        <v>0.29996158899999997</v>
-      </c>
-      <c r="E20">
-        <v>1.6771635999999999E-2</v>
-      </c>
-      <c r="F20">
-        <v>9.7314092000000005E-2</v>
-      </c>
-      <c r="G20">
-        <v>2.175696E-3</v>
-      </c>
-      <c r="H20">
-        <v>0.995888047</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21">
-        <v>6.5962200000000001E-4</v>
-      </c>
-      <c r="C21">
-        <v>1000.129858</v>
-      </c>
-      <c r="D21">
-        <v>0.49965211700000001</v>
-      </c>
-      <c r="E21">
-        <v>3.9373499999999999E-2</v>
-      </c>
-      <c r="F21">
-        <v>0.10375522299999999</v>
-      </c>
-      <c r="G21">
-        <v>5.4323920000000003E-3</v>
-      </c>
-      <c r="H21">
-        <v>0.99410157700000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22">
-        <v>7.5361500000000001E-4</v>
-      </c>
-      <c r="C22">
-        <v>1000.183129</v>
-      </c>
-      <c r="D22">
-        <v>0.50001522700000001</v>
-      </c>
-      <c r="E22">
-        <v>1.5923438000000002E-2</v>
-      </c>
-      <c r="F22">
-        <v>9.5239508E-2</v>
-      </c>
-      <c r="G22">
-        <v>2.0156449999999999E-3</v>
-      </c>
-      <c r="H22">
-        <v>0.99718886500000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23">
-        <v>3.65507E-4</v>
-      </c>
-      <c r="C23">
-        <v>1000.201091</v>
-      </c>
-      <c r="D23">
-        <v>0.30000356700000003</v>
-      </c>
-      <c r="E23">
-        <v>2.9010142999999999E-2</v>
-      </c>
-      <c r="F23">
-        <v>0.114449734</v>
-      </c>
-      <c r="G23">
-        <v>4.440495E-3</v>
-      </c>
-      <c r="H23">
-        <v>0.99139601200000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24">
-        <v>3.21902E-4</v>
-      </c>
-      <c r="C24">
-        <v>1000.303949</v>
-      </c>
-      <c r="D24">
-        <v>0.50013415000000006</v>
-      </c>
-      <c r="E24">
-        <v>2.9240461999999998E-2</v>
-      </c>
-      <c r="F24">
-        <v>0.11521322000000001</v>
-      </c>
-      <c r="G24">
-        <v>4.8777610000000004E-3</v>
-      </c>
-      <c r="H24">
-        <v>0.99550441999999995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25">
-        <v>4.4690600000000001E-4</v>
-      </c>
-      <c r="C25">
-        <v>1000.564352</v>
-      </c>
-      <c r="D25">
-        <v>0.40118413600000002</v>
-      </c>
-      <c r="E25">
-        <v>3.6132938000000003E-2</v>
-      </c>
-      <c r="F25">
-        <v>0.10055367599999999</v>
-      </c>
-      <c r="G25">
-        <v>4.5400780000000003E-3</v>
-      </c>
-      <c r="H25">
-        <v>0.98875126400000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26">
-        <v>2.6539199999999998E-4</v>
-      </c>
-      <c r="C26">
-        <v>1002.961609</v>
-      </c>
-      <c r="D26">
-        <v>0.30087852900000001</v>
-      </c>
-      <c r="E26">
-        <v>2.4022870000000002E-2</v>
-      </c>
-      <c r="F26">
-        <v>0.10911349100000001</v>
-      </c>
-      <c r="G26">
-        <v>5.1225200000000002E-3</v>
-      </c>
-      <c r="H26">
-        <v>0.99228384400000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27">
-        <v>2.7240599999999999E-4</v>
-      </c>
-      <c r="C27">
-        <v>1242.8563799999999</v>
-      </c>
-      <c r="D27">
-        <v>0.29883443599999998</v>
-      </c>
-      <c r="E27">
-        <v>2.9332111000000001E-2</v>
-      </c>
-      <c r="F27">
-        <v>0.11349644</v>
-      </c>
-      <c r="G27">
-        <v>5.5628220000000003E-3</v>
-      </c>
-      <c r="H27">
-        <v>0.99175836900000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.7099999999999997E-4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>240</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.9799999999999998E-4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>240</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3.4299999999999999E-4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>240</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4.0400000000000001E-4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>240</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5.0299999999999997E-4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>240</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>6.0999999999999997E-4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>240</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <v>8.0400000000000003E-4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>240</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1.0920000000000001E-3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>240</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.4159999999999999E-3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>240</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B28">
-        <v>5.6636299999999996E-4</v>
+        <v>2.5399999999999999E-4</v>
       </c>
       <c r="C28">
-        <v>1249.038305</v>
+        <v>280</v>
       </c>
       <c r="D28">
-        <v>0.50009379399999998</v>
-      </c>
-      <c r="E28">
-        <v>3.3174416999999998E-2</v>
-      </c>
-      <c r="F28">
-        <v>0.114298685</v>
-      </c>
-      <c r="G28">
-        <v>5.8367810000000001E-3</v>
-      </c>
-      <c r="H28">
-        <v>0.99043759600000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B29">
-        <v>4.4455299999999998E-4</v>
+        <v>2.9399999999999999E-4</v>
       </c>
       <c r="C29">
-        <v>1249.8621929999999</v>
+        <v>280</v>
       </c>
       <c r="D29">
-        <v>0.29980042600000001</v>
-      </c>
-      <c r="E29">
-        <v>2.8255058999999999E-2</v>
-      </c>
-      <c r="F29">
-        <v>0.10856081200000001</v>
-      </c>
-      <c r="G29">
-        <v>3.8722560000000001E-3</v>
-      </c>
-      <c r="H29">
-        <v>0.98956896599999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B30">
-        <v>3.4781999999999999E-4</v>
+        <v>3.3700000000000001E-4</v>
       </c>
       <c r="C30">
-        <v>1249.9720520000001</v>
+        <v>280</v>
       </c>
       <c r="D30">
-        <v>0.29999618500000003</v>
-      </c>
-      <c r="E30">
-        <v>4.2983100000000003E-2</v>
-      </c>
-      <c r="F30">
-        <v>0.10975439100000001</v>
-      </c>
-      <c r="G30">
-        <v>4.7517119999999999E-3</v>
-      </c>
-      <c r="H30">
-        <v>0.98241363800000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B31">
-        <v>3.0862499999999998E-4</v>
+        <v>4.0200000000000001E-4</v>
       </c>
       <c r="C31">
-        <v>1250.009063</v>
+        <v>280</v>
       </c>
       <c r="D31">
-        <v>0.300016848</v>
-      </c>
-      <c r="E31">
-        <v>3.03678E-2</v>
-      </c>
-      <c r="F31">
-        <v>0.107568497</v>
-      </c>
-      <c r="G31">
-        <v>4.6496790000000003E-3</v>
-      </c>
-      <c r="H31">
-        <v>0.98361751799999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B32">
-        <v>3.9580799999999999E-4</v>
+        <v>4.9700000000000005E-4</v>
       </c>
       <c r="C32">
-        <v>1250.0364039999999</v>
+        <v>280</v>
       </c>
       <c r="D32">
-        <v>0.29999587</v>
-      </c>
-      <c r="E32">
-        <v>2.3775000000000001E-2</v>
-      </c>
-      <c r="F32">
-        <v>0.11548971800000001</v>
-      </c>
-      <c r="G32">
-        <v>4.2850120000000004E-3</v>
-      </c>
-      <c r="H32">
-        <v>0.99005631800000005</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B33">
-        <v>4.85129E-4</v>
+        <v>6.1700000000000004E-4</v>
       </c>
       <c r="C33">
-        <v>1250.056002</v>
+        <v>280</v>
       </c>
       <c r="D33">
-        <v>0.30007985999999998</v>
-      </c>
-      <c r="E33">
-        <v>2.7580614999999999E-2</v>
-      </c>
-      <c r="F33">
-        <v>0.11381099</v>
-      </c>
-      <c r="G33">
-        <v>4.0394979999999999E-3</v>
-      </c>
-      <c r="H33">
-        <v>0.99273382399999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B34">
-        <v>4.7428800000000001E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="C34">
-        <v>1250.0886849999999</v>
+        <v>280</v>
       </c>
       <c r="D34">
-        <v>0.30001281800000001</v>
-      </c>
-      <c r="E34">
-        <v>2.8364166999999999E-2</v>
-      </c>
-      <c r="F34">
-        <v>0.11308117199999999</v>
-      </c>
-      <c r="G34">
-        <v>5.2047889999999996E-3</v>
-      </c>
-      <c r="H34">
-        <v>0.99108814999999995</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B35">
-        <v>3.4672300000000001E-4</v>
+        <v>1.0989999999999999E-3</v>
       </c>
       <c r="C35">
-        <v>1250.9434040000001</v>
+        <v>280</v>
       </c>
       <c r="D35">
-        <v>0.39999618199999998</v>
-      </c>
-      <c r="E35">
-        <v>3.9580443999999999E-2</v>
-      </c>
-      <c r="F35">
-        <v>0.110695898</v>
-      </c>
-      <c r="G35">
-        <v>6.4767380000000001E-3</v>
-      </c>
-      <c r="H35">
-        <v>0.99251876100000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B36">
-        <v>5.7827599999999996E-4</v>
+        <v>1.2780000000000001E-3</v>
       </c>
       <c r="C36">
-        <v>1252.670832</v>
+        <v>280</v>
       </c>
       <c r="D36">
-        <v>0.49995556099999999</v>
-      </c>
-      <c r="E36">
-        <v>4.6688437999999999E-2</v>
-      </c>
-      <c r="F36">
-        <v>9.5985962999999994E-2</v>
-      </c>
-      <c r="G36">
-        <v>5.6972220000000001E-3</v>
-      </c>
-      <c r="H36">
-        <v>0.98525604600000005</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B37">
-        <v>4.6433100000000001E-4</v>
+        <v>2.2510799999999999E-4</v>
       </c>
       <c r="C37">
-        <v>1255.424561</v>
+        <v>280</v>
       </c>
       <c r="D37">
-        <v>0.39989443400000002</v>
-      </c>
-      <c r="E37">
-        <v>3.2895832999999999E-2</v>
-      </c>
-      <c r="F37">
-        <v>0.10475915299999999</v>
-      </c>
-      <c r="G37">
-        <v>4.4100290000000002E-3</v>
-      </c>
-      <c r="H37">
-        <v>0.98489914300000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B38">
-        <v>4.11395E-4</v>
+        <v>2.5108200000000002E-4</v>
       </c>
       <c r="C38">
-        <v>1267.5140690000001</v>
+        <v>280</v>
       </c>
       <c r="D38">
-        <v>0.49920661399999999</v>
-      </c>
-      <c r="E38">
-        <v>2.7389750000000001E-2</v>
-      </c>
-      <c r="F38">
-        <v>0.12562072899999999</v>
-      </c>
-      <c r="G38">
-        <v>3.9256580000000003E-3</v>
-      </c>
-      <c r="H38">
-        <v>0.99312282299999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B39">
-        <v>3.13467E-4</v>
+        <v>2.8571400000000001E-4</v>
       </c>
       <c r="C39">
-        <v>1271.3936630000001</v>
+        <v>280</v>
       </c>
       <c r="D39">
-        <v>0.40056073800000003</v>
-      </c>
-      <c r="E39">
-        <v>3.3499599999999997E-2</v>
-      </c>
-      <c r="F39">
-        <v>0.11312243299999999</v>
-      </c>
-      <c r="G39">
-        <v>5.9295399999999996E-3</v>
-      </c>
-      <c r="H39">
-        <v>0.99374623100000004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B40">
-        <v>7.2654800000000004E-4</v>
+        <v>3.3419899999999998E-4</v>
       </c>
       <c r="C40">
-        <v>1455.6305829999999</v>
+        <v>280</v>
       </c>
       <c r="D40">
-        <v>0.49692148400000002</v>
-      </c>
-      <c r="E40">
-        <v>1.6203833000000001E-2</v>
-      </c>
-      <c r="F40">
-        <v>9.1711663999999998E-2</v>
-      </c>
-      <c r="G40">
-        <v>2.966729E-3</v>
-      </c>
-      <c r="H40">
-        <v>0.99718670099999995</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B41">
-        <v>8.1662800000000002E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="C41">
-        <v>1492.737848</v>
+        <v>280</v>
       </c>
       <c r="D41">
-        <v>0.50025813699999999</v>
-      </c>
-      <c r="E41">
-        <v>2.5555333E-2</v>
-      </c>
-      <c r="F41">
-        <v>9.2475197999999995E-2</v>
-      </c>
-      <c r="G41">
-        <v>2.9827109999999999E-3</v>
-      </c>
-      <c r="H41">
-        <v>0.99533773199999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B42">
-        <v>8.5975099999999996E-4</v>
+        <v>5.0216499999999995E-4</v>
       </c>
       <c r="C42">
-        <v>1494.673636</v>
+        <v>280</v>
       </c>
       <c r="D42">
-        <v>0.50000099099999995</v>
-      </c>
-      <c r="E42">
-        <v>2.7710216999999999E-2</v>
-      </c>
-      <c r="F42">
-        <v>9.1934420000000003E-2</v>
-      </c>
-      <c r="G42">
-        <v>2.846627E-3</v>
-      </c>
-      <c r="H42">
-        <v>0.99697522500000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B43">
-        <v>7.0617800000000001E-4</v>
+        <v>6.44156E-4</v>
       </c>
       <c r="C43">
-        <v>1497.1705119999999</v>
+        <v>280</v>
       </c>
       <c r="D43">
-        <v>0.49990232400000001</v>
-      </c>
-      <c r="E43">
-        <v>1.9429286E-2</v>
-      </c>
-      <c r="F43">
-        <v>9.1588153000000005E-2</v>
-      </c>
-      <c r="G43">
-        <v>3.0430520000000001E-3</v>
-      </c>
-      <c r="H43">
-        <v>0.99707969600000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B44">
-        <v>6.3737199999999998E-4</v>
+        <v>9.904759999999999E-4</v>
       </c>
       <c r="C44">
-        <v>1500.051467</v>
+        <v>280</v>
       </c>
       <c r="D44">
-        <v>0.29994249899999997</v>
-      </c>
-      <c r="E44">
-        <v>2.6298999999999999E-2</v>
-      </c>
-      <c r="F44">
-        <v>0.10857765</v>
-      </c>
-      <c r="G44">
-        <v>7.1048200000000002E-4</v>
-      </c>
-      <c r="H44">
-        <v>0.99349073799999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B45">
-        <v>5.2616900000000005E-4</v>
+        <v>1.4112549999999999E-3</v>
       </c>
       <c r="C45">
-        <v>1500.0874120000001</v>
+        <v>280</v>
       </c>
       <c r="D45">
-        <v>0.30007125099999998</v>
-      </c>
-      <c r="E45">
-        <v>1.9176444000000001E-2</v>
-      </c>
-      <c r="F45">
-        <v>0.12915310899999999</v>
-      </c>
-      <c r="G45">
-        <v>7.8471699999999999E-4</v>
-      </c>
-      <c r="H45">
-        <v>0.99525415699999997</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B46">
-        <v>7.4180700000000003E-4</v>
+        <v>2.4242400000000001E-4</v>
       </c>
       <c r="C46">
-        <v>1500.215265</v>
+        <v>280</v>
       </c>
       <c r="D46">
-        <v>0.39993976599999997</v>
-      </c>
-      <c r="E46">
-        <v>4.5705333000000001E-2</v>
-      </c>
-      <c r="F46">
-        <v>9.7766817000000006E-2</v>
-      </c>
-      <c r="G46">
-        <v>4.3964299999999998E-4</v>
-      </c>
-      <c r="H46">
-        <v>0.99480906899999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B47">
-        <v>9.1292700000000001E-4</v>
+        <v>2.7186099999999998E-4</v>
       </c>
       <c r="C47">
-        <v>1500.5413000000001</v>
+        <v>280</v>
       </c>
       <c r="D47">
-        <v>0.50044513199999996</v>
-      </c>
-      <c r="E47">
-        <v>2.2795666999999999E-2</v>
-      </c>
-      <c r="F47">
-        <v>0.103834646</v>
-      </c>
-      <c r="G47">
-        <v>4.4096199999999998E-4</v>
-      </c>
-      <c r="H47">
-        <v>0.99445706499999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48">
-        <v>9.4360899999999998E-4</v>
-      </c>
-      <c r="C48">
-        <v>1500.993866</v>
-      </c>
-      <c r="D48">
-        <v>0.499986655</v>
-      </c>
-      <c r="E48">
-        <v>2.3137000000000001E-2</v>
-      </c>
-      <c r="F48">
-        <v>0.103615651</v>
-      </c>
-      <c r="G48">
-        <v>8.3131500000000001E-4</v>
-      </c>
-      <c r="H48">
-        <v>0.99464200000000003</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49">
-        <v>6.1466400000000001E-4</v>
-      </c>
-      <c r="C49">
-        <v>1502.4972680000001</v>
-      </c>
-      <c r="D49">
-        <v>0.40017336999999997</v>
-      </c>
-      <c r="E49">
-        <v>1.6598000000000002E-2</v>
-      </c>
-      <c r="F49">
-        <v>9.4777095000000006E-2</v>
-      </c>
-      <c r="G49">
-        <v>2.47956E-3</v>
-      </c>
-      <c r="H49">
-        <v>0.99691817900000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50">
-        <v>6.6162899999999995E-4</v>
-      </c>
-      <c r="C50">
-        <v>1504.5464079999999</v>
-      </c>
-      <c r="D50">
-        <v>0.40074769799999999</v>
-      </c>
-      <c r="E50">
-        <v>1.9850666999999999E-2</v>
-      </c>
-      <c r="F50">
-        <v>9.4852504000000004E-2</v>
-      </c>
-      <c r="G50">
-        <v>2.9607710000000001E-3</v>
-      </c>
-      <c r="H50">
-        <v>0.99641502000000004</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51">
-        <v>7.2370699999999997E-4</v>
-      </c>
-      <c r="C51">
-        <v>1752.5926159999999</v>
-      </c>
-      <c r="D51">
-        <v>0.50002069100000002</v>
-      </c>
-      <c r="E51">
-        <v>2.4327778000000001E-2</v>
-      </c>
-      <c r="F51">
-        <v>9.0262732999999998E-2</v>
-      </c>
-      <c r="G51">
-        <v>2.7651020000000002E-3</v>
-      </c>
-      <c r="H51">
-        <v>0.99688110399999996</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52">
-        <v>8.0128199999999995E-4</v>
-      </c>
-      <c r="C52">
-        <v>1995.9935250000001</v>
-      </c>
-      <c r="D52">
-        <v>0.49970003499999999</v>
-      </c>
-      <c r="E52">
-        <v>2.9573833000000001E-2</v>
-      </c>
-      <c r="F52">
-        <v>0.101849986</v>
-      </c>
-      <c r="G52">
-        <v>6.1271999999999997E-4</v>
-      </c>
-      <c r="H52">
-        <v>0.99330616800000004</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53">
-        <v>6.8117199999999996E-4</v>
-      </c>
-      <c r="C53">
-        <v>1999.6194820000001</v>
-      </c>
-      <c r="D53">
-        <v>0.49998881699999997</v>
-      </c>
-      <c r="E53">
-        <v>2.3282932999999999E-2</v>
-      </c>
-      <c r="F53">
-        <v>8.8787929000000002E-2</v>
-      </c>
-      <c r="G53">
-        <v>2.7722139999999998E-3</v>
-      </c>
-      <c r="H53">
-        <v>0.99639685600000005</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54">
-        <v>6.1575900000000001E-4</v>
-      </c>
-      <c r="C54">
-        <v>1999.9767119999999</v>
-      </c>
-      <c r="D54">
-        <v>0.40001579300000001</v>
-      </c>
-      <c r="E54">
-        <v>3.4569500000000003E-2</v>
-      </c>
-      <c r="F54">
-        <v>9.3052383000000002E-2</v>
-      </c>
-      <c r="G54">
-        <v>1.4778720000000001E-3</v>
-      </c>
-      <c r="H54">
-        <v>0.99505876199999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55">
-        <v>5.7284199999999995E-4</v>
-      </c>
-      <c r="C55">
-        <v>2000.4061589999999</v>
-      </c>
-      <c r="D55">
-        <v>0.40002267499999999</v>
-      </c>
-      <c r="E55">
-        <v>2.1106E-2</v>
-      </c>
-      <c r="F55">
-        <v>8.9342075000000007E-2</v>
-      </c>
-      <c r="G55">
-        <v>1.5362749999999999E-3</v>
-      </c>
-      <c r="H55">
-        <v>0.99545406299999994</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56">
-        <v>7.3430900000000005E-4</v>
-      </c>
-      <c r="C56">
-        <v>2000.6603399999999</v>
-      </c>
-      <c r="D56">
-        <v>0.50012684799999996</v>
-      </c>
-      <c r="E56">
-        <v>2.0743889000000001E-2</v>
-      </c>
-      <c r="F56">
-        <v>8.9674559000000001E-2</v>
-      </c>
-      <c r="G56">
-        <v>3.0504239999999999E-3</v>
-      </c>
-      <c r="H56">
-        <v>0.99543250999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57">
-        <v>2.5999999999999998E-4</v>
-      </c>
-      <c r="C57">
-        <v>160</v>
-      </c>
-      <c r="D57">
-        <v>0.2</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>9.6295699999999996E-4</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58">
-        <v>2.81E-4</v>
-      </c>
-      <c r="C58">
-        <v>160</v>
-      </c>
-      <c r="D58">
-        <v>0.2</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>5.4068499999999995E-4</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59">
-        <v>3.0699999999999998E-4</v>
-      </c>
-      <c r="C59">
-        <v>160</v>
-      </c>
-      <c r="D59">
-        <v>0.2</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>5.7356200000000001E-4</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60">
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="C60">
-        <v>160</v>
-      </c>
-      <c r="D60">
-        <v>0.2</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>1.609114E-3</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61">
-        <v>4.3100000000000001E-4</v>
-      </c>
-      <c r="C61">
-        <v>160</v>
-      </c>
-      <c r="D61">
-        <v>0.2</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>2.0221039999999998E-3</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3.0995699999999997E-4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>280</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="1">
+        <v>3.6017299999999998E-4</v>
+      </c>
+      <c r="C49" s="1">
+        <v>280</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="1">
+        <v>4.3636400000000001E-4</v>
+      </c>
+      <c r="C50" s="1">
+        <v>280</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1">
+        <v>5.4891800000000002E-4</v>
+      </c>
+      <c r="C51" s="1">
+        <v>280</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="1">
+        <v>7.1515200000000004E-4</v>
+      </c>
+      <c r="C52" s="1">
+        <v>280</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1.0147190000000001E-3</v>
+      </c>
+      <c r="C53" s="1">
+        <v>280</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1.4943720000000001E-3</v>
+      </c>
+      <c r="C54" s="1">
+        <v>280</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2.5800900000000002E-4</v>
+      </c>
+      <c r="C55" s="1">
+        <v>280</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2.90909E-4</v>
+      </c>
+      <c r="C56" s="1">
+        <v>280</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="1">
+        <v>3.3419899999999998E-4</v>
+      </c>
+      <c r="C57" s="1">
+        <v>280</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="1">
+        <v>3.9307399999999998E-4</v>
+      </c>
+      <c r="C58" s="1">
+        <v>280</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="1">
+        <v>4.7445899999999999E-4</v>
+      </c>
+      <c r="C59" s="1">
+        <v>280</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="1">
+        <v>5.9913399999999997E-4</v>
+      </c>
+      <c r="C60" s="1">
+        <v>280</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="1">
+        <v>7.7229399999999998E-4</v>
+      </c>
+      <c r="C61" s="1">
+        <v>280</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>3</v>
       </c>
       <c r="B62">
-        <v>5.3200000000000003E-4</v>
+        <v>1.0320349999999999E-3</v>
       </c>
       <c r="C62">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="D62">
-        <v>0.2</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>1.858317E-3</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
       <c r="B63">
-        <v>6.8900000000000005E-4</v>
+        <v>1.314286E-3</v>
       </c>
       <c r="C63">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="D63">
-        <v>0.2</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>1.541461E-3</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64">
-        <v>1.281E-3</v>
-      </c>
-      <c r="C64">
-        <v>160</v>
-      </c>
-      <c r="D64">
-        <v>0.2</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>1.2030529999999999E-3</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65">
-        <v>2.52E-4</v>
-      </c>
-      <c r="C65">
-        <v>200</v>
-      </c>
-      <c r="D65">
-        <v>0.2</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>2.27729E-4</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66">
-        <v>2.8299999999999999E-4</v>
-      </c>
-      <c r="C66">
-        <v>200</v>
-      </c>
-      <c r="D66">
-        <v>0.2</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>1.347741E-3</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67">
-        <v>3.2499999999999999E-4</v>
-      </c>
-      <c r="C67">
-        <v>200</v>
-      </c>
-      <c r="D67">
-        <v>0.2</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>1.48168E-3</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>3</v>
-      </c>
-      <c r="B68">
-        <v>3.8299999999999999E-4</v>
-      </c>
-      <c r="C68">
-        <v>200</v>
-      </c>
-      <c r="D68">
-        <v>0.2</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>1.5823530000000001E-3</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>3</v>
-      </c>
-      <c r="B69">
-        <v>4.64E-4</v>
-      </c>
-      <c r="C69">
-        <v>200</v>
-      </c>
-      <c r="D69">
-        <v>0.2</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>1.264077E-3</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70">
-        <v>5.8399999999999999E-4</v>
-      </c>
-      <c r="C70">
-        <v>200</v>
-      </c>
-      <c r="D70">
-        <v>0.2</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>1.7501089999999999E-3</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71">
-        <v>7.8799999999999996E-4</v>
-      </c>
-      <c r="C71">
-        <v>200</v>
-      </c>
-      <c r="D71">
-        <v>0.2</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>1.2385709999999999E-3</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>3</v>
-      </c>
-      <c r="B72">
-        <v>1.0950000000000001E-3</v>
-      </c>
-      <c r="C72">
-        <v>200</v>
-      </c>
-      <c r="D72">
-        <v>0.2</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>9.1166800000000003E-4</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73">
-        <v>1.5E-3</v>
-      </c>
-      <c r="C73">
-        <v>200</v>
-      </c>
-      <c r="D73">
-        <v>0.2</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>4.5693399999999999E-4</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74">
-        <v>2.7099999999999997E-4</v>
-      </c>
-      <c r="C74">
-        <v>240</v>
-      </c>
-      <c r="D74">
-        <v>0.2</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>5.6943599999999999E-4</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75">
-        <v>2.9799999999999998E-4</v>
-      </c>
-      <c r="C75">
-        <v>240</v>
-      </c>
-      <c r="D75">
-        <v>0.2</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>1.764112E-3</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76">
-        <v>3.4299999999999999E-4</v>
-      </c>
-      <c r="C76">
-        <v>240</v>
-      </c>
-      <c r="D76">
-        <v>0.2</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>2.7815829999999998E-3</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77">
-        <v>4.0400000000000001E-4</v>
-      </c>
-      <c r="C77">
-        <v>240</v>
-      </c>
-      <c r="D77">
-        <v>0.2</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>3.124384E-3</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78">
-        <v>5.0299999999999997E-4</v>
-      </c>
-      <c r="C78">
-        <v>240</v>
-      </c>
-      <c r="D78">
-        <v>0.2</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>3.5047860000000002E-3</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79">
-        <v>6.0999999999999997E-4</v>
-      </c>
-      <c r="C79">
-        <v>240</v>
-      </c>
-      <c r="D79">
-        <v>0.2</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>3.015471E-3</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80">
-        <v>8.0400000000000003E-4</v>
-      </c>
-      <c r="C80">
-        <v>240</v>
-      </c>
-      <c r="D80">
-        <v>0.2</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>2.3056370000000001E-3</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81">
-        <v>1.0920000000000001E-3</v>
-      </c>
-      <c r="C81">
-        <v>240</v>
-      </c>
-      <c r="D81">
-        <v>0.2</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>1.8617429999999999E-3</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82">
-        <v>1.4159999999999999E-3</v>
-      </c>
-      <c r="C82">
-        <v>240</v>
-      </c>
-      <c r="D82">
-        <v>0.2</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>9.7170399999999999E-4</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83">
-        <v>2.5399999999999999E-4</v>
-      </c>
-      <c r="C83">
-        <v>280</v>
-      </c>
-      <c r="D83">
-        <v>0.2</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>6.6906099999999998E-4</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>3</v>
-      </c>
-      <c r="B84">
-        <v>2.9399999999999999E-4</v>
-      </c>
-      <c r="C84">
-        <v>280</v>
-      </c>
-      <c r="D84">
-        <v>0.2</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>2.4819130000000001E-3</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85">
-        <v>3.3700000000000001E-4</v>
-      </c>
-      <c r="C85">
-        <v>280</v>
-      </c>
-      <c r="D85">
-        <v>0.2</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>3.5047860000000002E-3</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86">
-        <v>4.0200000000000001E-4</v>
-      </c>
-      <c r="C86">
-        <v>280</v>
-      </c>
-      <c r="D86">
-        <v>0.2</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>3.5300269999999998E-3</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87">
-        <v>4.9700000000000005E-4</v>
-      </c>
-      <c r="C87">
-        <v>280</v>
-      </c>
-      <c r="D87">
-        <v>0.2</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>3.7511160000000001E-3</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>3</v>
-      </c>
-      <c r="B88">
-        <v>6.1700000000000004E-4</v>
-      </c>
-      <c r="C88">
-        <v>280</v>
-      </c>
-      <c r="D88">
-        <v>0.2</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>3.7918209999999999E-3</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>3</v>
-      </c>
-      <c r="B89">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="C89">
-        <v>280</v>
-      </c>
-      <c r="D89">
-        <v>0.2</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>2.9280959999999998E-3</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90">
-        <v>1.0989999999999999E-3</v>
-      </c>
-      <c r="C90">
-        <v>280</v>
-      </c>
-      <c r="D90">
-        <v>0.2</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>2.4002030000000001E-3</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>3</v>
-      </c>
-      <c r="B91">
-        <v>1.2780000000000001E-3</v>
-      </c>
-      <c r="C91">
-        <v>280</v>
-      </c>
-      <c r="D91">
-        <v>0.2</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>1.534342E-3</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>4</v>
-      </c>
-      <c r="B92">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="C92">
-        <v>2050</v>
-      </c>
-      <c r="D92">
-        <v>0.3</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>5.9087439999999996E-3</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>4</v>
-      </c>
-      <c r="B93">
-        <v>9.0499999999999999E-4</v>
-      </c>
-      <c r="C93">
-        <v>2350</v>
-      </c>
-      <c r="D93">
-        <v>0.5</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>5.9087439999999996E-3</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>5</v>
-      </c>
-      <c r="B94">
-        <v>6.3250000000000003E-4</v>
-      </c>
-      <c r="C94">
-        <v>1600</v>
-      </c>
-      <c r="D94">
-        <v>0.3</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>5.9087439999999996E-3</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>5</v>
-      </c>
-      <c r="B95">
-        <v>6.0749999999999997E-4</v>
-      </c>
-      <c r="C95">
-        <v>1500</v>
-      </c>
-      <c r="D95">
-        <v>0.3</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>5.9087439999999996E-3</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>5</v>
-      </c>
-      <c r="B96">
-        <v>7.3800000000000005E-4</v>
-      </c>
-      <c r="C96">
-        <v>1450</v>
-      </c>
-      <c r="D96">
-        <v>0.5</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>5.9087439999999996E-3</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>5</v>
-      </c>
-      <c r="B97">
-        <v>8.6499999999999999E-4</v>
-      </c>
-      <c r="C97">
-        <v>1850</v>
-      </c>
-      <c r="D97">
-        <v>0.5</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>5.9087439999999996E-3</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>6</v>
-      </c>
-      <c r="B98">
-        <v>6.2750000000000002E-4</v>
-      </c>
-      <c r="C98">
-        <v>1600</v>
-      </c>
-      <c r="D98">
-        <v>0.3</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>5.9087439999999996E-3</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99">
-        <v>5.8500000000000002E-4</v>
-      </c>
-      <c r="C99">
-        <v>1450</v>
-      </c>
-      <c r="D99">
-        <v>0.3</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>5.9087439999999996E-3</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>6</v>
-      </c>
-      <c r="B100">
-        <v>7.0750000000000001E-4</v>
-      </c>
-      <c r="C100">
-        <v>1400</v>
-      </c>
-      <c r="D100">
-        <v>0.5</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>5.9087439999999996E-3</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>6</v>
-      </c>
-      <c r="B101">
-        <v>6.3500000000000004E-4</v>
-      </c>
-      <c r="C101">
-        <v>1150</v>
-      </c>
-      <c r="D101">
-        <v>0.5</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>5.9087439999999996E-3</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>7</v>
-      </c>
-      <c r="B102">
-        <v>6.6750000000000002E-4</v>
-      </c>
-      <c r="C102">
-        <v>1600</v>
-      </c>
-      <c r="D102">
-        <v>0.3</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>5.9087439999999996E-3</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>7</v>
-      </c>
-      <c r="B103">
-        <v>6.3029999999999998E-4</v>
-      </c>
-      <c r="C103">
-        <v>1500</v>
-      </c>
-      <c r="D103">
-        <v>0.3</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>5.9087439999999996E-3</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>7</v>
-      </c>
-      <c r="B104">
-        <v>7.2250000000000005E-4</v>
-      </c>
-      <c r="C104">
-        <v>1350</v>
-      </c>
-      <c r="D104">
-        <v>0.5</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>5.9087439999999996E-3</v>
-      </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>7</v>
-      </c>
-      <c r="B105">
-        <v>6.7250000000000003E-4</v>
-      </c>
-      <c r="C105">
-        <v>1200</v>
-      </c>
-      <c r="D105">
-        <v>0.5</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <v>5.9087439999999996E-3</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
